--- a/Data/Sites_overview.xlsx
+++ b/Data/Sites_overview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\Marta Via\1. PhD\A. Data\Overview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\GitHub\EU_Overview\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB38277-AFBC-4520-9C67-72903B71EBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283D4408-96BD-401B-A7ED-18502859E478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="540" windowWidth="14205" windowHeight="14955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="30" windowWidth="15660" windowHeight="14955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="309">
   <si>
     <t>Site</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>PMF_outp</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>RB</t>
   </si>
   <si>
-    <t>Regional background</t>
-  </si>
-  <si>
     <t>Urban background</t>
   </si>
   <si>
@@ -166,12 +160,6 @@
   </si>
   <si>
     <t>PD</t>
-  </si>
-  <si>
-    <t>45º22'39''</t>
-  </si>
-  <si>
-    <t>11º56'24''</t>
   </si>
   <si>
     <t>AMS</t>
@@ -575,21 +563,12 @@
     <t>??</t>
   </si>
   <si>
-    <t>Own format</t>
-  </si>
-  <si>
-    <t>Athens-NOA</t>
-  </si>
-  <si>
     <t>NOA</t>
   </si>
   <si>
     <t>Greece</t>
   </si>
   <si>
-    <t xml:space="preserve">Original in start time. Fixed. </t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -605,12 +584,6 @@
     <t>BO</t>
   </si>
   <si>
-    <t>44º31'20''</t>
-  </si>
-  <si>
-    <t>11º20'18''</t>
-  </si>
-  <si>
     <t xml:space="preserve">Paglione  et al., 2020 (https://doi.org/10.5194/acp-20-1233-2020, 2020). </t>
   </si>
   <si>
@@ -638,12 +611,6 @@
     <t>Pikridas did something strange with PMF</t>
   </si>
   <si>
-    <t>35º2'19.35''</t>
-  </si>
-  <si>
-    <t>33º3'27.95''</t>
-  </si>
-  <si>
     <t>CMN</t>
   </si>
   <si>
@@ -653,12 +620,6 @@
     <t>Mountain</t>
   </si>
   <si>
-    <t>44º12'</t>
-  </si>
-  <si>
-    <t>10º42'</t>
-  </si>
-  <si>
     <t>Rinaldi et al., 2015 (https://doi.org/10.5194/acp-15-11327-2015, 2015)</t>
   </si>
   <si>
@@ -695,9 +656,6 @@
     <t>Mt. Cimone</t>
   </si>
   <si>
-    <t>Capogranitola</t>
-  </si>
-  <si>
     <t>CGR</t>
   </si>
   <si>
@@ -734,23 +692,341 @@
     <t>MI</t>
   </si>
   <si>
-    <t>45º28'43''</t>
-  </si>
-  <si>
-    <t>9º14'4''</t>
-  </si>
-  <si>
     <t>DSF</t>
   </si>
   <si>
     <t>COA</t>
+  </si>
+  <si>
+    <t>Athens-Demokritos</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>ToF</t>
+  </si>
+  <si>
+    <t>Start/Stop</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Zografou et al. (2022)</t>
+  </si>
+  <si>
+    <t>Athens -Thissio</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Birkenes</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>BAQS</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>PM2.5</t>
+  </si>
+  <si>
+    <t>Capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1h </t>
+  </si>
+  <si>
+    <t>Capo Granitola</t>
+  </si>
+  <si>
+    <t>Carnsore Point</t>
+  </si>
+  <si>
+    <t>CRP</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Lin et al. 2021</t>
+  </si>
+  <si>
+    <t>Lacking the profiles</t>
+  </si>
+  <si>
+    <t>DUB</t>
+  </si>
+  <si>
+    <t>Lin et al. (2021)</t>
+  </si>
+  <si>
+    <t>Gif-sur-Yvette</t>
+  </si>
+  <si>
+    <t>SIRTA</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>GRA</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>HEL</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Heikkinen et al. (2020)</t>
+  </si>
+  <si>
+    <t>Ispra-JRC</t>
+  </si>
+  <si>
+    <t>KRK</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Tobler et al. (2021)</t>
+  </si>
+  <si>
+    <t>Krakow - AGH University</t>
+  </si>
+  <si>
+    <t>Dublin - UCD</t>
+  </si>
+  <si>
+    <t>London - Marylebone Road</t>
+  </si>
+  <si>
+    <t>LONMR</t>
+  </si>
+  <si>
+    <t>London - North Kensington</t>
+  </si>
+  <si>
+    <t>LONNK</t>
+  </si>
+  <si>
+    <t>Mace Head</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>10'</t>
+  </si>
+  <si>
+    <t>Magadino</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Regional/Rural background</t>
+  </si>
+  <si>
+    <t>Chen et al. (2021)</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>MAQS</t>
+  </si>
+  <si>
+    <t>CE1</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>MAR-LCP</t>
+  </si>
+  <si>
+    <t>Chazeau et al. (2021)</t>
+  </si>
+  <si>
+    <t>Montseny</t>
+  </si>
+  <si>
+    <t>Standart</t>
+  </si>
+  <si>
+    <t>Rinaldi et al. (2015)</t>
+  </si>
+  <si>
+    <t>Prague - Suchdol</t>
+  </si>
+  <si>
+    <t>PRG-SUCH</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Kubelová et al. (2015)</t>
+  </si>
+  <si>
+    <t>Puy de Dome</t>
+  </si>
+  <si>
+    <t>PUY</t>
+  </si>
+  <si>
+    <t>Via et al. (2021)</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>San Pietro Capofiume</t>
+  </si>
+  <si>
+    <t>SPC</t>
+  </si>
+  <si>
+    <t>CE05</t>
+  </si>
+  <si>
+    <t>Gilardoni et al. (2014)</t>
+  </si>
+  <si>
+    <t>Tartu</t>
+  </si>
+  <si>
+    <t>TAR</t>
+  </si>
+  <si>
+    <t>PMF_outp_TS</t>
+  </si>
+  <si>
+    <t>w/ PR?</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Virohlahti</t>
+  </si>
+  <si>
+    <t>Zurich - Kaserne</t>
+  </si>
+  <si>
+    <t>Chen et al. (2022)</t>
+  </si>
+  <si>
+    <t>15'</t>
+  </si>
+  <si>
+    <t>Melpitz</t>
+  </si>
+  <si>
+    <t>Kosetice</t>
+  </si>
+  <si>
+    <t>Poulain et al. (2020), Atabaksh et al. (2023)</t>
+  </si>
+  <si>
+    <t>KOS</t>
+  </si>
+  <si>
+    <t>Finokalia</t>
+  </si>
+  <si>
+    <t>Q-AMS</t>
+  </si>
+  <si>
+    <t>c-ToF-AMS</t>
+  </si>
+  <si>
+    <t>Hyltemossa</t>
+  </si>
+  <si>
+    <t>HTM</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Zeppelin Mountain</t>
+  </si>
+  <si>
+    <t>ZEP</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Arctic</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Requires action</t>
+  </si>
+  <si>
+    <t>No PMF output</t>
+  </si>
+  <si>
+    <t>No PMF mats</t>
+  </si>
+  <si>
+    <t>No PMF in/out</t>
+  </si>
+  <si>
+    <t>Missing coordinates</t>
+  </si>
+  <si>
+    <t>Paglione et al. (2020)</t>
+  </si>
+  <si>
+    <t>Zhang et al. (2019)</t>
+  </si>
+  <si>
+    <t>Bressi et al. (2016)</t>
+  </si>
+  <si>
+    <t>Chebaicheb et al. (2023)</t>
+  </si>
+  <si>
+    <t>Christodolou et al. (2023)</t>
+  </si>
+  <si>
+    <t>Villeneuve d'Asq</t>
+  </si>
+  <si>
+    <t>VDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,13 +1155,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -945,8 +1214,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1152,12 +1442,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF6699"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1170,7 +1454,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,7 +1697,7 @@
     <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1403,13 +1705,13 @@
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -1417,48 +1719,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="37" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1468,7 +1765,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1490,12 +1787,56 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1871,54 +2212,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="U14" workbookViewId="0">
+      <pane xSplit="2580"/>
+      <selection sqref="A1:V42"/>
+      <selection pane="topRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="6" width="5" style="27" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="27" customWidth="1"/>
+    <col min="5" max="6" width="5.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="6" style="33" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>155</v>
+      <c r="E1" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>151</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>5</v>
@@ -1927,280 +2272,325 @@
         <v>6</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>8</v>
+        <v>274</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="50">
+        <v>37.994999999999997</v>
+      </c>
+      <c r="F2" s="50">
+        <v>23.815999999999999</v>
+      </c>
+      <c r="G2" s="50">
+        <v>270</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="45">
+        <v>43049</v>
+      </c>
+      <c r="J2" s="45">
+        <v>44405</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="P2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="21">
-        <v>42736</v>
-      </c>
-      <c r="J2" s="21">
-        <v>44531</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
+      <c r="T2" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="U2" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="V2" s="46"/>
+    </row>
+    <row r="3" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="4" t="s">
         <v>156</v>
       </c>
+      <c r="D3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="52">
+        <v>37.973439999999997</v>
+      </c>
+      <c r="F3" s="52">
+        <v>23.718084999999999</v>
+      </c>
+      <c r="G3" s="52">
+        <v>105</v>
+      </c>
       <c r="H3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="21">
+        <v>42736</v>
+      </c>
+      <c r="J3" s="21">
+        <v>44531</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="21">
-        <v>40864</v>
-      </c>
-      <c r="J3" s="21">
-        <v>44391</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="30"/>
-    </row>
-    <row r="4" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43">
+      <c r="T3" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V3" s="27"/>
+    </row>
+    <row r="4" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A15" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="52">
+        <v>41.387500000000003</v>
+      </c>
+      <c r="F4" s="52">
+        <v>2.1180560000000002</v>
+      </c>
+      <c r="G4" s="52">
+        <v>80</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="I4" s="21">
+        <v>41778</v>
+      </c>
+      <c r="J4" s="21">
+        <v>45135</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="I4" s="21">
-        <v>42370</v>
-      </c>
-      <c r="J4" s="21">
-        <v>44783</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4" s="30"/>
-    </row>
-    <row r="5" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+      <c r="U4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="V4" s="27"/>
+    </row>
+    <row r="5" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E5" s="4">
-        <v>37.575299999999999</v>
-      </c>
-      <c r="F5" s="4">
-        <v>12.6595</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>156</v>
+        <v>32</v>
+      </c>
+      <c r="E5" s="47">
+        <v>58.4</v>
+      </c>
+      <c r="F5" s="47">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G5" s="47">
+        <v>220</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="I5" s="21">
-        <v>42467</v>
+        <v>42396</v>
       </c>
       <c r="J5" s="21">
-        <v>42485</v>
+        <v>43368</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>7</v>
+      <c r="L5" s="57" t="s">
+        <v>8</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>45</v>
+      <c r="N5" s="55" t="s">
+        <v>8</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="30"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
-        <f t="shared" ref="A6:A17" si="0">A5+1</f>
+        <v>155</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V5" s="27"/>
+    </row>
+    <row r="6" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="23">
-        <v>47.8</v>
-      </c>
-      <c r="F6" s="23">
-        <v>11</v>
-      </c>
-      <c r="G6" s="25">
-        <v>985</v>
+        <v>34</v>
+      </c>
+      <c r="E6" s="52">
+        <v>52.456000000000003</v>
+      </c>
+      <c r="F6" s="52">
+        <v>-1.929</v>
+      </c>
+      <c r="G6" s="52">
+        <v>143</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="21">
-        <v>41640</v>
+        <v>213</v>
+      </c>
+      <c r="I6" s="40">
+        <v>43466</v>
       </c>
       <c r="J6" s="21">
         <v>44926</v>
@@ -2208,182 +2598,197 @@
       <c r="K6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="L6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="55"/>
       <c r="O6" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
+        <v>253</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V6" s="27"/>
+    </row>
+    <row r="7" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="23">
-        <v>61.8</v>
-      </c>
-      <c r="F7" s="23">
-        <v>24.3</v>
-      </c>
-      <c r="G7" s="23">
-        <v>181</v>
+        <v>34</v>
+      </c>
+      <c r="E7" s="53">
+        <v>44.522221999999999</v>
+      </c>
+      <c r="F7" s="53">
+        <v>11.338333</v>
+      </c>
+      <c r="G7" s="52">
+        <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="R7" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="S7" s="22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
+        <v>22</v>
+      </c>
+      <c r="I7" s="21">
+        <v>40864</v>
+      </c>
+      <c r="J7" s="21">
+        <v>44391</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="55"/>
+      <c r="O7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="V7" s="27"/>
+    </row>
+    <row r="8" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="23">
-        <v>45.8</v>
-      </c>
-      <c r="F8" s="23">
-        <v>8.6</v>
-      </c>
-      <c r="G8" s="23">
-        <v>223</v>
+        <v>179</v>
+      </c>
+      <c r="E8" s="53">
+        <v>44.348050000000001</v>
+      </c>
+      <c r="F8" s="53">
+        <v>5.394692</v>
+      </c>
+      <c r="G8" s="53">
+        <v>93</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="21">
+        <v>42370</v>
+      </c>
+      <c r="J8" s="21">
+        <v>44783</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="55"/>
+      <c r="O8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="21">
-        <v>41334</v>
-      </c>
-      <c r="J8" s="21">
-        <v>41698</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="4" t="s">
+      <c r="S8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" s="18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
+      <c r="T8" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="V8" s="27"/>
+    </row>
+    <row r="9" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="23">
-        <v>50.61</v>
-      </c>
-      <c r="F9" s="23">
-        <v>3.14</v>
-      </c>
-      <c r="G9" s="23">
-        <v>70</v>
+        <v>188</v>
+      </c>
+      <c r="E9" s="53">
+        <v>37.575299999999999</v>
+      </c>
+      <c r="F9" s="53">
+        <v>12.6595</v>
+      </c>
+      <c r="G9" s="52">
+        <v>5</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="I9" s="21">
-        <v>42654</v>
+        <v>42467</v>
       </c>
       <c r="J9" s="21">
-        <v>44196</v>
+        <v>42485</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>7</v>
@@ -2394,612 +2799,2490 @@
       <c r="M9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="N9" s="55"/>
       <c r="O9" s="4" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V9" s="27"/>
+    </row>
+    <row r="10" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="52">
+        <v>51.185000000000002</v>
+      </c>
+      <c r="F10" s="52">
+        <v>-6.3683329999999998</v>
+      </c>
+      <c r="G10" s="52">
+        <v>9</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I10" s="21">
+        <v>42600</v>
+      </c>
+      <c r="J10" s="21">
+        <v>44910</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="55"/>
+      <c r="O10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S9" s="18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="36" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="T10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="V10" s="27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="53">
+        <v>53.305300000000003</v>
+      </c>
+      <c r="F11" s="53">
+        <v>-6.0512560000000004</v>
+      </c>
+      <c r="G11" s="53">
+        <v>35</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I11" s="21">
+        <v>42587</v>
+      </c>
+      <c r="J11" s="21">
+        <v>44926</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="55"/>
+      <c r="O11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="21">
-        <v>41673</v>
-      </c>
-      <c r="J10" s="21">
-        <v>41698</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="4" t="s">
+      <c r="S11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S10" s="18"/>
-    </row>
-    <row r="11" spans="1:21" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11" s="23">
-        <v>2165</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="21">
-        <v>41071</v>
-      </c>
-      <c r="J11" s="21">
-        <v>41099</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S11" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
+      <c r="T11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="V11" s="27"/>
+    </row>
+    <row r="12" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>174</v>
+        <v>285</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="23">
-        <v>352</v>
+        <v>188</v>
+      </c>
+      <c r="E12" s="53">
+        <v>35.337799072300001</v>
+      </c>
+      <c r="F12" s="53">
+        <v>25.669399261500001</v>
+      </c>
+      <c r="G12" s="53">
+        <v>150</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="I12" s="21">
-        <v>43441</v>
+        <v>39869</v>
       </c>
       <c r="J12" s="21">
-        <v>43616</v>
+        <v>39898</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="L12" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="55"/>
       <c r="O12" s="4" t="s">
-        <v>13</v>
+        <v>286</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S12" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="41">
+      <c r="T12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V12" s="27"/>
+    </row>
+    <row r="13" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="63">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>156</v>
+        <v>179</v>
+      </c>
+      <c r="E13" s="47">
+        <v>48.71</v>
+      </c>
+      <c r="F13" s="47">
+        <v>2.15</v>
+      </c>
+      <c r="G13" s="47">
+        <v>163</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I13" s="21">
+        <v>40695</v>
+      </c>
+      <c r="J13" s="21">
+        <v>44921</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="55"/>
+      <c r="O13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="21">
-        <v>41665</v>
-      </c>
-      <c r="J13" s="21">
-        <v>41698</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="4" t="s">
+      <c r="S13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="T13" s="7"/>
-      <c r="U13" s="6"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="T13" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="V13" s="27"/>
+    </row>
+    <row r="14" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="6"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="B14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="52">
+        <v>37.163888999999998</v>
+      </c>
+      <c r="F14" s="52">
+        <v>3.605</v>
+      </c>
+      <c r="G14" s="52">
+        <v>68</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I14" s="21">
+        <v>42353</v>
+      </c>
+      <c r="J14" s="21">
+        <v>42416</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="55"/>
+      <c r="O14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V14" s="27"/>
+    </row>
+    <row r="15" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="6"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
+      <c r="B15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" s="21">
+        <v>42165</v>
+      </c>
+      <c r="J15" s="21">
+        <v>43830</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="55"/>
+      <c r="O15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="6"/>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
+      <c r="R15" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V15" s="27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="37">
+        <f>A15+1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="47">
+        <v>47.8</v>
+      </c>
+      <c r="F16" s="47">
+        <v>11</v>
+      </c>
+      <c r="G16" s="53">
+        <v>985</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="21">
+        <v>41640</v>
+      </c>
+      <c r="J16" s="21">
+        <v>44926</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="55"/>
+      <c r="O16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V16" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37">
+        <f t="shared" ref="A17:A49" si="1">A16+1</f>
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="6"/>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="47">
+        <v>56.097630000000002</v>
+      </c>
+      <c r="F17" s="47">
+        <v>13.41897</v>
+      </c>
+      <c r="G17" s="53">
+        <v>115</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I17" s="21">
+        <v>43011</v>
+      </c>
+      <c r="J17" s="21">
+        <v>43969</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="55"/>
+      <c r="O17" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V17" s="18"/>
+    </row>
+    <row r="18" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" ref="A18" si="1">A17+1</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="6"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="48">
+        <v>61.8</v>
+      </c>
+      <c r="F18" s="48">
+        <v>24.3</v>
+      </c>
+      <c r="G18" s="48">
+        <v>181</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="43">
+        <v>40908</v>
+      </c>
+      <c r="J18" s="43">
+        <v>44196</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="56"/>
+      <c r="O18" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="S18" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="T18" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="U18" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="V18" s="43"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f>A18+1</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="B19" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="47">
+        <v>45.8</v>
+      </c>
+      <c r="F19" s="47">
+        <v>8.6</v>
+      </c>
+      <c r="G19" s="47">
+        <v>223</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="21">
+        <v>41334</v>
+      </c>
+      <c r="J19" s="21">
+        <v>41698</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="55"/>
+      <c r="O19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="V19" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="54">
+        <v>49.583333000000003</v>
+      </c>
+      <c r="F20" s="54">
+        <v>15.083333</v>
+      </c>
+      <c r="G20" s="54">
+        <v>534</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="I20" s="21">
+        <v>43473</v>
+      </c>
+      <c r="J20" s="21">
+        <v>43752</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V20" s="18"/>
+    </row>
+    <row r="21" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="48">
+        <v>50.089704666700001</v>
+      </c>
+      <c r="F21" s="48">
+        <v>19.890297</v>
+      </c>
+      <c r="G21" s="48">
+        <v>13</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I21" s="21">
+        <v>43108</v>
+      </c>
+      <c r="J21" s="21">
+        <v>43565</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="55"/>
+      <c r="O21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="V21" s="18"/>
+    </row>
+    <row r="22" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="63">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="47">
+        <v>50.61</v>
+      </c>
+      <c r="F22" s="47">
+        <v>3.14</v>
+      </c>
+      <c r="G22" s="47">
+        <v>70</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I22" s="21">
+        <v>42654</v>
+      </c>
+      <c r="J22" s="21">
+        <v>44196</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="V22" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="48">
+        <v>51.52</v>
+      </c>
+      <c r="F23" s="48">
+        <v>-0.154611</v>
+      </c>
+      <c r="G23" s="48">
+        <v>39</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I23" s="21">
+        <v>43678</v>
+      </c>
+      <c r="J23" s="21">
+        <v>44127</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="55"/>
+      <c r="O23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="V23" s="18"/>
+    </row>
+    <row r="24" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="48">
+        <v>51.521000000000001</v>
+      </c>
+      <c r="F24" s="48">
+        <v>-0.2135</v>
+      </c>
+      <c r="G24" s="48">
+        <v>27</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I24" s="21">
+        <v>42331</v>
+      </c>
+      <c r="J24" s="21">
+        <v>43153</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="55"/>
+      <c r="O24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="V24" s="18"/>
+    </row>
+    <row r="25" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="47">
+        <v>53.3</v>
+      </c>
+      <c r="F25" s="47">
+        <v>-9.9</v>
+      </c>
+      <c r="G25" s="47">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I25" s="21">
+        <v>42377</v>
+      </c>
+      <c r="J25" s="21">
+        <v>43294</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="55"/>
+      <c r="O25" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V25" s="18"/>
+    </row>
+    <row r="26" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="47">
+        <v>46.2</v>
+      </c>
+      <c r="F26" s="47">
+        <v>8.9</v>
+      </c>
+      <c r="G26" s="47">
+        <v>203</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I26" s="21">
+        <v>41514</v>
+      </c>
+      <c r="J26" s="21">
+        <v>41942</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="55"/>
+      <c r="O26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="V26" s="18"/>
+    </row>
+    <row r="27" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="48">
+        <v>53.44417</v>
+      </c>
+      <c r="F27" s="48">
+        <v>-2.2144439999999999</v>
+      </c>
+      <c r="G27" s="48">
+        <v>43</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I27" s="21">
+        <v>43889</v>
+      </c>
+      <c r="J27" s="21">
+        <v>45020</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="55"/>
+      <c r="O27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V27" s="18"/>
+    </row>
+    <row r="28" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="47">
+        <v>43.305233000000001</v>
+      </c>
+      <c r="F28" s="47">
+        <v>5.394692</v>
+      </c>
+      <c r="G28" s="47">
+        <v>71</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28" s="21">
+        <v>42947</v>
+      </c>
+      <c r="J28" s="21">
+        <v>44925</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" s="55"/>
+      <c r="O28" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="V28" s="18"/>
+    </row>
+    <row r="29" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="64">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="47">
+        <v>51.54</v>
+      </c>
+      <c r="F29" s="47">
+        <v>12.93</v>
+      </c>
+      <c r="G29" s="47">
+        <v>86</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="21">
+        <v>42621</v>
+      </c>
+      <c r="J29" s="21">
+        <v>42978</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="V29" s="18"/>
+    </row>
+    <row r="30" spans="1:22" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="47">
+        <v>45.478611000000001</v>
+      </c>
+      <c r="F30" s="47">
+        <v>9.2344439999999999</v>
+      </c>
+      <c r="G30" s="48">
+        <v>118</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="21">
+        <v>41673</v>
+      </c>
+      <c r="J30" s="21">
+        <v>41698</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V30" s="18"/>
+    </row>
+    <row r="31" spans="1:22" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="38">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="48">
+        <v>41.779342</v>
+      </c>
+      <c r="F31" s="48">
+        <v>2.3580329999999998</v>
+      </c>
+      <c r="G31" s="48">
+        <v>720</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I31" s="21">
+        <v>44426</v>
+      </c>
+      <c r="J31" s="21">
+        <v>44711</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" s="18"/>
+      <c r="O31" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V31" s="18"/>
+    </row>
+    <row r="32" spans="1:22" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="47">
+        <v>44.2</v>
+      </c>
+      <c r="F32" s="47">
+        <v>10.7</v>
+      </c>
+      <c r="G32" s="47">
+        <v>2165</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="21">
+        <v>41071</v>
+      </c>
+      <c r="J32" s="21">
+        <v>41099</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="V32" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="47">
+        <v>35.038708</v>
+      </c>
+      <c r="F33" s="47">
+        <v>33.057763999999999</v>
+      </c>
+      <c r="G33" s="47">
+        <v>352</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I33" s="21">
+        <v>43441</v>
+      </c>
+      <c r="J33" s="21">
+        <v>43616</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="V33" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="53">
+        <v>45.377499999999998</v>
+      </c>
+      <c r="F34" s="53">
+        <v>11.94</v>
+      </c>
+      <c r="G34" s="52">
+        <v>11</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="21">
+        <v>41665</v>
+      </c>
+      <c r="J34" s="21">
+        <v>41698</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="W34" s="7"/>
+      <c r="X34" s="6"/>
+    </row>
+    <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="38">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="47">
+        <v>50.1</v>
+      </c>
+      <c r="F35" s="47">
+        <v>14.4</v>
+      </c>
+      <c r="G35" s="47">
+        <v>277</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="I35" s="21">
+        <v>41080</v>
+      </c>
+      <c r="J35" s="21">
+        <v>41409</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="18"/>
+      <c r="O35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="V35" s="4"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="6"/>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="58">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D37" t="s">
+      <c r="B36" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="52">
+        <v>45.766669999999998</v>
+      </c>
+      <c r="F36" s="52">
+        <v>2.95</v>
+      </c>
+      <c r="G36" s="52">
+        <v>1465</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I36" s="21">
+        <v>43622</v>
+      </c>
+      <c r="J36" s="21">
+        <v>44195</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36" s="18"/>
+      <c r="O36" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V36" s="4"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="6"/>
+    </row>
+    <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="58">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="s">
+      <c r="B37" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="53">
+        <v>44.524444000000003</v>
+      </c>
+      <c r="F37" s="53">
+        <v>11.524444000000001</v>
+      </c>
+      <c r="G37" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="21">
+        <v>40861</v>
+      </c>
+      <c r="J37" s="21">
+        <v>42347</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="V37" s="4"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="6"/>
+    </row>
+    <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="58">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" s="47">
+        <v>58.370600000000003</v>
+      </c>
+      <c r="F38" s="47">
+        <v>26.7349</v>
+      </c>
+      <c r="G38" s="47">
+        <v>39</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I38" s="21">
+        <v>42614</v>
+      </c>
+      <c r="J38" s="21">
+        <v>42940</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N38" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V38" s="4"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="6"/>
+    </row>
+    <row r="39" spans="1:24" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="37">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" s="47">
+        <v>50.611016999999997</v>
+      </c>
+      <c r="F39" s="47">
+        <v>3.1403500000000002</v>
+      </c>
+      <c r="G39" s="47">
+        <v>70</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I39" s="21">
+        <v>42370</v>
+      </c>
+      <c r="J39" s="21">
+        <v>44196</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M39" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="N39" s="55"/>
+      <c r="O39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V39" s="4"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="6"/>
+    </row>
+    <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="37">
+        <f>A39+1</f>
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="47">
+        <v>60.5</v>
+      </c>
+      <c r="F40" s="47">
+        <v>27.7</v>
+      </c>
+      <c r="G40" s="47">
+        <v>7</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I40" s="21">
+        <v>41075</v>
+      </c>
+      <c r="J40" s="21">
+        <v>41432</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L40" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M40" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="N40" s="18"/>
+      <c r="O40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V40" s="4"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="6"/>
+    </row>
+    <row r="41" spans="1:24" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="37">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E41" s="47">
+        <v>78.907150000000001</v>
+      </c>
+      <c r="F41" s="47">
+        <v>-11.886799999999999</v>
+      </c>
+      <c r="G41" s="47">
+        <v>474</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I41" s="21">
+        <v>44562</v>
+      </c>
+      <c r="J41" s="21">
+        <v>44910</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="18"/>
+      <c r="O41" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V41" s="4"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="6"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="47">
+        <v>47.4</v>
+      </c>
+      <c r="F42" s="47">
+        <v>8.5</v>
+      </c>
+      <c r="G42" s="47">
+        <v>409</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I42" s="21">
+        <v>42613</v>
+      </c>
+      <c r="J42" s="21">
+        <v>45118</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="V42" s="4"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+    </row>
+    <row r="54" spans="1:22" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H55" s="59"/>
+      <c r="I55" s="24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H56" s="61"/>
+      <c r="I56" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H57" s="62"/>
+      <c r="I57" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>185</v>
-      </c>
-      <c r="D41" t="s">
-        <v>184</v>
+      <c r="D60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B61" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>295</v>
+      </c>
+      <c r="D66" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3013,11 +5296,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="27" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3025,256 +5308,256 @@
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="G2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="28" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="31" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="34" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="36" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="33" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>209</v>
-      </c>
       <c r="H4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="34" t="s">
-        <v>207</v>
+      <c r="I4" s="31" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:10" s="36" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:10" s="33" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="1:10" s="33" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="J6" s="37"/>
-    </row>
-    <row r="7" spans="1:10" s="36" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>210</v>
-      </c>
       <c r="B7" s="9" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G7" s="9">
         <v>0.1</v>
       </c>
       <c r="H7" s="9"/>
-      <c r="I7" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="J7" s="37"/>
-    </row>
-    <row r="8" spans="1:10" s="36" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="34"/>
+    </row>
+    <row r="8" spans="1:10" s="33" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="J8" s="37"/>
-    </row>
-    <row r="9" spans="1:10" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="1:10" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="J9" s="29"/>
+        <v>8</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3286,85 +5569,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C78A47A-00B8-4862-88C2-60A2D23E5951}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="F2" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="G2" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="H2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="I2" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="L2" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L3" s="24"/>
+        <v>106</v>
+      </c>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C4" s="20">
         <v>41.4</v>
@@ -3376,13 +5659,13 @@
         <v>80</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11">
         <v>41778</v>
@@ -3394,15 +5677,15 @@
         <v>92</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C5" s="20">
         <v>58.4</v>
@@ -3414,13 +5697,13 @@
         <v>220</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="11">
         <v>41046</v>
@@ -3432,15 +5715,15 @@
         <v>73</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="20">
         <v>52</v>
@@ -3452,13 +5735,13 @@
         <v>-1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="11">
         <v>41101</v>
@@ -3470,15 +5753,15 @@
         <v>75</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C7" s="20">
         <v>51.1</v>
@@ -3490,13 +5773,13 @@
         <v>7</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="11">
         <v>41470</v>
@@ -3508,15 +5791,15 @@
         <v>76</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C8" s="20">
         <v>43</v>
@@ -3528,13 +5811,13 @@
         <v>550</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="11">
         <v>41070</v>
@@ -3546,15 +5829,15 @@
         <v>64</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" s="20">
         <v>35.299999999999997</v>
@@ -3566,33 +5849,33 @@
         <v>250</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="11">
         <v>41047</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K9" s="17">
         <v>84</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C10" s="20">
         <v>47.8</v>
@@ -3604,16 +5887,16 @@
         <v>985</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J10" s="11">
         <v>42063</v>
@@ -3622,15 +5905,15 @@
         <v>96</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C11" s="20">
         <v>45.8</v>
@@ -3642,13 +5925,13 @@
         <v>223</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="11">
         <v>41334</v>
@@ -3660,15 +5943,15 @@
         <v>85</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C12" s="20">
         <v>46.5</v>
@@ -3680,13 +5963,13 @@
         <v>3880</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I12" s="11">
         <v>41117</v>
@@ -3698,15 +5981,15 @@
         <v>76</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C13" s="20">
         <v>51.5</v>
@@ -3718,33 +6001,33 @@
         <v>27</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K13" s="17">
         <v>97</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C14" s="20">
         <v>46.2</v>
@@ -3756,16 +6039,16 @@
         <v>203</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J14" s="11">
         <v>41942</v>
@@ -3774,15 +6057,15 @@
         <v>94</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C15" s="20">
         <v>51.5</v>
@@ -3794,13 +6077,13 @@
         <v>86</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15" s="11">
         <v>41064</v>
@@ -3812,15 +6095,15 @@
         <v>83</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C16" s="20">
         <v>53.3</v>
@@ -3832,16 +6115,16 @@
         <v>5</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J16" s="11">
         <v>41568</v>
@@ -3850,15 +6133,15 @@
         <v>94</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C17" s="20">
         <v>42.1</v>
@@ -3870,33 +6153,33 @@
         <v>1570</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17" s="11">
         <v>40738</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K17" s="17">
         <v>67</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C18" s="20">
         <v>41.8</v>
@@ -3908,13 +6191,13 @@
         <v>720</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" s="11">
         <v>41074</v>
@@ -3926,15 +6209,15 @@
         <v>81</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C19" s="20">
         <v>50.1</v>
@@ -3946,13 +6229,13 @@
         <v>277</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I19" s="11">
         <v>41080</v>
@@ -3964,15 +6247,15 @@
         <v>88</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C20" s="20">
         <v>48.7</v>
@@ -3984,13 +6267,13 @@
         <v>150</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I20" s="11">
         <v>40695</v>
@@ -4002,15 +6285,15 @@
         <v>76</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C21" s="20">
         <v>61.8</v>
@@ -4022,13 +6305,13 @@
         <v>181</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I21" s="11">
         <v>40996</v>
@@ -4040,15 +6323,15 @@
         <v>83</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C22" s="20">
         <v>58.4</v>
@@ -4060,13 +6343,13 @@
         <v>30</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I22" s="11">
         <v>41675</v>
@@ -4078,15 +6361,15 @@
         <v>80</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C23" s="8">
         <v>60.5</v>
@@ -4098,13 +6381,13 @@
         <v>7</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I23" s="11">
         <v>41075</v>
@@ -4116,15 +6399,15 @@
         <v>75</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C24" s="8">
         <v>47.4</v>
@@ -4135,12 +6418,12 @@
       <c r="E24" s="8">
         <v>409</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I24" s="11">
         <v>40578</v>
@@ -4152,7 +6435,7 @@
         <v>85</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sites_overview.xlsx
+++ b/Data/Sites_overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\GitHub\EU_Overview\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283D4408-96BD-401B-A7ED-18502859E478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EF47C2-494E-446F-A801-B02A682457F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="30" windowWidth="15660" windowHeight="14955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="310">
   <si>
     <t>Site</t>
   </si>
@@ -1016,10 +1016,13 @@
     <t>Christodolou et al. (2023)</t>
   </si>
   <si>
-    <t>Villeneuve d'Asq</t>
-  </si>
-  <si>
-    <t>VDA</t>
+    <t>Montsec</t>
+  </si>
+  <si>
+    <t>Ripoll et al. (2015)</t>
+  </si>
+  <si>
+    <t>MSC</t>
   </si>
 </sst>
 </file>
@@ -1789,10 +1792,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1836,7 +1835,11 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -2214,15 +2217,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U14" workbookViewId="0">
-      <pane xSplit="2580"/>
-      <selection sqref="A1:V42"/>
-      <selection pane="topRight" activeCell="E39" sqref="E39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
@@ -2247,13 +2248,13 @@
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="47" t="s">
         <v>151</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -2303,68 +2304,72 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="61">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="50">
-        <v>37.994999999999997</v>
-      </c>
-      <c r="F2" s="50">
-        <v>23.815999999999999</v>
-      </c>
-      <c r="G2" s="50">
-        <v>270</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" s="45">
-        <v>43049</v>
-      </c>
-      <c r="J2" s="45">
-        <v>44405</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="P2" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="45">
+        <v>50.61</v>
+      </c>
+      <c r="F2" s="45">
+        <v>3.14</v>
+      </c>
+      <c r="G2" s="45">
+        <v>70</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="21">
+        <v>42654</v>
+      </c>
+      <c r="J2" s="21">
+        <v>44196</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="U2" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="V2" s="46"/>
+      <c r="T2" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="U2" s="66" t="s">
+        <v>305</v>
+      </c>
+      <c r="V2" s="44" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="3" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38">
@@ -2372,56 +2377,56 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="52">
-        <v>37.973439999999997</v>
-      </c>
-      <c r="F3" s="52">
-        <v>23.718084999999999</v>
-      </c>
-      <c r="G3" s="52">
-        <v>105</v>
+      <c r="E3" s="50">
+        <v>52.456000000000003</v>
+      </c>
+      <c r="F3" s="50">
+        <v>-1.929</v>
+      </c>
+      <c r="G3" s="50">
+        <v>143</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="I3" s="21">
-        <v>42736</v>
+        <v>43466</v>
       </c>
       <c r="J3" s="21">
-        <v>44531</v>
+        <v>44926</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="57" t="s">
+      <c r="L3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="18"/>
+      <c r="N3" s="53"/>
       <c r="O3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>23</v>
+        <v>253</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>205</v>
@@ -2433,7 +2438,7 @@
     </row>
     <row r="4" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A15" si="0">A3+1</f>
+        <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2445,13 +2450,13 @@
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="50">
         <v>41.387500000000003</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="50">
         <v>2.1180560000000002</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="50">
         <v>80</v>
       </c>
       <c r="H4" s="18" t="s">
@@ -2497,8 +2502,8 @@
       <c r="V4" s="27"/>
     </row>
     <row r="5" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58">
-        <f t="shared" si="0"/>
+      <c r="A5" s="56">
+        <f>A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2510,13 +2515,13 @@
       <c r="D5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="45">
         <v>58.4</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="45">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="45">
         <v>220</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2531,13 +2536,13 @@
       <c r="K5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="55" t="s">
         <v>8</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="55" t="s">
+      <c r="N5" s="53" t="s">
         <v>8</v>
       </c>
       <c r="O5" s="4" t="s">
@@ -2564,101 +2569,100 @@
       <c r="V5" s="27"/>
     </row>
     <row r="6" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
-        <f t="shared" si="0"/>
+      <c r="A6" s="1">
+        <f>A5+1</f>
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="52">
-        <v>52.456000000000003</v>
-      </c>
-      <c r="F6" s="52">
-        <v>-1.929</v>
-      </c>
-      <c r="G6" s="52">
-        <v>143</v>
+      <c r="E6" s="51">
+        <v>44.522221999999999</v>
+      </c>
+      <c r="F6" s="51">
+        <v>11.338333</v>
+      </c>
+      <c r="G6" s="50">
+        <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" s="40">
-        <v>43466</v>
+        <v>22</v>
+      </c>
+      <c r="I6" s="65">
+        <v>40864</v>
       </c>
       <c r="J6" s="21">
-        <v>44926</v>
+        <v>44391</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="55"/>
+      <c r="L6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="53"/>
       <c r="O6" s="4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="V6" s="27"/>
     </row>
     <row r="7" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="53">
-        <v>44.522221999999999</v>
-      </c>
-      <c r="F7" s="53">
-        <v>11.338333</v>
-      </c>
-      <c r="G7" s="52">
-        <v>0</v>
+      <c r="E7" s="45">
+        <v>35.038708</v>
+      </c>
+      <c r="F7" s="45">
+        <v>33.057763999999999</v>
+      </c>
+      <c r="G7" s="45">
+        <v>352</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="I7" s="21">
-        <v>40864</v>
+        <v>43441</v>
       </c>
       <c r="J7" s="21">
-        <v>44391</v>
+        <v>43616</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>7</v>
@@ -2669,9 +2673,9 @@
       <c r="M7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="55"/>
+      <c r="N7" s="4"/>
       <c r="O7" s="4" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>12</v>
@@ -2683,47 +2687,48 @@
         <v>23</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>205</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="V7" s="27"/>
+        <v>306</v>
+      </c>
+      <c r="V7" s="18" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="8" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="53">
-        <v>44.348050000000001</v>
-      </c>
-      <c r="F8" s="53">
-        <v>5.394692</v>
-      </c>
-      <c r="G8" s="53">
-        <v>93</v>
+        <v>188</v>
+      </c>
+      <c r="E8" s="51">
+        <v>37.575299999999999</v>
+      </c>
+      <c r="F8" s="51">
+        <v>12.6595</v>
+      </c>
+      <c r="G8" s="50">
+        <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="I8" s="21">
-        <v>42370</v>
+        <v>42467</v>
       </c>
       <c r="J8" s="21">
-        <v>44783</v>
+        <v>42485</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>7</v>
@@ -2731,12 +2736,12 @@
       <c r="L8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="55"/>
+      <c r="M8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="53"/>
       <c r="O8" s="4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>12</v>
@@ -2748,47 +2753,47 @@
         <v>23</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="T8" s="4" t="s">
         <v>205</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="V8" s="27"/>
     </row>
     <row r="9" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
+        <f>A8+1</f>
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" s="53">
-        <v>37.575299999999999</v>
-      </c>
-      <c r="F9" s="53">
-        <v>12.6595</v>
-      </c>
-      <c r="G9" s="52">
-        <v>5</v>
+        <v>173</v>
+      </c>
+      <c r="E9" s="45">
+        <v>44.2</v>
+      </c>
+      <c r="F9" s="45">
+        <v>10.7</v>
+      </c>
+      <c r="G9" s="45">
+        <v>2165</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I9" s="21">
-        <v>42467</v>
+        <v>41071</v>
       </c>
       <c r="J9" s="21">
-        <v>42485</v>
+        <v>41099</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>7</v>
@@ -2799,7 +2804,7 @@
       <c r="M9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="55"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
         <v>41</v>
       </c>
@@ -2819,13 +2824,15 @@
         <v>205</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="V9" s="27"/>
+        <v>259</v>
+      </c>
+      <c r="V9" s="18" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="10" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
-        <f t="shared" si="0"/>
+      <c r="A10" s="56">
+        <f>A9+1</f>
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2837,13 +2844,13 @@
       <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="50">
         <v>51.185000000000002</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="50">
         <v>-6.3683329999999998</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="50">
         <v>9</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -2858,13 +2865,13 @@
       <c r="K10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="57" t="s">
+      <c r="L10" s="55" t="s">
         <v>8</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="55"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="4" t="s">
         <v>10</v>
       </c>
@@ -2881,7 +2888,7 @@
         <v>24</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="U10" s="4" t="s">
         <v>221</v>
@@ -2891,114 +2898,113 @@
       </c>
     </row>
     <row r="11" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58">
-        <f t="shared" si="0"/>
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="48">
+        <v>37.994999999999997</v>
+      </c>
+      <c r="F11" s="48">
+        <v>23.815999999999999</v>
+      </c>
+      <c r="G11" s="48">
+        <v>270</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="43">
+        <v>43049</v>
+      </c>
+      <c r="J11" s="43">
+        <v>44405</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="U11" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="V11" s="18"/>
+    </row>
+    <row r="12" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="56">
+        <f>A11+1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E12" s="51">
         <v>53.305300000000003</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F12" s="51">
         <v>-6.0512560000000004</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G12" s="51">
         <v>35</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I12" s="21">
         <v>42587</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J12" s="21">
         <v>44926</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="57" t="s">
+      <c r="K12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="55"/>
-      <c r="O11" s="4" t="s">
+      <c r="M12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="53"/>
+      <c r="O12" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="V11" s="27"/>
-    </row>
-    <row r="12" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="53">
-        <v>35.337799072300001</v>
-      </c>
-      <c r="F12" s="53">
-        <v>25.669399261500001</v>
-      </c>
-      <c r="G12" s="53">
-        <v>150</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" s="21">
-        <v>39869</v>
-      </c>
-      <c r="J12" s="21">
-        <v>39898</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" s="55"/>
-      <c r="O12" s="4" t="s">
-        <v>286</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>12</v>
@@ -3013,57 +3019,57 @@
         <v>24</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="V12" s="27"/>
     </row>
     <row r="13" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63">
-        <f t="shared" si="0"/>
+      <c r="A13" s="37">
+        <f>A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>226</v>
+        <v>61</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13" s="47">
-        <v>48.71</v>
-      </c>
-      <c r="F13" s="47">
-        <v>2.15</v>
-      </c>
-      <c r="G13" s="47">
-        <v>163</v>
+        <v>188</v>
+      </c>
+      <c r="E13" s="51">
+        <v>35.337799072300001</v>
+      </c>
+      <c r="F13" s="51">
+        <v>25.669399261500001</v>
+      </c>
+      <c r="G13" s="51">
+        <v>150</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="I13" s="21">
-        <v>40695</v>
+        <v>39869</v>
       </c>
       <c r="J13" s="21">
-        <v>44921</v>
+        <v>39898</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="57" t="s">
+      <c r="L13" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="57" t="s">
+      <c r="M13" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="55"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="4" t="s">
-        <v>10</v>
+        <v>286</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>12</v>
@@ -3081,13 +3087,13 @@
         <v>205</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="V13" s="27"/>
     </row>
     <row r="14" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
-        <f t="shared" si="0"/>
+      <c r="A14" s="56">
+        <f>A13+1</f>
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3099,13 +3105,13 @@
       <c r="D14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="50">
         <v>37.163888999999998</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="50">
         <v>3.605</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="50">
         <v>68</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -3120,13 +3126,13 @@
       <c r="K14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="57" t="s">
+      <c r="L14" s="55" t="s">
         <v>8</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N14" s="55"/>
+      <c r="N14" s="53"/>
       <c r="O14" s="4" t="s">
         <v>10</v>
       </c>
@@ -3143,7 +3149,7 @@
         <v>24</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="U14" s="4" t="s">
         <v>296</v>
@@ -3152,7 +3158,7 @@
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37">
-        <f t="shared" si="0"/>
+        <f>A14+1</f>
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3164,13 +3170,13 @@
       <c r="D15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="49" t="s">
         <v>152</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -3185,13 +3191,13 @@
       <c r="K15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="57" t="s">
+      <c r="L15" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="57" t="s">
+      <c r="M15" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="55"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="4" t="s">
         <v>10</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>24</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="U15" s="4" t="s">
         <v>296</v>
@@ -3231,13 +3237,13 @@
       <c r="D16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="45">
         <v>47.8</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="45">
         <v>11</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="51">
         <v>985</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -3252,13 +3258,13 @@
       <c r="K16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="57" t="s">
+      <c r="L16" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="57" t="s">
+      <c r="M16" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="55"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="4" t="s">
         <v>10</v>
       </c>
@@ -3286,7 +3292,7 @@
     </row>
     <row r="17" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37">
-        <f t="shared" ref="A17:A49" si="1">A16+1</f>
+        <f>A16+1</f>
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3298,13 +3304,13 @@
       <c r="D17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="45">
         <v>56.097630000000002</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="45">
         <v>13.41897</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="51">
         <v>115</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -3319,13 +3325,13 @@
       <c r="K17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="57" t="s">
+      <c r="L17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="57" t="s">
+      <c r="M17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="55"/>
+      <c r="N17" s="53"/>
       <c r="O17" s="4" t="s">
         <v>203</v>
       </c>
@@ -3342,81 +3348,81 @@
         <v>291</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="U17" s="4" t="s">
         <v>296</v>
       </c>
       <c r="V17" s="18"/>
     </row>
-    <row r="18" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="1"/>
+        <f>A17+1</f>
         <v>17</v>
       </c>
-      <c r="B18" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="48">
-        <v>61.8</v>
-      </c>
-      <c r="F18" s="48">
-        <v>24.3</v>
-      </c>
-      <c r="G18" s="48">
-        <v>181</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="I18" s="43">
-        <v>40908</v>
-      </c>
-      <c r="J18" s="43">
-        <v>44196</v>
-      </c>
-      <c r="K18" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="N18" s="56"/>
-      <c r="O18" s="43" t="s">
+      <c r="B18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="51">
+        <v>44.348050000000001</v>
+      </c>
+      <c r="F18" s="51">
+        <v>5.394692</v>
+      </c>
+      <c r="G18" s="51">
+        <v>93</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I18" s="21">
+        <v>42370</v>
+      </c>
+      <c r="J18" s="21">
+        <v>44783</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="53"/>
+      <c r="O18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P18" s="43" t="s">
+      <c r="P18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q18" s="43" t="s">
+      <c r="Q18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R18" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="S18" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="T18" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="U18" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="V18" s="43"/>
+      <c r="R18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="V18" s="27"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="1"/>
+        <f>A18+1</f>
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3428,13 +3434,13 @@
       <c r="D19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="45">
         <v>45.8</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="45">
         <v>8.6</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="45">
         <v>223</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -3455,7 +3461,7 @@
       <c r="M19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N19" s="55"/>
+      <c r="N19" s="53"/>
       <c r="O19" s="4" t="s">
         <v>10</v>
       </c>
@@ -3483,7 +3489,7 @@
     </row>
     <row r="20" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
-        <f t="shared" si="1"/>
+        <f>A19+1</f>
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3495,13 +3501,13 @@
       <c r="D20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="52">
         <v>49.583333000000003</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="52">
         <v>15.083333</v>
       </c>
-      <c r="G20" s="54">
+      <c r="G20" s="52">
         <v>534</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -3516,13 +3522,13 @@
       <c r="K20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="57" t="s">
+      <c r="L20" s="55" t="s">
         <v>8</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N20" s="55" t="s">
+      <c r="N20" s="53" t="s">
         <v>8</v>
       </c>
       <c r="O20" s="4" t="s">
@@ -3550,7 +3556,7 @@
     </row>
     <row r="21" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="1"/>
+        <f>A20+1</f>
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -3562,13 +3568,13 @@
       <c r="D21" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="46">
         <v>50.089704666700001</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="46">
         <v>19.890297</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="46">
         <v>13</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -3589,7 +3595,7 @@
       <c r="M21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N21" s="55"/>
+      <c r="N21" s="53"/>
       <c r="O21" s="4" t="s">
         <v>10</v>
       </c>
@@ -3614,36 +3620,36 @@
       <c r="V21" s="18"/>
     </row>
     <row r="22" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63">
-        <f t="shared" si="1"/>
+      <c r="A22" s="1">
+        <f>A21+1</f>
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E22" s="47">
-        <v>50.61</v>
-      </c>
-      <c r="F22" s="47">
-        <v>3.14</v>
-      </c>
-      <c r="G22" s="47">
-        <v>70</v>
+        <v>241</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="46">
+        <v>51.52</v>
+      </c>
+      <c r="F22" s="46">
+        <v>-0.154611</v>
+      </c>
+      <c r="G22" s="46">
+        <v>39</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="I22" s="21">
-        <v>42654</v>
+        <v>43678</v>
       </c>
       <c r="J22" s="21">
-        <v>44196</v>
+        <v>44127</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>7</v>
@@ -3654,9 +3660,7 @@
       <c r="M22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N22" s="55" t="s">
-        <v>8</v>
-      </c>
+      <c r="N22" s="53"/>
       <c r="O22" s="4" t="s">
         <v>10</v>
       </c>
@@ -3676,43 +3680,41 @@
         <v>205</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="V22" s="18" t="s">
-        <v>185</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="V22" s="18"/>
     </row>
     <row r="23" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="1"/>
+        <f>A22+1</f>
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="48">
-        <v>51.52</v>
-      </c>
-      <c r="F23" s="48">
-        <v>-0.154611</v>
-      </c>
-      <c r="G23" s="48">
-        <v>39</v>
+        <v>243</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="46">
+        <v>51.521000000000001</v>
+      </c>
+      <c r="F23" s="46">
+        <v>-0.2135</v>
+      </c>
+      <c r="G23" s="46">
+        <v>27</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>213</v>
       </c>
       <c r="I23" s="21">
-        <v>43678</v>
+        <v>42331</v>
       </c>
       <c r="J23" s="21">
-        <v>44127</v>
+        <v>43153</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>7</v>
@@ -3723,7 +3725,7 @@
       <c r="M23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N23" s="55"/>
+      <c r="N23" s="53"/>
       <c r="O23" s="4" t="s">
         <v>10</v>
       </c>
@@ -3734,7 +3736,7 @@
         <v>15</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="S23" s="4" t="s">
         <v>24</v>
@@ -3749,46 +3751,46 @@
     </row>
     <row r="24" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="1"/>
+        <f>A23+1</f>
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="48">
-        <v>51.521000000000001</v>
-      </c>
-      <c r="F24" s="48">
-        <v>-0.2135</v>
-      </c>
-      <c r="G24" s="48">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="E24" s="45">
+        <v>46.2</v>
+      </c>
+      <c r="F24" s="45">
+        <v>8.9</v>
+      </c>
+      <c r="G24" s="45">
+        <v>203</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="I24" s="21">
-        <v>42331</v>
+        <v>41514</v>
       </c>
       <c r="J24" s="21">
-        <v>43153</v>
+        <v>41942</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="18" t="s">
         <v>7</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N24" s="55"/>
+      <c r="N24" s="53"/>
       <c r="O24" s="4" t="s">
         <v>10</v>
       </c>
@@ -3799,7 +3801,7 @@
         <v>15</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="S24" s="4" t="s">
         <v>24</v>
@@ -3808,69 +3810,69 @@
         <v>205</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="V24" s="18"/>
     </row>
     <row r="25" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37">
-        <f t="shared" si="1"/>
+        <f>A24+1</f>
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="47">
-        <v>53.3</v>
-      </c>
-      <c r="F25" s="47">
-        <v>-9.9</v>
-      </c>
-      <c r="G25" s="47">
-        <v>5</v>
+        <v>34</v>
+      </c>
+      <c r="E25" s="46">
+        <v>53.44417</v>
+      </c>
+      <c r="F25" s="46">
+        <v>-2.2144439999999999</v>
+      </c>
+      <c r="G25" s="46">
+        <v>43</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I25" s="21">
-        <v>42377</v>
+        <v>43889</v>
       </c>
       <c r="J25" s="21">
-        <v>43294</v>
+        <v>45020</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L25" s="57" t="s">
+      <c r="L25" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="57" t="s">
+      <c r="M25" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="N25" s="55"/>
+      <c r="N25" s="53"/>
       <c r="O25" s="4" t="s">
-        <v>287</v>
+        <v>10</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>23</v>
+        <v>253</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="U25" s="4" t="s">
         <v>296</v>
@@ -3879,48 +3881,48 @@
     </row>
     <row r="26" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="1"/>
+        <f>A25+1</f>
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>69</v>
+        <v>255</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="47">
-        <v>46.2</v>
-      </c>
-      <c r="F26" s="47">
-        <v>8.9</v>
-      </c>
-      <c r="G26" s="47">
+        <v>34</v>
+      </c>
+      <c r="E26" s="45">
+        <v>43.305233000000001</v>
+      </c>
+      <c r="F26" s="45">
+        <v>5.394692</v>
+      </c>
+      <c r="G26" s="45">
+        <v>71</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" s="21">
+        <v>42947</v>
+      </c>
+      <c r="J26" s="21">
+        <v>44925</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="53"/>
+      <c r="O26" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="I26" s="21">
-        <v>41514</v>
-      </c>
-      <c r="J26" s="21">
-        <v>41942</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N26" s="55"/>
-      <c r="O26" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>12</v>
@@ -3929,128 +3931,130 @@
         <v>15</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>24</v>
+        <v>246</v>
       </c>
       <c r="T26" s="4" t="s">
         <v>205</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="V26" s="18"/>
     </row>
     <row r="27" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37">
-        <f t="shared" si="1"/>
+      <c r="A27" s="62">
+        <f>A26+1</f>
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>252</v>
+        <v>71</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="48">
-        <v>53.44417</v>
-      </c>
-      <c r="F27" s="48">
-        <v>-2.2144439999999999</v>
-      </c>
-      <c r="G27" s="48">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="E27" s="45">
+        <v>51.54</v>
+      </c>
+      <c r="F27" s="45">
+        <v>12.93</v>
+      </c>
+      <c r="G27" s="45">
+        <v>86</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="I27" s="21">
-        <v>43889</v>
+        <v>42621</v>
       </c>
       <c r="J27" s="21">
-        <v>45020</v>
+        <v>42978</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L27" s="57" t="s">
+      <c r="L27" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="57" t="s">
+      <c r="M27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="55"/>
       <c r="O27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="V27" s="18"/>
     </row>
     <row r="28" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <f t="shared" si="1"/>
+      <c r="A28" s="37">
+        <f>A27+1</f>
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="47">
-        <v>43.305233000000001</v>
-      </c>
-      <c r="F28" s="47">
-        <v>5.394692</v>
-      </c>
-      <c r="G28" s="47">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="E28" s="45">
+        <v>53.3</v>
+      </c>
+      <c r="F28" s="45">
+        <v>-9.9</v>
+      </c>
+      <c r="G28" s="45">
+        <v>5</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="I28" s="21">
-        <v>42947</v>
+        <v>42377</v>
       </c>
       <c r="J28" s="21">
-        <v>44925</v>
+        <v>43294</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L28" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="N28" s="55"/>
+      <c r="L28" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" s="53"/>
       <c r="O28" s="4" t="s">
-        <v>203</v>
+        <v>287</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>12</v>
@@ -4065,59 +4069,57 @@
         <v>246</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="V28" s="18"/>
     </row>
     <row r="29" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64">
-        <f t="shared" si="1"/>
+      <c r="A29" s="1">
+        <f>A28+1</f>
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>281</v>
+        <v>197</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="47">
-        <v>51.54</v>
-      </c>
-      <c r="F29" s="47">
-        <v>12.93</v>
-      </c>
-      <c r="G29" s="47">
-        <v>86</v>
+        <v>34</v>
+      </c>
+      <c r="E29" s="45">
+        <v>45.478611000000001</v>
+      </c>
+      <c r="F29" s="45">
+        <v>9.2344439999999999</v>
+      </c>
+      <c r="G29" s="46">
+        <v>118</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I29" s="21">
-        <v>42621</v>
+        <v>41673</v>
       </c>
       <c r="J29" s="21">
-        <v>42978</v>
+        <v>41698</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="N29" s="55" t="s">
-        <v>8</v>
-      </c>
+      <c r="L29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" s="4"/>
       <c r="O29" s="4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>12</v>
@@ -4129,84 +4131,86 @@
         <v>23</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="T29" s="4" t="s">
         <v>205</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="V29" s="18"/>
     </row>
     <row r="30" spans="1:22" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <f t="shared" si="1"/>
+      <c r="A30" s="37">
+        <f>A29+1</f>
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="47">
-        <v>45.478611000000001</v>
-      </c>
-      <c r="F30" s="47">
-        <v>9.2344439999999999</v>
-      </c>
-      <c r="G30" s="48">
-        <v>118</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="21">
-        <v>41673</v>
-      </c>
-      <c r="J30" s="21">
-        <v>41698</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P30" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" s="46">
+        <v>42.05</v>
+      </c>
+      <c r="F30" s="46">
+        <v>0.72</v>
+      </c>
+      <c r="G30" s="46">
+        <v>1570</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="I30" s="43">
+        <v>40738</v>
+      </c>
+      <c r="J30" s="43">
+        <v>41022</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P30" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="Q30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R30" s="4" t="s">
+      <c r="R30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="S30" s="4" t="s">
-        <v>17</v>
+      <c r="S30" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="T30" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="U30" s="4" t="s">
-        <v>296</v>
+      <c r="U30" s="18" t="s">
+        <v>308</v>
       </c>
       <c r="V30" s="18"/>
     </row>
-    <row r="31" spans="1:22" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38">
-        <f t="shared" si="1"/>
+    <row r="31" spans="1:22" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f>A30+1</f>
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -4218,13 +4222,13 @@
       <c r="D31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="46">
         <v>41.779342</v>
       </c>
-      <c r="F31" s="48">
+      <c r="F31" s="46">
         <v>2.3580329999999998</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="46">
         <v>720</v>
       </c>
       <c r="H31" s="4" t="s">
@@ -4242,7 +4246,7 @@
       <c r="L31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M31" s="57" t="s">
+      <c r="M31" s="55" t="s">
         <v>8</v>
       </c>
       <c r="N31" s="18"/>
@@ -4262,44 +4266,44 @@
         <v>246</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="U31" s="4" t="s">
         <v>296</v>
       </c>
       <c r="V31" s="18"/>
     </row>
-    <row r="32" spans="1:22" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <f t="shared" si="1"/>
+    <row r="32" spans="1:22" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38">
+        <f>A31+1</f>
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E32" s="47">
-        <v>44.2</v>
-      </c>
-      <c r="F32" s="47">
-        <v>10.7</v>
-      </c>
-      <c r="G32" s="47">
-        <v>2165</v>
+        <v>156</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="50">
+        <v>37.973439999999997</v>
+      </c>
+      <c r="F32" s="50">
+        <v>23.718084999999999</v>
+      </c>
+      <c r="G32" s="50">
+        <v>105</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="I32" s="21">
-        <v>41071</v>
+        <v>42736</v>
       </c>
       <c r="J32" s="21">
-        <v>41099</v>
+        <v>44531</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>7</v>
@@ -4307,12 +4311,12 @@
       <c r="L32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N32" s="4"/>
+      <c r="M32" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="18"/>
       <c r="O32" s="4" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>12</v>
@@ -4324,62 +4328,60 @@
         <v>23</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="T32" s="4" t="s">
         <v>205</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="V32" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="V32" s="27"/>
+    </row>
+    <row r="33" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="1"/>
+        <f>A32+1</f>
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="47">
-        <v>35.038708</v>
-      </c>
-      <c r="F33" s="47">
-        <v>33.057763999999999</v>
-      </c>
-      <c r="G33" s="47">
-        <v>352</v>
+      <c r="E33" s="51">
+        <v>45.377499999999998</v>
+      </c>
+      <c r="F33" s="51">
+        <v>11.94</v>
+      </c>
+      <c r="G33" s="50">
+        <v>11</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="I33" s="21">
-        <v>43441</v>
+        <v>41665</v>
       </c>
       <c r="J33" s="21">
-        <v>43616</v>
+        <v>41698</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L33" s="4" t="s">
-        <v>7</v>
+      <c r="L33" s="55" t="s">
+        <v>8</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>12</v>
@@ -4397,54 +4399,54 @@
         <v>205</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="V33" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <f t="shared" si="1"/>
+        <v>296</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38">
+        <f>A33+1</f>
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="53">
-        <v>45.377499999999998</v>
-      </c>
-      <c r="F34" s="53">
-        <v>11.94</v>
-      </c>
-      <c r="G34" s="52">
-        <v>11</v>
+      <c r="E34" s="45">
+        <v>50.1</v>
+      </c>
+      <c r="F34" s="45">
+        <v>14.4</v>
+      </c>
+      <c r="G34" s="45">
+        <v>277</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="I34" s="21">
-        <v>41665</v>
+        <v>41080</v>
       </c>
       <c r="J34" s="21">
-        <v>41698</v>
+        <v>41409</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="57" t="s">
+      <c r="L34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N34" s="4"/>
+      <c r="N34" s="18"/>
       <c r="O34" s="4" t="s">
         <v>41</v>
       </c>
@@ -4455,7 +4457,7 @@
         <v>15</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="S34" s="4" t="s">
         <v>24</v>
@@ -4464,58 +4466,54 @@
         <v>205</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="V34" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="W34" s="7"/>
-      <c r="X34" s="6"/>
+        <v>263</v>
+      </c>
+      <c r="V34" s="4"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="38">
-        <f t="shared" si="1"/>
+      <c r="A35" s="56">
+        <f>A34+1</f>
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="47">
-        <v>50.1</v>
-      </c>
-      <c r="F35" s="47">
-        <v>14.4</v>
-      </c>
-      <c r="G35" s="47">
-        <v>277</v>
+        <v>173</v>
+      </c>
+      <c r="E35" s="50">
+        <v>45.766669999999998</v>
+      </c>
+      <c r="F35" s="50">
+        <v>2.95</v>
+      </c>
+      <c r="G35" s="50">
+        <v>1465</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>262</v>
+        <v>181</v>
       </c>
       <c r="I35" s="21">
-        <v>41080</v>
+        <v>43622</v>
       </c>
       <c r="J35" s="21">
-        <v>41409</v>
+        <v>44195</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M35" s="57" t="s">
+      <c r="L35" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="55" t="s">
         <v>8</v>
       </c>
       <c r="N35" s="18"/>
       <c r="O35" s="4" t="s">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>12</v>
@@ -4524,65 +4522,65 @@
         <v>15</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="V35" s="4"/>
       <c r="W35" s="7"/>
       <c r="X35" s="6"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="58">
-        <f t="shared" si="1"/>
+      <c r="A36" s="61">
+        <f>A35+1</f>
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E36" s="52">
-        <v>45.766669999999998</v>
-      </c>
-      <c r="F36" s="52">
-        <v>2.95</v>
-      </c>
-      <c r="G36" s="52">
-        <v>1465</v>
+        <v>179</v>
+      </c>
+      <c r="E36" s="45">
+        <v>48.71</v>
+      </c>
+      <c r="F36" s="45">
+        <v>2.15</v>
+      </c>
+      <c r="G36" s="45">
+        <v>163</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>181</v>
       </c>
       <c r="I36" s="21">
-        <v>43622</v>
+        <v>40695</v>
       </c>
       <c r="J36" s="21">
-        <v>44195</v>
+        <v>44921</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L36" s="57" t="s">
+      <c r="L36" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M36" s="57" t="s">
+      <c r="M36" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="N36" s="18"/>
+      <c r="N36" s="53"/>
       <c r="O36" s="4" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>12</v>
@@ -4594,131 +4592,129 @@
         <v>23</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="V36" s="4"/>
+        <v>303</v>
+      </c>
+      <c r="V36" s="27"/>
       <c r="W36" s="7"/>
       <c r="X36" s="6"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="58">
-        <f t="shared" si="1"/>
+      <c r="A37" s="1">
+        <f>A36+1</f>
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="B37" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="53">
-        <v>44.524444000000003</v>
-      </c>
-      <c r="F37" s="53">
-        <v>11.524444000000001</v>
-      </c>
-      <c r="G37" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="21">
-        <v>40861</v>
-      </c>
-      <c r="J37" s="21">
-        <v>42347</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L37" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P37" s="4" t="s">
+      <c r="E37" s="46">
+        <v>61.8</v>
+      </c>
+      <c r="F37" s="46">
+        <v>24.3</v>
+      </c>
+      <c r="G37" s="46">
+        <v>181</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="I37" s="41">
+        <v>40908</v>
+      </c>
+      <c r="J37" s="41">
+        <v>44196</v>
+      </c>
+      <c r="K37" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="N37" s="54"/>
+      <c r="O37" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="P37" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="Q37" s="4" t="s">
+      <c r="Q37" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="R37" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="S37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="T37" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="U37" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="V37" s="4"/>
+      <c r="R37" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="S37" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="T37" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="U37" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="V37" s="41"/>
       <c r="W37" s="7"/>
       <c r="X37" s="6"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="58">
-        <f t="shared" si="1"/>
+      <c r="A38" s="56">
+        <f>A37+1</f>
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="47">
-        <v>58.370600000000003</v>
-      </c>
-      <c r="F38" s="47">
-        <v>26.7349</v>
-      </c>
-      <c r="G38" s="47">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="E38" s="51">
+        <v>44.524444000000003</v>
+      </c>
+      <c r="F38" s="51">
+        <v>11.524444000000001</v>
+      </c>
+      <c r="G38" s="49" t="s">
+        <v>152</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>276</v>
+        <v>22</v>
       </c>
       <c r="I38" s="21">
-        <v>42614</v>
+        <v>40861</v>
       </c>
       <c r="J38" s="21">
-        <v>42940</v>
+        <v>42347</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L38" s="57" t="s">
+      <c r="L38" s="55" t="s">
         <v>8</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N38" s="55" t="s">
-        <v>8</v>
-      </c>
+      <c r="N38" s="4"/>
       <c r="O38" s="4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>12</v>
@@ -4727,62 +4723,65 @@
         <v>15</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="T38" s="4" t="s">
         <v>205</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="V38" s="4"/>
       <c r="W38" s="7"/>
       <c r="X38" s="6"/>
     </row>
-    <row r="39" spans="1:24" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="37">
+    <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="56">
+        <f>A38+1</f>
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E39" s="47">
-        <v>50.611016999999997</v>
-      </c>
-      <c r="F39" s="47">
-        <v>3.1403500000000002</v>
-      </c>
-      <c r="G39" s="47">
-        <v>70</v>
+        <v>34</v>
+      </c>
+      <c r="E39" s="45">
+        <v>58.370600000000003</v>
+      </c>
+      <c r="F39" s="45">
+        <v>26.7349</v>
+      </c>
+      <c r="G39" s="45">
+        <v>39</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>181</v>
+        <v>276</v>
       </c>
       <c r="I39" s="21">
-        <v>42370</v>
+        <v>42614</v>
       </c>
       <c r="J39" s="21">
-        <v>44196</v>
+        <v>42940</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L39" s="57" t="s">
+      <c r="L39" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M39" s="66" t="s">
+      <c r="M39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="N39" s="55"/>
       <c r="O39" s="4" t="s">
         <v>10</v>
       </c>
@@ -4796,10 +4795,10 @@
         <v>23</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>291</v>
+        <v>216</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="U39" s="4" t="s">
         <v>296</v>
@@ -4810,7 +4809,6 @@
     </row>
     <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="37">
-        <f>A39+1</f>
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -4822,13 +4820,13 @@
       <c r="D40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="47">
+      <c r="E40" s="45">
         <v>60.5</v>
       </c>
-      <c r="F40" s="47">
+      <c r="F40" s="45">
         <v>27.7</v>
       </c>
-      <c r="G40" s="47">
+      <c r="G40" s="45">
         <v>7</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -4843,10 +4841,10 @@
       <c r="K40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="57" t="s">
+      <c r="L40" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M40" s="57" t="s">
+      <c r="M40" s="55" t="s">
         <v>8</v>
       </c>
       <c r="N40" s="18"/>
@@ -4877,7 +4875,7 @@
     </row>
     <row r="41" spans="1:24" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="37">
-        <f t="shared" si="1"/>
+        <f>A40+1</f>
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -4889,13 +4887,13 @@
       <c r="D41" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="E41" s="47">
+      <c r="E41" s="45">
         <v>78.907150000000001</v>
       </c>
-      <c r="F41" s="47">
+      <c r="F41" s="45">
         <v>-11.886799999999999</v>
       </c>
-      <c r="G41" s="47">
+      <c r="G41" s="45">
         <v>474</v>
       </c>
       <c r="H41" s="4" t="s">
@@ -4910,10 +4908,10 @@
       <c r="K41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L41" s="57" t="s">
+      <c r="L41" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="57" t="s">
+      <c r="M41" s="55" t="s">
         <v>8</v>
       </c>
       <c r="N41" s="18"/>
@@ -4933,7 +4931,7 @@
         <v>291</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="U41" s="4" t="s">
         <v>296</v>
@@ -4944,7 +4942,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <f t="shared" si="1"/>
+        <f>A41+1</f>
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -4956,13 +4954,13 @@
       <c r="D42" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="47">
+      <c r="E42" s="45">
         <v>47.4</v>
       </c>
-      <c r="F42" s="47">
+      <c r="F42" s="45">
         <v>8.5</v>
       </c>
-      <c r="G42" s="47">
+      <c r="G42" s="45">
         <v>409</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5002,7 +5000,7 @@
         <v>280</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="U42" s="4" t="s">
         <v>279</v>
@@ -5011,7 +5009,7 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <f t="shared" si="1"/>
+        <f>A42+1</f>
         <v>42</v>
       </c>
       <c r="B43" s="1"/>
@@ -5038,7 +5036,7 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <f t="shared" si="1"/>
+        <f>A43+1</f>
         <v>43</v>
       </c>
       <c r="B44" s="1"/>
@@ -5065,7 +5063,7 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <f t="shared" si="1"/>
+        <f>A44+1</f>
         <v>44</v>
       </c>
       <c r="B45" s="1"/>
@@ -5092,7 +5090,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <f t="shared" si="1"/>
+        <f>A45+1</f>
         <v>45</v>
       </c>
       <c r="B46" s="1"/>
@@ -5119,7 +5117,7 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <f t="shared" si="1"/>
+        <f>A46+1</f>
         <v>46</v>
       </c>
       <c r="B47" s="1"/>
@@ -5146,7 +5144,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <f t="shared" si="1"/>
+        <f>A47+1</f>
         <v>47</v>
       </c>
       <c r="B48" s="1"/>
@@ -5173,7 +5171,7 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <f t="shared" si="1"/>
+        <f>A48+1</f>
         <v>48</v>
       </c>
       <c r="B49" s="1"/>
@@ -5201,25 +5199,25 @@
     <row r="54" spans="1:22" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="G54" s="20"/>
-      <c r="H54" s="60"/>
+      <c r="H54" s="58"/>
       <c r="I54" s="20" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H55" s="59"/>
+      <c r="H55" s="57"/>
       <c r="I55" s="24" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H56" s="61"/>
+      <c r="H56" s="59"/>
       <c r="I56" s="24" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H57" s="62"/>
+      <c r="H57" s="60"/>
       <c r="I57" s="24" t="s">
         <v>297</v>
       </c>
@@ -5281,6 +5279,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V49">
+    <sortCondition ref="C2:C49"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5290,7 +5291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAECC9E8-07B8-43E6-AF50-264301188E83}">
   <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -5605,10 +5606,10 @@
       <c r="H2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="39"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="14" t="s">
         <v>100</v>
       </c>

--- a/Data/Sites_overview.xlsx
+++ b/Data/Sites_overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\GitHub\EU_Overview\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EF47C2-494E-446F-A801-B02A682457F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A92B1A-28AE-4569-B939-50F67A8FB467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1395" yWindow="3585" windowWidth="14745" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="312">
   <si>
     <t>Site</t>
   </si>
@@ -1023,6 +1023,12 @@
   </si>
   <si>
     <t>MSC</t>
+  </si>
+  <si>
+    <t>Madrid - CIEMAT</t>
+  </si>
+  <si>
+    <t>MAD</t>
   </si>
 </sst>
 </file>
@@ -1835,11 +1841,11 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -2215,10 +2221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X66"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
+      <selection sqref="A1:V43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,10 +2367,10 @@
       <c r="S2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="66" t="s">
+      <c r="T2" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="U2" s="66" t="s">
+      <c r="U2" s="65" t="s">
         <v>305</v>
       </c>
       <c r="V2" s="44" t="s">
@@ -2594,7 +2600,7 @@
       <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="64">
         <v>40864</v>
       </c>
       <c r="J6" s="21">
@@ -2963,7 +2969,7 @@
     </row>
     <row r="12" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56">
-        <f>A11+1</f>
+        <f t="shared" ref="A12:A40" si="0">A11+1</f>
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3028,7 +3034,7 @@
     </row>
     <row r="13" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3093,7 +3099,7 @@
     </row>
     <row r="14" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3158,7 +3164,7 @@
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3225,7 +3231,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
-        <f>A15+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3292,7 +3298,7 @@
     </row>
     <row r="17" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37">
-        <f>A16+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3357,7 +3363,7 @@
     </row>
     <row r="18" spans="1:22" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f>A17+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3422,7 +3428,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f>A18+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3489,7 +3495,7 @@
     </row>
     <row r="20" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
-        <f>A19+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3556,7 +3562,7 @@
     </row>
     <row r="21" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f>A20+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -3621,7 +3627,7 @@
     </row>
     <row r="22" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f>A21+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3686,7 +3692,7 @@
     </row>
     <row r="23" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f>A22+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -3751,44 +3757,43 @@
     </row>
     <row r="24" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f>A23+1</f>
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>247</v>
+        <v>310</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>311</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="45">
-        <v>46.2</v>
-      </c>
-      <c r="F24" s="45">
-        <v>8.9</v>
-      </c>
-      <c r="G24" s="45">
-        <v>203</v>
+        <v>34</v>
+      </c>
+      <c r="E24" s="46">
+        <v>40.456435999999997</v>
+      </c>
+      <c r="F24" s="46">
+        <v>-3.7256309999999999</v>
+      </c>
+      <c r="G24" s="46">
+        <v>669</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="I24" s="21">
-        <v>41514</v>
+        <v>43729</v>
       </c>
       <c r="J24" s="21">
-        <v>41942</v>
+        <v>45291</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="18" t="s">
-        <v>7</v>
+      <c r="L24" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N24" s="53"/>
       <c r="O24" s="4" t="s">
@@ -3801,7 +3806,7 @@
         <v>15</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="S24" s="4" t="s">
         <v>24</v>
@@ -3809,64 +3814,61 @@
       <c r="T24" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="U24" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="U24" s="4"/>
       <c r="V24" s="18"/>
     </row>
     <row r="25" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37">
-        <f>A24+1</f>
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>252</v>
+        <v>69</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="46">
-        <v>53.44417</v>
-      </c>
-      <c r="F25" s="46">
-        <v>-2.2144439999999999</v>
-      </c>
-      <c r="G25" s="46">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="E25" s="45">
+        <v>46.2</v>
+      </c>
+      <c r="F25" s="45">
+        <v>8.9</v>
+      </c>
+      <c r="G25" s="45">
+        <v>203</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="I25" s="21">
-        <v>43889</v>
+        <v>41514</v>
       </c>
       <c r="J25" s="21">
-        <v>45020</v>
+        <v>41942</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L25" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="55" t="s">
-        <v>8</v>
+      <c r="L25" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="N25" s="53"/>
       <c r="O25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="S25" s="4" t="s">
         <v>24</v>
@@ -3875,121 +3877,119 @@
         <v>205</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="V25" s="18"/>
     </row>
     <row r="26" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <f>A25+1</f>
+      <c r="A26" s="37">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="45">
-        <v>43.305233000000001</v>
-      </c>
-      <c r="F26" s="45">
-        <v>5.394692</v>
-      </c>
-      <c r="G26" s="45">
-        <v>71</v>
+      <c r="E26" s="46">
+        <v>53.44417</v>
+      </c>
+      <c r="F26" s="46">
+        <v>-2.2144439999999999</v>
+      </c>
+      <c r="G26" s="46">
+        <v>43</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="I26" s="21">
-        <v>42947</v>
+        <v>43889</v>
       </c>
       <c r="J26" s="21">
-        <v>44925</v>
+        <v>45020</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L26" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>7</v>
+      <c r="L26" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="55" t="s">
+        <v>8</v>
       </c>
       <c r="N26" s="53"/>
       <c r="O26" s="4" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>23</v>
+        <v>253</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="T26" s="4" t="s">
         <v>205</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="V26" s="18"/>
     </row>
     <row r="27" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="62">
-        <f>A26+1</f>
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="45">
+        <v>43.305233000000001</v>
+      </c>
+      <c r="F27" s="45">
+        <v>5.394692</v>
+      </c>
+      <c r="G27" s="45">
         <v>71</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="45">
-        <v>51.54</v>
-      </c>
-      <c r="F27" s="45">
-        <v>12.93</v>
-      </c>
-      <c r="G27" s="45">
-        <v>86</v>
-      </c>
       <c r="H27" s="4" t="s">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="I27" s="21">
-        <v>42621</v>
+        <v>42947</v>
       </c>
       <c r="J27" s="21">
-        <v>42978</v>
+        <v>44925</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L27" s="55" t="s">
-        <v>8</v>
+      <c r="L27" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="M27" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N27" s="53" t="s">
-        <v>8</v>
-      </c>
+      <c r="N27" s="53"/>
       <c r="O27" s="4" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>12</v>
@@ -4001,47 +4001,47 @@
         <v>23</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="T27" s="4" t="s">
         <v>205</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="V27" s="18"/>
     </row>
     <row r="28" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37">
-        <f>A27+1</f>
+      <c r="A28" s="62">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>245</v>
+        <v>71</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="45">
-        <v>53.3</v>
+        <v>51.54</v>
       </c>
       <c r="F28" s="45">
-        <v>-9.9</v>
+        <v>12.93</v>
       </c>
       <c r="G28" s="45">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="I28" s="21">
-        <v>42377</v>
+        <v>42621</v>
       </c>
       <c r="J28" s="21">
-        <v>43294</v>
+        <v>42978</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>7</v>
@@ -4049,12 +4049,14 @@
       <c r="L28" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="55" t="s">
+      <c r="M28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="N28" s="53"/>
       <c r="O28" s="4" t="s">
-        <v>287</v>
+        <v>10</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>12</v>
@@ -4066,60 +4068,60 @@
         <v>23</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="T28" s="4" t="s">
         <v>205</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="V28" s="18"/>
     </row>
     <row r="29" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <f>A28+1</f>
+      <c r="A29" s="37">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E29" s="45">
-        <v>45.478611000000001</v>
+        <v>53.3</v>
       </c>
       <c r="F29" s="45">
-        <v>9.2344439999999999</v>
-      </c>
-      <c r="G29" s="46">
-        <v>118</v>
+        <v>-9.9</v>
+      </c>
+      <c r="G29" s="45">
+        <v>5</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="I29" s="21">
-        <v>41673</v>
+        <v>42377</v>
       </c>
       <c r="J29" s="21">
-        <v>41698</v>
+        <v>43294</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N29" s="4"/>
+      <c r="L29" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="53"/>
       <c r="O29" s="4" t="s">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>12</v>
@@ -4131,7 +4133,7 @@
         <v>23</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>17</v>
+        <v>246</v>
       </c>
       <c r="T29" s="4" t="s">
         <v>205</v>
@@ -4141,169 +4143,169 @@
       </c>
       <c r="V29" s="18"/>
     </row>
-    <row r="30" spans="1:22" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37">
-        <f>A29+1</f>
+    <row r="30" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="E30" s="46">
-        <v>42.05</v>
-      </c>
-      <c r="F30" s="46">
-        <v>0.72</v>
+        <v>198</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="45">
+        <v>45.478611000000001</v>
+      </c>
+      <c r="F30" s="45">
+        <v>9.2344439999999999</v>
       </c>
       <c r="G30" s="46">
-        <v>1570</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="I30" s="43">
-        <v>40738</v>
-      </c>
-      <c r="J30" s="43">
-        <v>41022</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="N30" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="O30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P30" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="21">
+        <v>41673</v>
+      </c>
+      <c r="J30" s="21">
+        <v>41698</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q30" s="18" t="s">
+      <c r="Q30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R30" s="18" t="s">
+      <c r="R30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S30" s="18" t="s">
-        <v>291</v>
+      <c r="S30" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="T30" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="U30" s="18" t="s">
-        <v>308</v>
+      <c r="U30" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="V30" s="18"/>
     </row>
-    <row r="31" spans="1:22" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <f>A30+1</f>
+    <row r="31" spans="1:22" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>32</v>
+        <v>309</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>173</v>
       </c>
       <c r="E31" s="46">
-        <v>41.779342</v>
+        <v>42.05</v>
       </c>
       <c r="F31" s="46">
-        <v>2.3580329999999998</v>
+        <v>0.72</v>
       </c>
       <c r="G31" s="46">
-        <v>720</v>
-      </c>
-      <c r="H31" s="4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H31" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="I31" s="21">
-        <v>44426</v>
-      </c>
-      <c r="J31" s="21">
-        <v>44711</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M31" s="55" t="s">
+      <c r="I31" s="43">
+        <v>40738</v>
+      </c>
+      <c r="J31" s="43">
+        <v>41022</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N31" s="18"/>
-      <c r="O31" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="P31" s="4" t="s">
+      <c r="M31" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q31" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="R31" s="4" t="s">
+      <c r="Q31" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R31" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="S31" s="4" t="s">
-        <v>246</v>
+      <c r="S31" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="T31" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="U31" s="4" t="s">
-        <v>296</v>
+      <c r="U31" s="18" t="s">
+        <v>308</v>
       </c>
       <c r="V31" s="18"/>
     </row>
-    <row r="32" spans="1:22" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38">
-        <f>A31+1</f>
+    <row r="32" spans="1:22" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="50">
-        <v>37.973439999999997</v>
-      </c>
-      <c r="F32" s="50">
-        <v>23.718084999999999</v>
-      </c>
-      <c r="G32" s="50">
-        <v>105</v>
+        <v>77</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="46">
+        <v>41.779342</v>
+      </c>
+      <c r="F32" s="46">
+        <v>2.3580329999999998</v>
+      </c>
+      <c r="G32" s="46">
+        <v>720</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="I32" s="21">
-        <v>42736</v>
+        <v>44426</v>
       </c>
       <c r="J32" s="21">
-        <v>44531</v>
+        <v>44711</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>7</v>
@@ -4316,19 +4318,19 @@
       </c>
       <c r="N32" s="18"/>
       <c r="O32" s="4" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="R32" s="4" t="s">
         <v>23</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>24</v>
+        <v>246</v>
       </c>
       <c r="T32" s="4" t="s">
         <v>205</v>
@@ -4336,52 +4338,52 @@
       <c r="U32" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="V32" s="27"/>
-    </row>
-    <row r="33" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <f>A32+1</f>
+      <c r="V32" s="18"/>
+    </row>
+    <row r="33" spans="1:24" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="51">
-        <v>45.377499999999998</v>
-      </c>
-      <c r="F33" s="51">
-        <v>11.94</v>
+      <c r="E33" s="50">
+        <v>37.973439999999997</v>
+      </c>
+      <c r="F33" s="50">
+        <v>23.718084999999999</v>
       </c>
       <c r="G33" s="50">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="I33" s="21">
-        <v>41665</v>
+        <v>42736</v>
       </c>
       <c r="J33" s="21">
-        <v>41698</v>
+        <v>44531</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L33" s="55" t="s">
+      <c r="L33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N33" s="4"/>
+      <c r="N33" s="18"/>
       <c r="O33" s="4" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>12</v>
@@ -4401,52 +4403,50 @@
       <c r="U33" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="V33" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38">
-        <f>A33+1</f>
+      <c r="V33" s="27"/>
+    </row>
+    <row r="34" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="45">
-        <v>50.1</v>
-      </c>
-      <c r="F34" s="45">
-        <v>14.4</v>
-      </c>
-      <c r="G34" s="45">
-        <v>277</v>
+      <c r="E34" s="51">
+        <v>45.377499999999998</v>
+      </c>
+      <c r="F34" s="51">
+        <v>11.94</v>
+      </c>
+      <c r="G34" s="50">
+        <v>11</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="I34" s="21">
-        <v>41080</v>
+        <v>41665</v>
       </c>
       <c r="J34" s="21">
-        <v>41409</v>
+        <v>41698</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M34" s="55" t="s">
+      <c r="L34" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="N34" s="18"/>
+      <c r="M34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N34" s="4"/>
       <c r="O34" s="4" t="s">
         <v>41</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>15</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="S34" s="4" t="s">
         <v>24</v>
@@ -4466,54 +4466,56 @@
         <v>205</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="V34" s="4"/>
-    </row>
-    <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="56">
-        <f>A34+1</f>
+        <v>296</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="38">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E35" s="50">
-        <v>45.766669999999998</v>
-      </c>
-      <c r="F35" s="50">
-        <v>2.95</v>
-      </c>
-      <c r="G35" s="50">
-        <v>1465</v>
+        <v>34</v>
+      </c>
+      <c r="E35" s="45">
+        <v>50.1</v>
+      </c>
+      <c r="F35" s="45">
+        <v>14.4</v>
+      </c>
+      <c r="G35" s="45">
+        <v>277</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>181</v>
+        <v>262</v>
       </c>
       <c r="I35" s="21">
-        <v>43622</v>
+        <v>41080</v>
       </c>
       <c r="J35" s="21">
-        <v>44195</v>
+        <v>41409</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L35" s="55" t="s">
-        <v>8</v>
+      <c r="L35" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="M35" s="55" t="s">
         <v>8</v>
       </c>
       <c r="N35" s="18"/>
       <c r="O35" s="4" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>12</v>
@@ -4522,52 +4524,50 @@
         <v>15</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="T35" s="4" t="s">
         <v>205</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="V35" s="4"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="6"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="61">
-        <f>A35+1</f>
+      <c r="A36" s="56">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36" s="45">
-        <v>48.71</v>
-      </c>
-      <c r="F36" s="45">
-        <v>2.15</v>
-      </c>
-      <c r="G36" s="45">
-        <v>163</v>
+        <v>173</v>
+      </c>
+      <c r="E36" s="50">
+        <v>45.766669999999998</v>
+      </c>
+      <c r="F36" s="50">
+        <v>2.95</v>
+      </c>
+      <c r="G36" s="50">
+        <v>1465</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>181</v>
       </c>
       <c r="I36" s="21">
-        <v>40695</v>
+        <v>43622</v>
       </c>
       <c r="J36" s="21">
-        <v>44921</v>
+        <v>44195</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>7</v>
@@ -4578,9 +4578,9 @@
       <c r="M36" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="N36" s="53"/>
+      <c r="N36" s="18"/>
       <c r="O36" s="4" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>12</v>
@@ -4592,183 +4592,183 @@
         <v>23</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="T36" s="4" t="s">
         <v>205</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="V36" s="27"/>
+        <v>296</v>
+      </c>
+      <c r="V36" s="4"/>
       <c r="W36" s="7"/>
       <c r="X36" s="6"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <f>A36+1</f>
+      <c r="A37" s="61">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="46">
-        <v>61.8</v>
-      </c>
-      <c r="F37" s="46">
-        <v>24.3</v>
-      </c>
-      <c r="G37" s="46">
+      <c r="B37" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" s="45">
+        <v>48.71</v>
+      </c>
+      <c r="F37" s="45">
+        <v>2.15</v>
+      </c>
+      <c r="G37" s="45">
+        <v>163</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="H37" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="I37" s="41">
-        <v>40908</v>
-      </c>
-      <c r="J37" s="41">
-        <v>44196</v>
-      </c>
-      <c r="K37" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="L37" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="M37" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="N37" s="54"/>
-      <c r="O37" s="41" t="s">
+      <c r="I37" s="21">
+        <v>40695</v>
+      </c>
+      <c r="J37" s="21">
+        <v>44921</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" s="53"/>
+      <c r="O37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P37" s="41" t="s">
+      <c r="P37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q37" s="41" t="s">
+      <c r="Q37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R37" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="S37" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="T37" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="U37" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="V37" s="41"/>
+      <c r="R37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="V37" s="27"/>
       <c r="W37" s="7"/>
       <c r="X37" s="6"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="56">
-        <f>A37+1</f>
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="B38" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="51">
-        <v>44.524444000000003</v>
-      </c>
-      <c r="F38" s="51">
-        <v>11.524444000000001</v>
-      </c>
-      <c r="G38" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="21">
-        <v>40861</v>
-      </c>
-      <c r="J38" s="21">
-        <v>42347</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L38" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P38" s="4" t="s">
+      <c r="E38" s="46">
+        <v>61.8</v>
+      </c>
+      <c r="F38" s="46">
+        <v>24.3</v>
+      </c>
+      <c r="G38" s="46">
+        <v>181</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="I38" s="41">
+        <v>40908</v>
+      </c>
+      <c r="J38" s="41">
+        <v>44196</v>
+      </c>
+      <c r="K38" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="N38" s="54"/>
+      <c r="O38" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="Q38" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="R38" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="S38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="T38" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="V38" s="4"/>
+      <c r="R38" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="S38" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="T38" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="U38" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="V38" s="41"/>
       <c r="W38" s="7"/>
       <c r="X38" s="6"/>
     </row>
     <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="56">
-        <f>A38+1</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="45">
-        <v>58.370600000000003</v>
-      </c>
-      <c r="F39" s="45">
-        <v>26.7349</v>
-      </c>
-      <c r="G39" s="45">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="E39" s="51">
+        <v>44.524444000000003</v>
+      </c>
+      <c r="F39" s="51">
+        <v>11.524444000000001</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>152</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>276</v>
+        <v>22</v>
       </c>
       <c r="I39" s="21">
-        <v>42614</v>
+        <v>40861</v>
       </c>
       <c r="J39" s="21">
-        <v>42940</v>
+        <v>42347</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>7</v>
@@ -4779,11 +4779,9 @@
       <c r="M39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N39" s="53" t="s">
-        <v>8</v>
-      </c>
+      <c r="N39" s="4"/>
       <c r="O39" s="4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>12</v>
@@ -4792,51 +4790,52 @@
         <v>15</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="T39" s="4" t="s">
         <v>205</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="V39" s="4"/>
       <c r="W39" s="7"/>
       <c r="X39" s="6"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="37">
+      <c r="A40" s="56">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>87</v>
+        <v>273</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E40" s="45">
-        <v>60.5</v>
+        <v>58.370600000000003</v>
       </c>
       <c r="F40" s="45">
-        <v>27.7</v>
+        <v>26.7349</v>
       </c>
       <c r="G40" s="45">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="I40" s="21">
-        <v>41075</v>
+        <v>42614</v>
       </c>
       <c r="J40" s="21">
-        <v>41432</v>
+        <v>42940</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>7</v>
@@ -4844,10 +4843,12 @@
       <c r="L40" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M40" s="55" t="s">
+      <c r="M40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N40" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="N40" s="18"/>
       <c r="O40" s="4" t="s">
         <v>10</v>
       </c>
@@ -4858,10 +4859,10 @@
         <v>15</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="T40" s="4" t="s">
         <v>205</v>
@@ -4873,37 +4874,36 @@
       <c r="W40" s="7"/>
       <c r="X40" s="6"/>
     </row>
-    <row r="41" spans="1:24" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="37">
-        <f>A40+1</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>293</v>
+        <v>87</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>294</v>
+        <v>32</v>
       </c>
       <c r="E41" s="45">
-        <v>78.907150000000001</v>
+        <v>60.5</v>
       </c>
       <c r="F41" s="45">
-        <v>-11.886799999999999</v>
+        <v>27.7</v>
       </c>
       <c r="G41" s="45">
-        <v>474</v>
+        <v>7</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="I41" s="21">
-        <v>44562</v>
+        <v>41075</v>
       </c>
       <c r="J41" s="21">
-        <v>44910</v>
+        <v>41432</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>7</v>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="N41" s="18"/>
       <c r="O41" s="4" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>12</v>
@@ -4925,10 +4925,10 @@
         <v>15</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>291</v>
+        <v>24</v>
       </c>
       <c r="T41" s="4" t="s">
         <v>205</v>
@@ -4940,52 +4940,50 @@
       <c r="W41" s="7"/>
       <c r="X41" s="6"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <f>A41+1</f>
-        <v>41</v>
+    <row r="42" spans="1:24" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="37">
+        <f t="shared" ref="A42:A50" si="1">A41+1</f>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>89</v>
+        <v>293</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>34</v>
+        <v>294</v>
       </c>
       <c r="E42" s="45">
-        <v>47.4</v>
+        <v>78.907150000000001</v>
       </c>
       <c r="F42" s="45">
-        <v>8.5</v>
+        <v>-11.886799999999999</v>
       </c>
       <c r="G42" s="45">
-        <v>409</v>
+        <v>474</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="I42" s="21">
-        <v>42613</v>
+        <v>44562</v>
       </c>
       <c r="J42" s="21">
-        <v>45118</v>
+        <v>44910</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="L42" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="18"/>
       <c r="O42" s="4" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>12</v>
@@ -4997,47 +4995,89 @@
         <v>23</v>
       </c>
       <c r="S42" s="4" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="T42" s="4" t="s">
         <v>205</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="V42" s="4"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="6"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <f>A42+1</f>
-        <v>42</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="45">
+        <v>47.4</v>
+      </c>
+      <c r="F43" s="45">
+        <v>8.5</v>
+      </c>
+      <c r="G43" s="45">
+        <v>409</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I43" s="21">
+        <v>42613</v>
+      </c>
+      <c r="J43" s="21">
+        <v>45118</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="V43" s="4"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <f>A43+1</f>
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5063,8 +5103,8 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <f>A44+1</f>
-        <v>44</v>
+        <f t="shared" si="1"/>
+        <v>43</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5090,8 +5130,8 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <f>A45+1</f>
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>44</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5117,8 +5157,8 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <f>A46+1</f>
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5144,8 +5184,8 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <f>A47+1</f>
-        <v>47</v>
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5171,8 +5211,8 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <f>A48+1</f>
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>47</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -5196,91 +5236,118 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
     </row>
-    <row r="54" spans="1:22" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="20" t="s">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+    </row>
+    <row r="55" spans="1:22" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="20" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H55" s="57"/>
-      <c r="I55" s="24" t="s">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H56" s="57"/>
+      <c r="I56" s="24" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H56" s="59"/>
-      <c r="I56" s="24" t="s">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H57" s="59"/>
+      <c r="I57" s="24" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H57" s="60"/>
-      <c r="I57" s="24" t="s">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H58" s="60"/>
+      <c r="I58" s="24" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>33</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B61" s="16" t="s">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B62" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>180</v>
-      </c>
-      <c r="D62" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="D63" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="D64" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>232</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>295</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>294</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V49">
-    <sortCondition ref="C2:C49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V50">
+    <sortCondition ref="C2:C50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5291,7 +5358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAECC9E8-07B8-43E6-AF50-264301188E83}">
   <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -5606,10 +5673,10 @@
       <c r="H2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="64"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="14" t="s">
         <v>100</v>
       </c>

--- a/Data/Sites_overview.xlsx
+++ b/Data/Sites_overview.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\GitHub\EU_Overview\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A92B1A-28AE-4569-B939-50F67A8FB467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEBA2E9-9171-47F6-8424-74ACCF9DC732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1395" yWindow="3585" windowWidth="14745" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
-    <sheet name="PMF_outputs" sheetId="3" r:id="rId2"/>
-    <sheet name="Bressi" sheetId="4" r:id="rId3"/>
-    <sheet name="Chen" sheetId="5" r:id="rId4"/>
+    <sheet name="Selected" sheetId="6" r:id="rId2"/>
+    <sheet name="PMF_outputs" sheetId="3" r:id="rId3"/>
+    <sheet name="Bressi" sheetId="4" r:id="rId4"/>
+    <sheet name="Chen" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="319">
   <si>
     <t>Site</t>
   </si>
@@ -554,9 +555,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Hyytiala</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
@@ -794,9 +792,6 @@
     <t>Traffic</t>
   </si>
   <si>
-    <t>Heikkinen et al. (2020)</t>
-  </si>
-  <si>
     <t>Ispra-JRC</t>
   </si>
   <si>
@@ -1029,6 +1024,33 @@
   </si>
   <si>
     <t>MAD</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Input PMF</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Meteo</t>
+  </si>
+  <si>
+    <t>Profiles</t>
+  </si>
+  <si>
+    <t>Gases</t>
+  </si>
+  <si>
+    <t>PM1 SMPS</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1485,6 +1507,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -1714,7 +1742,7 @@
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1846,6 +1874,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1891,10 +1920,62 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9999"/>
+      <color rgb="FF99FF99"/>
       <color rgb="FFFF6699"/>
     </mruColors>
   </colors>
@@ -2223,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
-      <selection sqref="A1:V43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,7 +2324,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2279,10 +2360,10 @@
         <v>6</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>1</v>
@@ -2300,13 +2381,13 @@
         <v>16</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U1" s="12" t="s">
         <v>25</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2314,13 +2395,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="E2" s="45">
         <v>50.61</v>
@@ -2332,7 +2413,7 @@
         <v>70</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I2" s="21">
         <v>42654</v>
@@ -2368,25 +2449,24 @@
         <v>24</v>
       </c>
       <c r="T2" s="65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U2" s="65" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="V2" s="44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38">
-        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>34</v>
@@ -2401,7 +2481,7 @@
         <v>143</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I3" s="21">
         <v>43466</v>
@@ -2423,32 +2503,31 @@
         <v>10</v>
       </c>
       <c r="P3" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="R3" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="T3" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V3" s="27"/>
     </row>
     <row r="4" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>51</v>
@@ -2466,7 +2545,7 @@
         <v>80</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I4" s="21">
         <v>41778</v>
@@ -2500,20 +2579,19 @@
         <v>24</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="V4" s="27"/>
     </row>
     <row r="5" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="56">
-        <f>A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>53</v>
@@ -2531,7 +2609,7 @@
         <v>220</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I5" s="21">
         <v>42396</v>
@@ -2561,29 +2639,28 @@
         <v>15</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V5" s="27"/>
     </row>
     <row r="6" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f>A5+1</f>
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>34</v>
@@ -2632,10 +2709,10 @@
         <v>17</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="V6" s="27"/>
     </row>
@@ -2644,10 +2721,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>34</v>
@@ -2662,7 +2739,7 @@
         <v>352</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I7" s="21">
         <v>43441</v>
@@ -2696,13 +2773,13 @@
         <v>24</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="V7" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2710,13 +2787,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="E8" s="51">
         <v>37.575299999999999</v>
@@ -2762,26 +2839,25 @@
         <v>17</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V8" s="27"/>
     </row>
     <row r="9" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f>A8+1</f>
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="E9" s="45">
         <v>44.2</v>
@@ -2827,10 +2903,10 @@
         <v>17</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="V9" s="18" t="s">
         <v>152</v>
@@ -2838,29 +2914,28 @@
     </row>
     <row r="10" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56">
-        <f>A9+1</f>
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="50">
-        <v>51.185000000000002</v>
+        <v>52.1754283</v>
       </c>
       <c r="F10" s="50">
-        <v>-6.3683329999999998</v>
+        <v>-6.3660160000000001</v>
       </c>
       <c r="G10" s="50">
         <v>9</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I10" s="21">
         <v>42600</v>
@@ -2894,13 +2969,13 @@
         <v>24</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U10" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="V10" s="27" t="s">
         <v>221</v>
-      </c>
-      <c r="V10" s="27" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2908,13 +2983,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="D11" s="18" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="E11" s="48">
         <v>37.994999999999997</v>
@@ -2926,7 +3001,7 @@
         <v>270</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I11" s="43">
         <v>43049</v>
@@ -2945,7 +3020,7 @@
       </c>
       <c r="N11" s="18"/>
       <c r="O11" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P11" s="18" t="s">
         <v>12</v>
@@ -2960,23 +3035,22 @@
         <v>24</v>
       </c>
       <c r="T11" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="U11" s="18" t="s">
         <v>205</v>
-      </c>
-      <c r="U11" s="18" t="s">
-        <v>206</v>
       </c>
       <c r="V11" s="18"/>
     </row>
     <row r="12" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56">
-        <f t="shared" ref="A12:A40" si="0">A11+1</f>
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>34</v>
@@ -2991,7 +3065,7 @@
         <v>35</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I12" s="21">
         <v>42587</v>
@@ -3025,38 +3099,37 @@
         <v>24</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="V12" s="27"/>
     </row>
     <row r="13" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E13" s="51">
-        <v>35.337799072300001</v>
+        <v>35.337799070000003</v>
       </c>
       <c r="F13" s="51">
-        <v>25.669399261500001</v>
+        <v>25.669399259999999</v>
       </c>
       <c r="G13" s="51">
         <v>150</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I13" s="21">
         <v>39869</v>
@@ -3075,7 +3148,7 @@
       </c>
       <c r="N13" s="53"/>
       <c r="O13" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>12</v>
@@ -3090,23 +3163,22 @@
         <v>24</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V13" s="27"/>
     </row>
     <row r="14" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>34</v>
@@ -3115,13 +3187,13 @@
         <v>37.163888999999998</v>
       </c>
       <c r="F14" s="50">
-        <v>3.605</v>
+        <v>-3.605</v>
       </c>
       <c r="G14" s="50">
         <v>68</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I14" s="21">
         <v>42353</v>
@@ -3155,38 +3227,37 @@
         <v>24</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V14" s="27"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>152</v>
+        <v>310</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>152</v>
+        <v>310</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>152</v>
+        <v>310</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I15" s="21">
         <v>42165</v>
@@ -3214,24 +3285,23 @@
         <v>15</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V15" s="27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3287,10 +3357,10 @@
         <v>17</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V16" s="18" t="s">
         <v>35</v>
@@ -3298,14 +3368,13 @@
     </row>
     <row r="17" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>32</v>
@@ -3320,7 +3389,7 @@
         <v>115</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I17" s="21">
         <v>43011</v>
@@ -3339,7 +3408,7 @@
       </c>
       <c r="N17" s="53"/>
       <c r="O17" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>12</v>
@@ -3351,41 +3420,40 @@
         <v>23</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V17" s="18"/>
     </row>
     <row r="18" spans="1:22" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E18" s="51">
-        <v>44.348050000000001</v>
+        <v>44.412616999999997</v>
       </c>
       <c r="F18" s="51">
-        <v>5.394692</v>
+        <v>26.09188</v>
       </c>
       <c r="G18" s="51">
         <v>93</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I18" s="21">
         <v>42370</v>
@@ -3419,20 +3487,19 @@
         <v>24</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V18" s="27"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>21</v>
@@ -3484,25 +3551,24 @@
         <v>24</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="V19" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>32</v>
@@ -3517,7 +3583,7 @@
         <v>534</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I20" s="21">
         <v>43473</v>
@@ -3538,7 +3604,7 @@
         <v>8</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>12</v>
@@ -3553,29 +3619,28 @@
         <v>24</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V20" s="18"/>
     </row>
     <row r="21" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E21" s="46">
-        <v>50.089704666700001</v>
+        <v>50.089704670000003</v>
       </c>
       <c r="F21" s="46">
         <v>19.890297</v>
@@ -3584,7 +3649,7 @@
         <v>13</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I21" s="21">
         <v>43108</v>
@@ -3618,23 +3683,22 @@
         <v>24</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="V21" s="18"/>
     </row>
     <row r="22" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>16</v>
@@ -3649,7 +3713,7 @@
         <v>39</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I22" s="21">
         <v>43678</v>
@@ -3683,23 +3747,22 @@
         <v>24</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V22" s="18"/>
     </row>
     <row r="23" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>34</v>
@@ -3714,7 +3777,7 @@
         <v>27</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I23" s="21">
         <v>42331</v>
@@ -3748,10 +3811,10 @@
         <v>24</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V23" s="18"/>
     </row>
@@ -3760,10 +3823,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>34</v>
@@ -3778,7 +3841,7 @@
         <v>669</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I24" s="21">
         <v>43729</v>
@@ -3812,7 +3875,7 @@
         <v>24</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="18"/>
@@ -3822,7 +3885,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>69</v>
@@ -3840,7 +3903,7 @@
         <v>203</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I25" s="21">
         <v>41514</v>
@@ -3868,29 +3931,28 @@
         <v>15</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="V25" s="18"/>
     </row>
     <row r="26" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>34</v>
@@ -3905,7 +3967,7 @@
         <v>43</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I26" s="21">
         <v>43889</v>
@@ -3927,35 +3989,34 @@
         <v>10</v>
       </c>
       <c r="P26" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q26" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="Q26" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="R26" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="S26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V26" s="18"/>
     </row>
     <row r="27" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>34</v>
@@ -3970,7 +4031,7 @@
         <v>71</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I27" s="21">
         <v>42947</v>
@@ -3989,7 +4050,7 @@
       </c>
       <c r="N27" s="53"/>
       <c r="O27" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>12</v>
@@ -4001,23 +4062,22 @@
         <v>23</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V27" s="18"/>
     </row>
     <row r="28" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="62">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>71</v>
@@ -4068,41 +4128,40 @@
         <v>23</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V28" s="18"/>
     </row>
     <row r="29" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37">
-        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="45">
-        <v>53.3</v>
+        <v>53.324967000000001</v>
       </c>
       <c r="F29" s="45">
-        <v>-9.9</v>
+        <v>-9.9029478999999991</v>
       </c>
       <c r="G29" s="45">
         <v>5</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I29" s="21">
         <v>42377</v>
@@ -4121,7 +4180,7 @@
       </c>
       <c r="N29" s="53"/>
       <c r="O29" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>12</v>
@@ -4133,26 +4192,25 @@
         <v>23</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V29" s="18"/>
     </row>
     <row r="30" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>34</v>
@@ -4201,26 +4259,25 @@
         <v>17</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V30" s="18"/>
     </row>
     <row r="31" spans="1:22" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="D31" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E31" s="46">
         <v>42.05</v>
@@ -4232,7 +4289,7 @@
         <v>1570</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I31" s="43">
         <v>40738</v>
@@ -4265,23 +4322,22 @@
         <v>23</v>
       </c>
       <c r="S31" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U31" s="18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="V31" s="18"/>
     </row>
     <row r="32" spans="1:22" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>77</v>
@@ -4299,7 +4355,7 @@
         <v>720</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I32" s="21">
         <v>44426</v>
@@ -4318,38 +4374,37 @@
       </c>
       <c r="N32" s="18"/>
       <c r="O32" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="R32" s="4" t="s">
         <v>23</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V32" s="18"/>
     </row>
     <row r="33" spans="1:24" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>34</v>
@@ -4364,7 +4419,7 @@
         <v>105</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I33" s="21">
         <v>42736</v>
@@ -4398,16 +4453,15 @@
         <v>24</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V33" s="27"/>
     </row>
     <row r="34" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -4463,25 +4517,24 @@
         <v>24</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:24" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
-        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>34</v>
@@ -4496,7 +4549,7 @@
         <v>277</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I35" s="21">
         <v>41080</v>
@@ -4524,32 +4577,31 @@
         <v>15</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V35" s="4"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="56">
-        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E36" s="50">
         <v>45.766669999999998</v>
@@ -4561,7 +4613,7 @@
         <v>1465</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I36" s="21">
         <v>43622</v>
@@ -4580,7 +4632,7 @@
       </c>
       <c r="N36" s="18"/>
       <c r="O36" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>12</v>
@@ -4592,13 +4644,13 @@
         <v>23</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V36" s="4"/>
       <c r="W36" s="7"/>
@@ -4606,17 +4658,16 @@
     </row>
     <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="61">
-        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E37" s="45">
         <v>48.71</v>
@@ -4628,7 +4679,7 @@
         <v>163</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I37" s="21">
         <v>40695</v>
@@ -4662,10 +4713,10 @@
         <v>24</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V37" s="27"/>
       <c r="W37" s="7"/>
@@ -4673,48 +4724,47 @@
     </row>
     <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>153</v>
+        <v>266</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="46">
-        <v>61.8</v>
+        <v>44.524444000000003</v>
       </c>
       <c r="F38" s="46">
-        <v>24.3</v>
-      </c>
-      <c r="G38" s="46">
-        <v>181</v>
+        <v>11.524444000000001</v>
+      </c>
+      <c r="G38" s="46" t="s">
+        <v>152</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="I38" s="41">
-        <v>40908</v>
+        <v>40861</v>
       </c>
       <c r="J38" s="41">
-        <v>44196</v>
+        <v>42347</v>
       </c>
       <c r="K38" s="41" t="s">
         <v>7</v>
       </c>
       <c r="L38" s="41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M38" s="41" t="s">
         <v>7</v>
       </c>
       <c r="N38" s="54"/>
       <c r="O38" s="41" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P38" s="41" t="s">
         <v>12</v>
@@ -4723,16 +4773,16 @@
         <v>15</v>
       </c>
       <c r="R38" s="41" t="s">
-        <v>168</v>
+        <v>268</v>
       </c>
       <c r="S38" s="41" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="T38" s="40" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="U38" s="41" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="V38" s="41"/>
       <c r="W38" s="7"/>
@@ -4740,35 +4790,34 @@
     </row>
     <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="56">
-        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E39" s="51">
-        <v>44.524444000000003</v>
+        <v>58.370600000000003</v>
       </c>
       <c r="F39" s="51">
-        <v>11.524444000000001</v>
-      </c>
-      <c r="G39" s="49" t="s">
-        <v>152</v>
+        <v>26.7349</v>
+      </c>
+      <c r="G39" s="49">
+        <v>39</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="I39" s="21">
-        <v>40861</v>
+        <v>42614</v>
       </c>
       <c r="J39" s="21">
-        <v>42347</v>
+        <v>42940</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>7</v>
@@ -4779,9 +4828,11 @@
       <c r="M39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N39" s="4"/>
+      <c r="N39" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="O39" s="4" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>12</v>
@@ -4790,16 +4841,16 @@
         <v>15</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="V39" s="4"/>
       <c r="W39" s="7"/>
@@ -4807,35 +4858,34 @@
     </row>
     <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="56">
-        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>273</v>
+        <v>87</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E40" s="45">
-        <v>58.370600000000003</v>
+        <v>60.5</v>
       </c>
       <c r="F40" s="45">
-        <v>26.7349</v>
+        <v>27.7</v>
       </c>
       <c r="G40" s="45">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>276</v>
+        <v>153</v>
       </c>
       <c r="I40" s="21">
-        <v>42614</v>
+        <v>41075</v>
       </c>
       <c r="J40" s="21">
-        <v>42940</v>
+        <v>41432</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>7</v>
@@ -4844,11 +4894,9 @@
         <v>8</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N40" s="53" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="N40" s="53"/>
       <c r="O40" s="4" t="s">
         <v>10</v>
       </c>
@@ -4859,16 +4907,16 @@
         <v>15</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V40" s="4"/>
       <c r="W40" s="7"/>
@@ -4876,34 +4924,34 @@
     </row>
     <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="37">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>87</v>
+        <v>291</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>32</v>
+        <v>292</v>
       </c>
       <c r="E41" s="45">
-        <v>60.5</v>
+        <v>-64.385949999999994</v>
       </c>
       <c r="F41" s="45">
-        <v>27.7</v>
+        <v>-61.543666999999999</v>
       </c>
       <c r="G41" s="45">
-        <v>7</v>
+        <v>474</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="I41" s="21">
-        <v>41075</v>
+        <v>44562</v>
       </c>
       <c r="J41" s="21">
-        <v>41432</v>
+        <v>44910</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>7</v>
@@ -4916,7 +4964,7 @@
       </c>
       <c r="N41" s="18"/>
       <c r="O41" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>12</v>
@@ -4925,16 +4973,16 @@
         <v>15</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>24</v>
+        <v>289</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V41" s="4"/>
       <c r="W41" s="7"/>
@@ -4942,48 +4990,49 @@
     </row>
     <row r="42" spans="1:24" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="37">
-        <f t="shared" ref="A42:A50" si="1">A41+1</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>293</v>
+        <v>89</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>294</v>
+        <v>34</v>
       </c>
       <c r="E42" s="45">
-        <v>78.907150000000001</v>
+        <v>47.4</v>
       </c>
       <c r="F42" s="45">
-        <v>-11.886799999999999</v>
+        <v>8.5</v>
       </c>
       <c r="G42" s="45">
-        <v>474</v>
+        <v>409</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="I42" s="21">
-        <v>44562</v>
+        <v>42613</v>
       </c>
       <c r="J42" s="21">
-        <v>44910</v>
+        <v>45118</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L42" s="55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M42" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="N42" s="18"/>
+        <v>7</v>
+      </c>
+      <c r="N42" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="O42" s="4" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>12</v>
@@ -4995,13 +5044,13 @@
         <v>23</v>
       </c>
       <c r="S42" s="4" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="V42" s="4"/>
       <c r="W42" s="7"/>
@@ -5009,11 +5058,11 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <f t="shared" si="1"/>
-        <v>41</v>
+        <f t="shared" ref="A42:A50" si="0">A42+1</f>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>89</v>
@@ -5031,7 +5080,7 @@
         <v>409</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I43" s="21">
         <v>42613</v>
@@ -5064,20 +5113,20 @@
         <v>23</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="V43" s="4"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <f t="shared" si="1"/>
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5103,8 +5152,8 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <f t="shared" si="1"/>
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5130,8 +5179,8 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <f t="shared" si="1"/>
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5157,8 +5206,8 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5184,8 +5233,8 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <f t="shared" si="1"/>
-        <v>46</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5211,8 +5260,8 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <f t="shared" si="1"/>
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -5238,8 +5287,8 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <f t="shared" si="1"/>
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5268,25 +5317,25 @@
       <c r="G55" s="20"/>
       <c r="H55" s="58"/>
       <c r="I55" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H56" s="57"/>
       <c r="I56" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H57" s="59"/>
       <c r="I57" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H58" s="60"/>
       <c r="I58" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
@@ -5299,7 +5348,7 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B62" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D62" t="s">
         <v>32</v>
@@ -5307,10 +5356,10 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
@@ -5318,20 +5367,20 @@
         <v>117</v>
       </c>
       <c r="D64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D66" t="s">
         <v>16</v>
@@ -5339,10 +5388,10 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D67" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -5355,6 +5404,2229 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F75FD5F-FB17-4033-AE03-20751F8A8BC1}">
+  <dimension ref="A1:V43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="61">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="45">
+        <v>50.61</v>
+      </c>
+      <c r="F2" s="45">
+        <v>3.14</v>
+      </c>
+      <c r="G2" s="45">
+        <v>70</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="21">
+        <v>42654</v>
+      </c>
+      <c r="J2" s="21">
+        <v>44196</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="U2" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="V2" s="44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="50">
+        <v>52.456000000000003</v>
+      </c>
+      <c r="F3" s="50">
+        <v>-1.929</v>
+      </c>
+      <c r="G3" s="50">
+        <v>143</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I3" s="21">
+        <v>43466</v>
+      </c>
+      <c r="J3" s="21">
+        <v>44926</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="53"/>
+      <c r="O3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V3" s="27"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="38">
+        <f t="shared" ref="A4:A21" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="50">
+        <v>41.387500000000003</v>
+      </c>
+      <c r="F4" s="50">
+        <v>2.1180560000000002</v>
+      </c>
+      <c r="G4" s="50">
+        <v>80</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="21">
+        <v>41778</v>
+      </c>
+      <c r="J4" s="21">
+        <v>45135</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="V4" s="27"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="51">
+        <v>44.522221999999999</v>
+      </c>
+      <c r="F5" s="51">
+        <v>11.338333</v>
+      </c>
+      <c r="G5" s="50">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="64">
+        <v>40864</v>
+      </c>
+      <c r="J5" s="21">
+        <v>44391</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="53"/>
+      <c r="O5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="V5" s="27"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="45">
+        <v>35.038708</v>
+      </c>
+      <c r="F6" s="45">
+        <v>33.057763999999999</v>
+      </c>
+      <c r="G6" s="45">
+        <v>352</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" s="21">
+        <v>43441</v>
+      </c>
+      <c r="J6" s="21">
+        <v>43616</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="48">
+        <v>37.994999999999997</v>
+      </c>
+      <c r="F7" s="48">
+        <v>23.815999999999999</v>
+      </c>
+      <c r="G7" s="48">
+        <v>270</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="43">
+        <v>43049</v>
+      </c>
+      <c r="J7" s="43">
+        <v>44405</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="V7" s="18"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="51">
+        <v>53.305300000000003</v>
+      </c>
+      <c r="F8" s="51">
+        <v>-6.0512560000000004</v>
+      </c>
+      <c r="G8" s="51">
+        <v>35</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I8" s="21">
+        <v>42587</v>
+      </c>
+      <c r="J8" s="21">
+        <v>44926</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="53"/>
+      <c r="O8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="V8" s="27"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" s="21">
+        <v>42165</v>
+      </c>
+      <c r="J9" s="21">
+        <v>43830</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="53"/>
+      <c r="O9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V9" s="27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="51">
+        <v>44.412616999999997</v>
+      </c>
+      <c r="F10" s="51">
+        <v>26.09188</v>
+      </c>
+      <c r="G10" s="51">
+        <v>93</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I10" s="21">
+        <v>42370</v>
+      </c>
+      <c r="J10" s="21">
+        <v>44783</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="53"/>
+      <c r="O10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="V10" s="27"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="46">
+        <v>50.089704670000003</v>
+      </c>
+      <c r="F11" s="46">
+        <v>19.890297</v>
+      </c>
+      <c r="G11" s="46">
+        <v>13</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I11" s="21">
+        <v>43108</v>
+      </c>
+      <c r="J11" s="21">
+        <v>43565</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="53"/>
+      <c r="O11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="V11" s="18"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="46">
+        <v>51.52</v>
+      </c>
+      <c r="F12" s="46">
+        <v>-0.154611</v>
+      </c>
+      <c r="G12" s="46">
+        <v>39</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I12" s="21">
+        <v>43678</v>
+      </c>
+      <c r="J12" s="21">
+        <v>44127</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="53"/>
+      <c r="O12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="V12" s="18"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="46">
+        <v>51.521000000000001</v>
+      </c>
+      <c r="F13" s="46">
+        <v>-0.2135</v>
+      </c>
+      <c r="G13" s="46">
+        <v>27</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I13" s="21">
+        <v>42331</v>
+      </c>
+      <c r="J13" s="21">
+        <v>43153</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="53"/>
+      <c r="O13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="V13" s="18"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="46">
+        <v>40.456435999999997</v>
+      </c>
+      <c r="F14" s="46">
+        <v>-3.7256309999999999</v>
+      </c>
+      <c r="G14" s="46">
+        <v>669</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I14" s="21">
+        <v>43729</v>
+      </c>
+      <c r="J14" s="21">
+        <v>45291</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="53"/>
+      <c r="O14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U14" s="4"/>
+      <c r="V14" s="18"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="46">
+        <v>53.44417</v>
+      </c>
+      <c r="F15" s="46">
+        <v>-2.2144439999999999</v>
+      </c>
+      <c r="G15" s="46">
+        <v>43</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I15" s="21">
+        <v>43889</v>
+      </c>
+      <c r="J15" s="21">
+        <v>45020</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="53"/>
+      <c r="O15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V15" s="18"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="45">
+        <v>43.305233000000001</v>
+      </c>
+      <c r="F16" s="45">
+        <v>5.394692</v>
+      </c>
+      <c r="G16" s="45">
+        <v>71</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="21">
+        <v>42947</v>
+      </c>
+      <c r="J16" s="21">
+        <v>44925</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="53"/>
+      <c r="O16" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="V16" s="18"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="50">
+        <v>37.973439999999997</v>
+      </c>
+      <c r="F17" s="50">
+        <v>23.718084999999999</v>
+      </c>
+      <c r="G17" s="50">
+        <v>105</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="21">
+        <v>42736</v>
+      </c>
+      <c r="J17" s="21">
+        <v>44531</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="18"/>
+      <c r="O17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V17" s="27"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="45">
+        <v>50.1</v>
+      </c>
+      <c r="F18" s="45">
+        <v>14.4</v>
+      </c>
+      <c r="G18" s="45">
+        <v>277</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I18" s="21">
+        <v>41080</v>
+      </c>
+      <c r="J18" s="21">
+        <v>41409</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="18"/>
+      <c r="O18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="45">
+        <v>48.71</v>
+      </c>
+      <c r="F19" s="45">
+        <v>2.15</v>
+      </c>
+      <c r="G19" s="45">
+        <v>163</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19" s="21">
+        <v>40695</v>
+      </c>
+      <c r="J19" s="21">
+        <v>44921</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="53"/>
+      <c r="O19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="V19" s="27"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="51">
+        <v>58.370600000000003</v>
+      </c>
+      <c r="F20" s="51">
+        <v>26.7349</v>
+      </c>
+      <c r="G20" s="49">
+        <v>39</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I20" s="21">
+        <v>42614</v>
+      </c>
+      <c r="J20" s="21">
+        <v>42940</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="45">
+        <v>47.4</v>
+      </c>
+      <c r="F21" s="45">
+        <v>8.5</v>
+      </c>
+      <c r="G21" s="45">
+        <v>409</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I21" s="21">
+        <v>42613</v>
+      </c>
+      <c r="J21" s="21">
+        <v>45118</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V21" s="4"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>311</v>
+      </c>
+      <c r="F23" t="s">
+        <v>312</v>
+      </c>
+      <c r="G23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="67">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C30" t="s">
+        <v>222</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" t="s">
+        <v>241</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="67">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>308</v>
+      </c>
+      <c r="C36" t="s">
+        <v>309</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" t="s">
+        <v>250</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" t="s">
+        <v>253</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="67">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="67">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" t="s">
+        <v>259</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>318</v>
+      </c>
+      <c r="F41" t="s">
+        <v>318</v>
+      </c>
+      <c r="G41" t="s">
+        <v>318</v>
+      </c>
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>270</v>
+      </c>
+      <c r="C42" t="s">
+        <v>271</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>276</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" t="s">
+        <v>7</v>
+      </c>
+      <c r="L43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D24:J43 F37:L37 H42:L42">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",D24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",D24)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:L43">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",D24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",D24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="L">
+      <formula>NOT(ISERROR(SEARCH("L",D24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAECC9E8-07B8-43E6-AF50-264301188E83}">
   <dimension ref="A2:J10"/>
   <sheetViews>
@@ -5399,10 +7671,10 @@
     </row>
     <row r="3" spans="1:10" s="28" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>162</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>28</v>
@@ -5419,36 +7691,36 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="33" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="H4" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5483,16 +7755,16 @@
     </row>
     <row r="6" spans="1:10" s="33" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>178</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>7</v>
@@ -5501,25 +7773,25 @@
         <v>48</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:10" s="33" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>49</v>
@@ -5528,7 +7800,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G7" s="9">
         <v>0.1</v>
@@ -5541,10 +7813,10 @@
     </row>
     <row r="8" spans="1:10" s="33" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>28</v>
@@ -5565,22 +7837,22 @@
         <v>8</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:10" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>7</v>
@@ -5589,13 +7861,13 @@
         <v>48</v>
       </c>
       <c r="G9" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="30" t="s">
         <v>169</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>170</v>
       </c>
       <c r="J9" s="26"/>
     </row>
@@ -5633,7 +7905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C78A47A-00B8-4862-88C2-60A2D23E5951}">
   <dimension ref="A1:L24"/>
   <sheetViews>
@@ -6515,7 +8787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95676D4-1698-4223-8BFC-C0F047ADFBB0}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Data/Sites_overview.xlsx
+++ b/Data/Sites_overview.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\GitHub\EU_Overview\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEBA2E9-9171-47F6-8424-74ACCF9DC732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5367CE2-41BB-4962-A720-4DED6A00D7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
-    <sheet name="Selected" sheetId="6" r:id="rId2"/>
-    <sheet name="PMF_outputs" sheetId="3" r:id="rId3"/>
-    <sheet name="Bressi" sheetId="4" r:id="rId4"/>
-    <sheet name="Chen" sheetId="5" r:id="rId5"/>
+    <sheet name="All (2)" sheetId="7" r:id="rId2"/>
+    <sheet name="Selected_I" sheetId="6" r:id="rId3"/>
+    <sheet name="PMF_outputs" sheetId="3" r:id="rId4"/>
+    <sheet name="Bressi" sheetId="4" r:id="rId5"/>
+    <sheet name="Chen" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="353">
   <si>
     <t>Site</t>
   </si>
@@ -1052,12 +1053,114 @@
   <si>
     <t>L</t>
   </si>
+  <si>
+    <t>VLN</t>
+  </si>
+  <si>
+    <t>Vilnius</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pauraite J et al. „Effect of urban submicron particles on single scattering albedo: the case study of high pollution event“, Journal of Quantitative Spectroscopy and Radiative Transfer (2022) </t>
+  </si>
+  <si>
+    <t>CRE</t>
+  </si>
+  <si>
+    <t>Creil</t>
+  </si>
+  <si>
+    <t>Chebaicheb et al. (2024; in prep)</t>
+  </si>
+  <si>
+    <t>LYO</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Chebaicheb et al. (in prep.)</t>
+  </si>
+  <si>
+    <t>PAR-GEN</t>
+  </si>
+  <si>
+    <t>Paris - Gennevilliers</t>
+  </si>
+  <si>
+    <t>PAR-BPE</t>
+  </si>
+  <si>
+    <t>Paris - Les Halles</t>
+  </si>
+  <si>
+    <t>Paris - BPEst</t>
+  </si>
+  <si>
+    <t>PAR-HAL</t>
+  </si>
+  <si>
+    <t>Poitiers</t>
+  </si>
+  <si>
+    <t>POI</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>REN</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Talace</t>
+  </si>
+  <si>
+    <t>TAL</t>
+  </si>
+  <si>
+    <t>Preila</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>under preparation (Minderyte et al 2024)</t>
+  </si>
+  <si>
+    <t>RUG</t>
+  </si>
+  <si>
+    <t>Rūgšteliškis</t>
+  </si>
+  <si>
+    <t>Missing:</t>
+  </si>
+  <si>
+    <t>Hyttiala</t>
+  </si>
+  <si>
+    <t>Masalaite A., Byčenkienė S., Pauraite J., Garbariene I., Haddad I. el, Bozzetti C., Jaffrezo J. L., Besombes J. L.,  Plauškaitė-Šukienė K., Garbaras A., Sapolaite J., Ezerinskis Z., Dudoitis V., Bariseviciute R., Ulevicius V., Prevot A. S. H.  and Remeikis V., “Seasonal observation and source apportionment of carbonaceous aerosol from forested rural site (Lithuania)”, Atmospheric Environment, (2022)</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>MET</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1266,8 +1369,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="44">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1503,18 +1619,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1697,8 +1807,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1741,8 +1862,9 @@
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1824,7 +1946,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1859,7 +1980,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1867,16 +1987,41 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="21" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="24" builtinId="38" customBuiltin="1"/>
@@ -1911,6 +2056,7 @@
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutre 2" xfId="35" xr:uid="{A556AD2D-5A7B-46A3-8493-8C4CE74EA06A}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{1C5C9F1C-4284-419F-A80F-EB8D52BF7A30}"/>
     <cellStyle name="Notas" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Salida" xfId="9" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="13" builtinId="11" customBuiltin="1"/>
@@ -1920,7 +2066,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -1944,6 +2090,13 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor rgb="FFFF9999"/>
         </patternFill>
@@ -1953,6 +2106,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2302,15 +2469,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X67"/>
+  <dimension ref="A1:X80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
@@ -2323,7 +2491,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2335,13 +2503,13 @@
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="46" t="s">
         <v>151</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -2391,7 +2559,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2403,13 +2571,13 @@
       <c r="D2" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="44">
         <v>50.61</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="44">
         <v>3.14</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="44">
         <v>70</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -2430,7 +2598,7 @@
       <c r="M2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="N2" s="52" t="s">
         <v>8</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -2448,18 +2616,19 @@
       <c r="S2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="65" t="s">
+      <c r="T2" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="U2" s="65" t="s">
+      <c r="U2" s="62" t="s">
         <v>303</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="43" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
+      <c r="A3" s="1">
+        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2471,13 +2640,13 @@
       <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="49">
         <v>52.456000000000003</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="49">
         <v>-1.929</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="49">
         <v>143</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -2495,10 +2664,10 @@
       <c r="L3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="53"/>
+      <c r="M3" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="52"/>
       <c r="O3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2524,6 +2693,7 @@
     </row>
     <row r="4" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2535,13 +2705,13 @@
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="49">
         <v>41.387500000000003</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="49">
         <v>2.1180560000000002</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="49">
         <v>80</v>
       </c>
       <c r="H4" s="18" t="s">
@@ -2587,7 +2757,8 @@
       <c r="V4" s="27"/>
     </row>
     <row r="5" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
+      <c r="A5" s="1">
+        <f>A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2599,13 +2770,13 @@
       <c r="D5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="44">
         <v>58.4</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="44">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="44">
         <v>220</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2620,13 +2791,13 @@
       <c r="K5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="54" t="s">
         <v>8</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="N5" s="52" t="s">
         <v>8</v>
       </c>
       <c r="O5" s="4" t="s">
@@ -2654,6 +2825,7 @@
     </row>
     <row r="6" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <f>A5+1</f>
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2665,19 +2837,19 @@
       <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="50">
         <v>44.522221999999999</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="50">
         <v>11.338333</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="49">
         <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="61">
         <v>40864</v>
       </c>
       <c r="J6" s="21">
@@ -2692,7 +2864,7 @@
       <c r="M6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="53"/>
+      <c r="N6" s="52"/>
       <c r="O6" s="4" t="s">
         <v>41</v>
       </c>
@@ -2718,6 +2890,7 @@
     </row>
     <row r="7" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <f>A6+1</f>
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2729,13 +2902,13 @@
       <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="44">
         <v>35.038708</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="44">
         <v>33.057763999999999</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="44">
         <v>352</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -2784,6 +2957,7 @@
     </row>
     <row r="8" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <f>A7+1</f>
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2795,13 +2969,13 @@
       <c r="D8" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="50">
         <v>37.575299999999999</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="50">
         <v>12.6595</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="49">
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -2822,7 +2996,7 @@
       <c r="M8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="53"/>
+      <c r="N8" s="52"/>
       <c r="O8" s="4" t="s">
         <v>41</v>
       </c>
@@ -2848,6 +3022,7 @@
     </row>
     <row r="9" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <f>A8+1</f>
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2859,13 +3034,13 @@
       <c r="D9" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="44">
         <v>44.2</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="44">
         <v>10.7</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="44">
         <v>2165</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -2912,47 +3087,48 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
+    <row r="10" spans="1:22" s="72" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <f>A9+1</f>
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>217</v>
+        <v>324</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>218</v>
+        <v>323</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="50">
-        <v>52.1754283</v>
-      </c>
-      <c r="F10" s="50">
-        <v>-6.3660160000000001</v>
-      </c>
-      <c r="G10" s="50">
-        <v>9</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E10" s="45">
+        <v>49.26</v>
+      </c>
+      <c r="F10" s="45">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="G10" s="65"/>
       <c r="H10" s="4" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I10" s="21">
-        <v>42600</v>
+        <v>42370</v>
       </c>
       <c r="J10" s="21">
-        <v>44910</v>
+        <v>44561</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="55" t="s">
+      <c r="L10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="53"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="O10" s="4" t="s">
         <v>10</v>
       </c>
@@ -2971,184 +3147,187 @@
       <c r="T10" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="U10" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="V10" s="27" t="s">
-        <v>221</v>
-      </c>
+      <c r="U10" s="69" t="s">
+        <v>325</v>
+      </c>
+      <c r="V10" s="18"/>
     </row>
     <row r="11" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <f>A10+1</f>
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="49">
+        <v>52.1754283</v>
+      </c>
+      <c r="F11" s="49">
+        <v>-6.3660160000000001</v>
+      </c>
+      <c r="G11" s="49">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I11" s="21">
+        <v>42600</v>
+      </c>
+      <c r="J11" s="21">
+        <v>44910</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="52"/>
+      <c r="O11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="V11" s="27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f>A11+1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E12" s="47">
         <v>37.994999999999997</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F12" s="47">
         <v>23.815999999999999</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G12" s="47">
         <v>270</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H12" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I12" s="42">
         <v>43049</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J12" s="42">
         <v>44405</v>
       </c>
-      <c r="K11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18" t="s">
+      <c r="K12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="P12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="Q12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R11" s="18" t="s">
+      <c r="R12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="S12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="T11" s="18" t="s">
+      <c r="T12" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="U11" s="18" t="s">
+      <c r="U12" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="V11" s="18"/>
-    </row>
-    <row r="12" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="V12" s="18"/>
+    </row>
+    <row r="13" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f>A12+1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E13" s="50">
         <v>53.305300000000003</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F13" s="50">
         <v>-6.0512560000000004</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G13" s="50">
         <v>35</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I13" s="21">
         <v>42587</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J13" s="21">
         <v>44926</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="53"/>
-      <c r="O12" s="4" t="s">
+      <c r="K13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="52"/>
+      <c r="O13" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="V12" s="27"/>
-    </row>
-    <row r="13" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E13" s="51">
-        <v>35.337799070000003</v>
-      </c>
-      <c r="F13" s="51">
-        <v>25.669399259999999</v>
-      </c>
-      <c r="G13" s="51">
-        <v>150</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I13" s="21">
-        <v>39869</v>
-      </c>
-      <c r="J13" s="21">
-        <v>39898</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="53"/>
-      <c r="O13" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>12</v>
@@ -3166,53 +3345,54 @@
         <v>204</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>294</v>
+        <v>223</v>
       </c>
       <c r="V13" s="27"/>
     </row>
     <row r="14" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+      <c r="A14" s="1">
+        <f>A13+1</f>
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>227</v>
+        <v>61</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="E14" s="50">
-        <v>37.163888999999998</v>
+        <v>35.337799070000003</v>
       </c>
       <c r="F14" s="50">
-        <v>-3.605</v>
+        <v>25.669399259999999</v>
       </c>
       <c r="G14" s="50">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="I14" s="21">
-        <v>42353</v>
+        <v>39869</v>
       </c>
       <c r="J14" s="21">
-        <v>42416</v>
+        <v>39898</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N14" s="53"/>
+      <c r="L14" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="52"/>
       <c r="O14" s="4" t="s">
-        <v>10</v>
+        <v>284</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>12</v>
@@ -3235,46 +3415,47 @@
       <c r="V14" s="27"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37">
+      <c r="A15" s="1">
+        <f>A14+1</f>
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>310</v>
+        <v>34</v>
+      </c>
+      <c r="E15" s="49">
+        <v>37.163888999999998</v>
+      </c>
+      <c r="F15" s="49">
+        <v>-3.605</v>
+      </c>
+      <c r="G15" s="49">
+        <v>68</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="I15" s="21">
-        <v>42165</v>
+        <v>42353</v>
       </c>
       <c r="J15" s="21">
-        <v>43830</v>
+        <v>42416</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="53"/>
+      <c r="L15" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="52"/>
       <c r="O15" s="4" t="s">
         <v>10</v>
       </c>
@@ -3285,7 +3466,7 @@
         <v>15</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>24</v>
@@ -3296,51 +3477,50 @@
       <c r="U15" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="V15" s="27" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="37">
+      <c r="V15" s="27"/>
+    </row>
+    <row r="16" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f>A15+1</f>
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2</v>
+        <v>229</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="45">
-        <v>47.8</v>
-      </c>
-      <c r="F16" s="45">
-        <v>11</v>
-      </c>
-      <c r="G16" s="51">
-        <v>985</v>
+        <v>16</v>
+      </c>
+      <c r="E16" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="F16" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="G16" s="67" t="s">
+        <v>310</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="I16" s="21">
-        <v>41640</v>
+        <v>42165</v>
       </c>
       <c r="J16" s="21">
-        <v>44926</v>
+        <v>43830</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="53"/>
+      <c r="L16" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="52"/>
       <c r="O16" s="4" t="s">
         <v>10</v>
       </c>
@@ -3351,10 +3531,10 @@
         <v>15</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="T16" s="4" t="s">
         <v>204</v>
@@ -3362,53 +3542,54 @@
       <c r="U16" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="V16" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37">
+      <c r="V16" s="27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f>A16+1</f>
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>286</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="45">
-        <v>56.097630000000002</v>
-      </c>
-      <c r="F17" s="45">
-        <v>13.41897</v>
-      </c>
-      <c r="G17" s="51">
-        <v>115</v>
+      <c r="E17" s="44">
+        <v>47.8</v>
+      </c>
+      <c r="F17" s="44">
+        <v>11</v>
+      </c>
+      <c r="G17" s="50">
+        <v>985</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>288</v>
+        <v>4</v>
       </c>
       <c r="I17" s="21">
-        <v>43011</v>
+        <v>41640</v>
       </c>
       <c r="J17" s="21">
-        <v>43969</v>
+        <v>44926</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="53"/>
+      <c r="L17" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="52"/>
       <c r="O17" s="4" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>12</v>
@@ -3417,10 +3598,10 @@
         <v>15</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="T17" s="4" t="s">
         <v>204</v>
@@ -3428,51 +3609,54 @@
       <c r="U17" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="V17" s="18"/>
-    </row>
-    <row r="18" spans="1:22" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V17" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <f>A17+1</f>
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>189</v>
+        <v>287</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="51">
-        <v>44.412616999999997</v>
-      </c>
-      <c r="F18" s="51">
-        <v>26.09188</v>
-      </c>
-      <c r="G18" s="51">
-        <v>93</v>
+        <v>32</v>
+      </c>
+      <c r="E18" s="44">
+        <v>56.097630000000002</v>
+      </c>
+      <c r="F18" s="44">
+        <v>13.41897</v>
+      </c>
+      <c r="G18" s="50">
+        <v>115</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>191</v>
+        <v>288</v>
       </c>
       <c r="I18" s="21">
-        <v>42370</v>
+        <v>43011</v>
       </c>
       <c r="J18" s="21">
-        <v>44783</v>
+        <v>43969</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="N18" s="53"/>
+      <c r="L18" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="52"/>
       <c r="O18" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>12</v>
@@ -3484,46 +3668,47 @@
         <v>23</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>24</v>
+        <v>289</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>204</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="V18" s="27"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="V18" s="18"/>
+    </row>
+    <row r="19" spans="1:22" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <f>A18+1</f>
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="45">
-        <v>45.8</v>
-      </c>
-      <c r="F19" s="45">
-        <v>8.6</v>
-      </c>
-      <c r="G19" s="45">
-        <v>223</v>
+        <v>178</v>
+      </c>
+      <c r="E19" s="50">
+        <v>44.412616999999997</v>
+      </c>
+      <c r="F19" s="50">
+        <v>26.09188</v>
+      </c>
+      <c r="G19" s="50">
+        <v>93</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="I19" s="21">
-        <v>41334</v>
+        <v>42370</v>
       </c>
       <c r="J19" s="21">
-        <v>41698</v>
+        <v>44783</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>7</v>
@@ -3531,10 +3716,10 @@
       <c r="L19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N19" s="53"/>
+      <c r="M19" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="52"/>
       <c r="O19" s="4" t="s">
         <v>10</v>
       </c>
@@ -3554,57 +3739,54 @@
         <v>204</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="V19" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37">
+        <v>192</v>
+      </c>
+      <c r="V19" s="27"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f>A19+1</f>
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>282</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="52">
-        <v>49.583333000000003</v>
-      </c>
-      <c r="F20" s="52">
-        <v>15.083333</v>
-      </c>
-      <c r="G20" s="52">
-        <v>534</v>
+      <c r="E20" s="44">
+        <v>45.8</v>
+      </c>
+      <c r="F20" s="44">
+        <v>8.6</v>
+      </c>
+      <c r="G20" s="44">
+        <v>223</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="I20" s="21">
-        <v>43473</v>
+        <v>41334</v>
       </c>
       <c r="J20" s="21">
-        <v>43752</v>
+        <v>41698</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="55" t="s">
-        <v>8</v>
+      <c r="L20" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N20" s="53" t="s">
-        <v>8</v>
-      </c>
+      <c r="N20" s="52"/>
       <c r="O20" s="4" t="s">
-        <v>285</v>
+        <v>10</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>12</v>
@@ -3622,53 +3804,58 @@
         <v>204</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="V20" s="18"/>
+        <v>302</v>
+      </c>
+      <c r="V20" s="18" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="21" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <f>A20+1</f>
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="46">
-        <v>50.089704670000003</v>
-      </c>
-      <c r="F21" s="46">
-        <v>19.890297</v>
-      </c>
-      <c r="G21" s="46">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="E21" s="51">
+        <v>49.583333000000003</v>
+      </c>
+      <c r="F21" s="51">
+        <v>15.083333</v>
+      </c>
+      <c r="G21" s="51">
+        <v>534</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="I21" s="21">
-        <v>43108</v>
+        <v>43473</v>
       </c>
       <c r="J21" s="21">
-        <v>43565</v>
+        <v>43752</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>7</v>
+      <c r="L21" s="54" t="s">
+        <v>8</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N21" s="53"/>
+      <c r="N21" s="52" t="s">
+        <v>8</v>
+      </c>
       <c r="O21" s="4" t="s">
-        <v>10</v>
+        <v>285</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>12</v>
@@ -3677,7 +3864,7 @@
         <v>15</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="S21" s="4" t="s">
         <v>24</v>
@@ -3686,40 +3873,41 @@
         <v>204</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="V21" s="18"/>
     </row>
     <row r="22" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <f>A21+1</f>
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="46">
-        <v>51.52</v>
-      </c>
-      <c r="F22" s="46">
-        <v>-0.154611</v>
-      </c>
-      <c r="G22" s="46">
-        <v>39</v>
+        <v>233</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="45">
+        <v>50.089704670000003</v>
+      </c>
+      <c r="F22" s="45">
+        <v>19.890297</v>
+      </c>
+      <c r="G22" s="45">
+        <v>13</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="I22" s="21">
-        <v>43678</v>
+        <v>43108</v>
       </c>
       <c r="J22" s="21">
-        <v>44127</v>
+        <v>43565</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>7</v>
@@ -3730,7 +3918,7 @@
       <c r="M22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N22" s="53"/>
+      <c r="N22" s="52"/>
       <c r="O22" s="4" t="s">
         <v>10</v>
       </c>
@@ -3741,7 +3929,7 @@
         <v>15</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="S22" s="4" t="s">
         <v>24</v>
@@ -3750,40 +3938,41 @@
         <v>204</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="V22" s="18"/>
     </row>
     <row r="23" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <f>A22+1</f>
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="46">
-        <v>51.521000000000001</v>
-      </c>
-      <c r="F23" s="46">
-        <v>-0.2135</v>
-      </c>
-      <c r="G23" s="46">
-        <v>27</v>
+        <v>239</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="45">
+        <v>51.52</v>
+      </c>
+      <c r="F23" s="45">
+        <v>-0.154611</v>
+      </c>
+      <c r="G23" s="45">
+        <v>39</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>212</v>
       </c>
       <c r="I23" s="21">
-        <v>42331</v>
+        <v>43678</v>
       </c>
       <c r="J23" s="21">
-        <v>43153</v>
+        <v>44127</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>7</v>
@@ -3794,7 +3983,7 @@
       <c r="M23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N23" s="53"/>
+      <c r="N23" s="52"/>
       <c r="O23" s="4" t="s">
         <v>10</v>
       </c>
@@ -3805,7 +3994,7 @@
         <v>15</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="S23" s="4" t="s">
         <v>24</v>
@@ -3820,45 +4009,46 @@
     </row>
     <row r="24" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <f>A23+1</f>
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="46">
-        <v>40.456435999999997</v>
-      </c>
-      <c r="F24" s="46">
-        <v>-3.7256309999999999</v>
-      </c>
-      <c r="G24" s="46">
-        <v>669</v>
+      <c r="E24" s="45">
+        <v>51.521000000000001</v>
+      </c>
+      <c r="F24" s="45">
+        <v>-0.2135</v>
+      </c>
+      <c r="G24" s="45">
+        <v>27</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="I24" s="21">
-        <v>43729</v>
+        <v>42331</v>
       </c>
       <c r="J24" s="21">
-        <v>45291</v>
+        <v>43153</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N24" s="53"/>
+        <v>7</v>
+      </c>
+      <c r="N24" s="52"/>
       <c r="O24" s="4" t="s">
         <v>10</v>
       </c>
@@ -3877,50 +4067,51 @@
       <c r="T24" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="U24" s="4"/>
+      <c r="U24" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="V24" s="18"/>
     </row>
-    <row r="25" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <f>A24+1</f>
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>245</v>
+        <v>327</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>326</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E25" s="45">
-        <v>46.2</v>
+        <v>45.76</v>
       </c>
       <c r="F25" s="45">
-        <v>8.9</v>
-      </c>
-      <c r="G25" s="45">
-        <v>203</v>
-      </c>
+        <v>7.85</v>
+      </c>
+      <c r="G25" s="65"/>
       <c r="H25" s="4" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="I25" s="21">
-        <v>41514</v>
+        <v>42074</v>
       </c>
       <c r="J25" s="21">
-        <v>41942</v>
+        <v>44561</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L25" s="18" t="s">
-        <v>7</v>
+      <c r="L25" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N25" s="53"/>
+        <v>8</v>
+      </c>
+      <c r="N25" s="52"/>
       <c r="O25" s="4" t="s">
         <v>10</v>
       </c>
@@ -3931,7 +4122,7 @@
         <v>15</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="S25" s="4" t="s">
         <v>24</v>
@@ -3940,62 +4131,63 @@
         <v>204</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>248</v>
+        <v>328</v>
       </c>
       <c r="V25" s="18"/>
     </row>
     <row r="26" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37">
+      <c r="A26" s="1">
+        <f>A25+1</f>
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="46">
-        <v>53.44417</v>
-      </c>
-      <c r="F26" s="46">
-        <v>-2.2144439999999999</v>
-      </c>
-      <c r="G26" s="46">
-        <v>43</v>
+      <c r="E26" s="45">
+        <v>40.456435999999997</v>
+      </c>
+      <c r="F26" s="45">
+        <v>-3.7256309999999999</v>
+      </c>
+      <c r="G26" s="45">
+        <v>669</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="I26" s="21">
-        <v>43889</v>
+        <v>43729</v>
       </c>
       <c r="J26" s="21">
-        <v>45020</v>
+        <v>45291</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L26" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="N26" s="53"/>
+      <c r="L26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="52"/>
       <c r="O26" s="4" t="s">
         <v>10</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="S26" s="4" t="s">
         <v>24</v>
@@ -4003,41 +4195,40 @@
       <c r="T26" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="U26" s="4" t="s">
-        <v>294</v>
-      </c>
+      <c r="U26" s="4"/>
       <c r="V26" s="18"/>
     </row>
     <row r="27" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <f>A26+1</f>
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>253</v>
+        <v>69</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="45">
-        <v>43.305233000000001</v>
-      </c>
-      <c r="F27" s="45">
-        <v>5.394692</v>
-      </c>
-      <c r="G27" s="45">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="E27" s="44">
+        <v>46.2</v>
+      </c>
+      <c r="F27" s="44">
+        <v>8.9</v>
+      </c>
+      <c r="G27" s="44">
+        <v>203</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="I27" s="21">
-        <v>42947</v>
+        <v>41514</v>
       </c>
       <c r="J27" s="21">
-        <v>44925</v>
+        <v>41942</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>7</v>
@@ -4045,12 +4236,12 @@
       <c r="L27" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M27" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="N27" s="53"/>
+      <c r="M27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="52"/>
       <c r="O27" s="4" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>12</v>
@@ -4059,128 +4250,128 @@
         <v>15</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>244</v>
+        <v>24</v>
       </c>
       <c r="T27" s="4" t="s">
         <v>204</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V27" s="18"/>
     </row>
     <row r="28" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="62">
+      <c r="A28" s="1">
+        <f>A27+1</f>
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E28" s="45">
-        <v>51.54</v>
+        <v>53.44417</v>
       </c>
       <c r="F28" s="45">
-        <v>12.93</v>
+        <v>-2.2144439999999999</v>
       </c>
       <c r="G28" s="45">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="I28" s="21">
-        <v>42621</v>
+        <v>43889</v>
       </c>
       <c r="J28" s="21">
-        <v>42978</v>
+        <v>45020</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L28" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="N28" s="53" t="s">
-        <v>8</v>
-      </c>
+      <c r="L28" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" s="52"/>
       <c r="O28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>15</v>
+        <v>214</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c r="T28" s="4" t="s">
         <v>204</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="V28" s="18"/>
     </row>
     <row r="29" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37">
+      <c r="A29" s="1">
+        <f>A28+1</f>
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="45">
-        <v>53.324967000000001</v>
-      </c>
-      <c r="F29" s="45">
-        <v>-9.9029478999999991</v>
-      </c>
-      <c r="G29" s="45">
-        <v>5</v>
+        <v>34</v>
+      </c>
+      <c r="E29" s="44">
+        <v>43.305233000000001</v>
+      </c>
+      <c r="F29" s="44">
+        <v>5.394692</v>
+      </c>
+      <c r="G29" s="44">
+        <v>71</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I29" s="21">
-        <v>42377</v>
+        <v>42947</v>
       </c>
       <c r="J29" s="21">
-        <v>43294</v>
+        <v>44925</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="53"/>
+      <c r="L29" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" s="52"/>
       <c r="O29" s="4" t="s">
-        <v>285</v>
+        <v>202</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>12</v>
@@ -4198,53 +4389,56 @@
         <v>204</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="V29" s="18"/>
     </row>
     <row r="30" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <f>A29+1</f>
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="45">
-        <v>45.478611000000001</v>
-      </c>
-      <c r="F30" s="45">
-        <v>9.2344439999999999</v>
-      </c>
-      <c r="G30" s="46">
-        <v>118</v>
+        <v>32</v>
+      </c>
+      <c r="E30" s="44">
+        <v>51.54</v>
+      </c>
+      <c r="F30" s="44">
+        <v>12.93</v>
+      </c>
+      <c r="G30" s="44">
+        <v>86</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I30" s="21">
-        <v>41673</v>
+        <v>42621</v>
       </c>
       <c r="J30" s="21">
-        <v>41698</v>
+        <v>42978</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N30" s="4"/>
+      <c r="L30" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="52" t="s">
+        <v>8</v>
+      </c>
       <c r="O30" s="4" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>12</v>
@@ -4256,131 +4450,128 @@
         <v>23</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="T30" s="4" t="s">
         <v>204</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="V30" s="18"/>
     </row>
-    <row r="31" spans="1:22" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37">
+    <row r="31" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="E31" s="46">
-        <v>42.05</v>
-      </c>
-      <c r="F31" s="46">
-        <v>0.72</v>
-      </c>
-      <c r="G31" s="46">
-        <v>1570</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="I31" s="43">
-        <v>40738</v>
-      </c>
-      <c r="J31" s="43">
-        <v>41022</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="N31" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="O31" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="44">
+        <v>49.11</v>
+      </c>
+      <c r="F31" s="44">
+        <v>6.22</v>
+      </c>
+      <c r="G31" s="65"/>
+      <c r="H31" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I31" s="21">
+        <v>44561</v>
+      </c>
+      <c r="J31" s="21">
+        <v>44561</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" s="52"/>
+      <c r="O31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P31" s="18" t="s">
+      <c r="P31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q31" s="18" t="s">
+      <c r="Q31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R31" s="18" t="s">
+      <c r="R31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S31" s="18" t="s">
-        <v>289</v>
+      <c r="S31" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="T31" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="U31" s="18" t="s">
-        <v>306</v>
+      <c r="U31" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="V31" s="18"/>
     </row>
-    <row r="32" spans="1:22" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>31</v>
+        <f>A30+1</f>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="46">
-        <v>41.779342</v>
-      </c>
-      <c r="F32" s="46">
-        <v>2.3580329999999998</v>
-      </c>
-      <c r="G32" s="46">
-        <v>720</v>
+      <c r="E32" s="44">
+        <v>53.324967000000001</v>
+      </c>
+      <c r="F32" s="44">
+        <v>-9.9029478999999991</v>
+      </c>
+      <c r="G32" s="44">
+        <v>5</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="I32" s="21">
-        <v>44426</v>
+        <v>42377</v>
       </c>
       <c r="J32" s="21">
-        <v>44711</v>
+        <v>43294</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M32" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="N32" s="18"/>
+      <c r="L32" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="52"/>
       <c r="O32" s="4" t="s">
-        <v>202</v>
+        <v>285</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c r="R32" s="4" t="s">
         <v>23</v>
@@ -4396,36 +4587,37 @@
       </c>
       <c r="V32" s="18"/>
     </row>
-    <row r="33" spans="1:24" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38">
-        <v>32</v>
+    <row r="33" spans="1:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f>A32+1</f>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="50">
-        <v>37.973439999999997</v>
-      </c>
-      <c r="F33" s="50">
-        <v>23.718084999999999</v>
-      </c>
-      <c r="G33" s="50">
-        <v>105</v>
+      <c r="E33" s="44">
+        <v>45.478611000000001</v>
+      </c>
+      <c r="F33" s="44">
+        <v>9.2344439999999999</v>
+      </c>
+      <c r="G33" s="45">
+        <v>118</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="I33" s="21">
-        <v>42736</v>
+        <v>41673</v>
       </c>
       <c r="J33" s="21">
-        <v>44531</v>
+        <v>41698</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>7</v>
@@ -4433,12 +4625,12 @@
       <c r="L33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M33" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="18"/>
+      <c r="M33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="4"/>
       <c r="O33" s="4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>12</v>
@@ -4450,7 +4642,7 @@
         <v>23</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="T33" s="4" t="s">
         <v>204</v>
@@ -4458,104 +4650,106 @@
       <c r="U33" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="V33" s="27"/>
-    </row>
-    <row r="34" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V33" s="18"/>
+    </row>
+    <row r="34" spans="1:24" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>33</v>
+        <f>A33+1</f>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="51">
-        <v>45.377499999999998</v>
-      </c>
-      <c r="F34" s="51">
-        <v>11.94</v>
-      </c>
-      <c r="G34" s="50">
-        <v>11</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="21">
-        <v>41665</v>
-      </c>
-      <c r="J34" s="21">
-        <v>41698</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L34" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P34" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="45">
+        <v>42.05</v>
+      </c>
+      <c r="F34" s="45">
+        <v>0.72</v>
+      </c>
+      <c r="G34" s="45">
+        <v>1570</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="I34" s="42">
+        <v>40738</v>
+      </c>
+      <c r="J34" s="42">
+        <v>41022</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O34" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="Q34" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R34" s="4" t="s">
+      <c r="R34" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="S34" s="4" t="s">
-        <v>24</v>
+      <c r="S34" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="T34" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="U34" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="V34" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38">
-        <v>34</v>
+      <c r="U34" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="V34" s="18"/>
+    </row>
+    <row r="35" spans="1:24" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f>A34+1</f>
+        <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E35" s="45">
-        <v>50.1</v>
+        <v>41.779342</v>
       </c>
       <c r="F35" s="45">
-        <v>14.4</v>
+        <v>2.3580329999999998</v>
       </c>
       <c r="G35" s="45">
-        <v>277</v>
+        <v>720</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="I35" s="21">
-        <v>41080</v>
+        <v>44426</v>
       </c>
       <c r="J35" s="21">
-        <v>41409</v>
+        <v>44711</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>7</v>
@@ -4563,76 +4757,77 @@
       <c r="L35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M35" s="55" t="s">
+      <c r="M35" s="54" t="s">
         <v>8</v>
       </c>
       <c r="N35" s="18"/>
       <c r="O35" s="4" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="T35" s="4" t="s">
         <v>204</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="V35" s="4"/>
-    </row>
-    <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="56">
-        <v>35</v>
+        <v>294</v>
+      </c>
+      <c r="V35" s="18"/>
+    </row>
+    <row r="36" spans="1:24" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f>A35+1</f>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E36" s="50">
-        <v>45.766669999999998</v>
-      </c>
-      <c r="F36" s="50">
-        <v>2.95</v>
-      </c>
-      <c r="G36" s="50">
-        <v>1465</v>
+        <v>155</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="49">
+        <v>37.973439999999997</v>
+      </c>
+      <c r="F36" s="49">
+        <v>23.718084999999999</v>
+      </c>
+      <c r="G36" s="49">
+        <v>105</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="I36" s="21">
-        <v>43622</v>
+        <v>42736</v>
       </c>
       <c r="J36" s="21">
-        <v>44195</v>
+        <v>44531</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L36" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="M36" s="55" t="s">
+      <c r="L36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" s="54" t="s">
         <v>8</v>
       </c>
       <c r="N36" s="18"/>
       <c r="O36" s="4" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>12</v>
@@ -4644,7 +4839,7 @@
         <v>23</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c r="T36" s="4" t="s">
         <v>204</v>
@@ -4652,51 +4847,50 @@
       <c r="U36" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="V36" s="4"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="6"/>
-    </row>
-    <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="61">
-        <v>36</v>
+      <c r="V36" s="27"/>
+    </row>
+    <row r="37" spans="1:24" s="73" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>A36+1</f>
+        <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>224</v>
+        <v>333</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E37" s="45">
-        <v>48.71</v>
-      </c>
-      <c r="F37" s="45">
-        <v>2.15</v>
-      </c>
-      <c r="G37" s="45">
-        <v>163</v>
+        <v>331</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="49">
+        <v>48.838574000000001</v>
+      </c>
+      <c r="F37" s="49">
+        <v>2.4127130000000001</v>
+      </c>
+      <c r="G37" s="49">
+        <v>48</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>180</v>
       </c>
       <c r="I37" s="21">
-        <v>40695</v>
+        <v>44440</v>
       </c>
       <c r="J37" s="21">
-        <v>44921</v>
+        <v>44561</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L37" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="M37" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="N37" s="53"/>
+      <c r="L37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" s="52"/>
       <c r="O37" s="4" t="s">
         <v>10</v>
       </c>
@@ -4716,121 +4910,105 @@
         <v>204</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="V37" s="27"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="6"/>
-    </row>
-    <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:24" s="73" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
+        <f>A37+1</f>
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I38" s="21">
+        <v>43121</v>
+      </c>
+      <c r="J38" s="21">
+        <v>43008</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" s="52"/>
+      <c r="O38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V38" s="27"/>
+    </row>
+    <row r="39" spans="1:24" s="73" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <f>A38+1</f>
         <v>37</v>
       </c>
-      <c r="B38" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="46">
-        <v>44.524444000000003</v>
-      </c>
-      <c r="F38" s="46">
-        <v>11.524444000000001</v>
-      </c>
-      <c r="G38" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="41">
-        <v>40861</v>
-      </c>
-      <c r="J38" s="41">
-        <v>42347</v>
-      </c>
-      <c r="K38" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="L38" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="M38" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="N38" s="54"/>
-      <c r="O38" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="P38" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q38" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="R38" s="41" t="s">
-        <v>268</v>
-      </c>
-      <c r="S38" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="T38" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="U38" s="41" t="s">
-        <v>269</v>
-      </c>
-      <c r="V38" s="41"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="6"/>
-    </row>
-    <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="56">
-        <v>38</v>
-      </c>
       <c r="B39" s="1" t="s">
-        <v>270</v>
+        <v>332</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="51">
-        <v>58.370600000000003</v>
-      </c>
-      <c r="F39" s="51">
-        <v>26.7349</v>
-      </c>
-      <c r="G39" s="49">
-        <v>39</v>
-      </c>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
       <c r="H39" s="4" t="s">
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="I39" s="21">
-        <v>42614</v>
+        <v>43712</v>
       </c>
       <c r="J39" s="21">
-        <v>42940</v>
+        <v>44336</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L39" s="55" t="s">
+      <c r="L39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="N39" s="52"/>
       <c r="O39" s="4" t="s">
         <v>10</v>
       </c>
@@ -4844,61 +5022,60 @@
         <v>23</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c r="T39" s="4" t="s">
         <v>204</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="V39" s="4"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="6"/>
-    </row>
-    <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="56">
-        <v>39</v>
+        <v>328</v>
+      </c>
+      <c r="V39" s="27"/>
+    </row>
+    <row r="40" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <f>A39+1</f>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="45">
-        <v>60.5</v>
-      </c>
-      <c r="F40" s="45">
-        <v>27.7</v>
-      </c>
-      <c r="G40" s="45">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="E40" s="50">
+        <v>45.377499999999998</v>
+      </c>
+      <c r="F40" s="50">
+        <v>11.94</v>
+      </c>
+      <c r="G40" s="49">
+        <v>11</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="I40" s="21">
-        <v>41075</v>
+        <v>41665</v>
       </c>
       <c r="J40" s="21">
-        <v>41432</v>
+        <v>41698</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="55" t="s">
+      <c r="L40" s="54" t="s">
         <v>8</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N40" s="53"/>
+        <v>7</v>
+      </c>
+      <c r="N40" s="4"/>
       <c r="O40" s="4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P40" s="4" t="s">
         <v>12</v>
@@ -4907,7 +5084,7 @@
         <v>15</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="S40" s="4" t="s">
         <v>24</v>
@@ -4918,53 +5095,54 @@
       <c r="U40" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="V40" s="4"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="6"/>
-    </row>
-    <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="37">
-        <v>40</v>
+      <c r="V40" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <f>A40+1</f>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E41" s="45">
-        <v>-64.385949999999994</v>
-      </c>
-      <c r="F41" s="45">
-        <v>-61.543666999999999</v>
-      </c>
-      <c r="G41" s="45">
-        <v>474</v>
+        <v>34</v>
+      </c>
+      <c r="E41" s="49">
+        <v>46.59111</v>
+      </c>
+      <c r="F41" s="49">
+        <v>0.34027800000000002</v>
+      </c>
+      <c r="G41" s="49">
+        <v>71</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="I41" s="21">
-        <v>44562</v>
+        <v>42321</v>
       </c>
       <c r="J41" s="21">
-        <v>44910</v>
+        <v>44543</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L41" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41" s="18"/>
+      <c r="L41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="52"/>
       <c r="O41" s="4" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>12</v>
@@ -4976,61 +5154,58 @@
         <v>23</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>289</v>
+        <v>24</v>
       </c>
       <c r="T41" s="4" t="s">
         <v>204</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="V41" s="4"/>
-      <c r="W41" s="7"/>
-      <c r="X41" s="6"/>
-    </row>
-    <row r="42" spans="1:24" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="37">
-        <v>41</v>
+    </row>
+    <row r="42" spans="1:24" s="73" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <f>A41+1</f>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>276</v>
+        <v>343</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>89</v>
+        <v>344</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="45">
-        <v>47.4</v>
-      </c>
-      <c r="F42" s="45">
-        <v>8.5</v>
-      </c>
-      <c r="G42" s="45">
-        <v>409</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>246</v>
+        <v>187</v>
+      </c>
+      <c r="E42" s="49">
+        <v>55.833300000000001</v>
+      </c>
+      <c r="F42" s="49">
+        <v>21.066600000000001</v>
+      </c>
+      <c r="G42" s="49">
+        <v>5</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>321</v>
       </c>
       <c r="I42" s="21">
-        <v>42613</v>
+        <v>43082</v>
       </c>
       <c r="J42" s="21">
-        <v>45118</v>
+        <v>43186</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L42" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="M42" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="N42" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="L42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N42" s="52"/>
       <c r="O42" s="4" t="s">
         <v>10</v>
       </c>
@@ -5044,49 +5219,47 @@
         <v>23</v>
       </c>
       <c r="S42" s="4" t="s">
-        <v>278</v>
+        <v>24</v>
       </c>
       <c r="T42" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="U42" s="4" t="s">
-        <v>277</v>
+      <c r="U42" s="76" t="s">
+        <v>345</v>
       </c>
       <c r="V42" s="4"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="6"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:24" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <f t="shared" ref="A42:A50" si="0">A42+1</f>
-        <v>42</v>
+        <f>A42+1</f>
+        <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>89</v>
+        <v>259</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="45">
-        <v>47.4</v>
-      </c>
-      <c r="F43" s="45">
-        <v>8.5</v>
-      </c>
-      <c r="G43" s="45">
-        <v>409</v>
+      <c r="E43" s="44">
+        <v>50.1</v>
+      </c>
+      <c r="F43" s="44">
+        <v>14.4</v>
+      </c>
+      <c r="G43" s="44">
+        <v>277</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="I43" s="21">
-        <v>42613</v>
+        <v>41080</v>
       </c>
       <c r="J43" s="21">
-        <v>45118</v>
+        <v>41409</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>7</v>
@@ -5094,14 +5267,12 @@
       <c r="L43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="M43" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="18"/>
       <c r="O43" s="4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>12</v>
@@ -5110,293 +5281,1127 @@
         <v>15</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>278</v>
+        <v>24</v>
       </c>
       <c r="T43" s="4" t="s">
         <v>204</v>
       </c>
       <c r="U43" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="V43" s="4"/>
+    </row>
+    <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <f>A43+1</f>
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="49">
+        <v>45.766669999999998</v>
+      </c>
+      <c r="F44" s="49">
+        <v>2.95</v>
+      </c>
+      <c r="G44" s="49">
+        <v>1465</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I44" s="21">
+        <v>43622</v>
+      </c>
+      <c r="J44" s="21">
+        <v>44195</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L44" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="18"/>
+      <c r="O44" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V44" s="4"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="6"/>
+    </row>
+    <row r="45" spans="1:24" s="73" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <f>A44+1</f>
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="49">
+        <v>48.089649999999999</v>
+      </c>
+      <c r="F45" s="49">
+        <v>-1.659111</v>
+      </c>
+      <c r="G45" s="49">
+        <v>45</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I45" s="21">
+        <v>43875</v>
+      </c>
+      <c r="J45" s="21">
+        <v>44457</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="52"/>
+      <c r="O45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V45" s="4"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="6"/>
+    </row>
+    <row r="46" spans="1:24" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <f>A45+1</f>
+        <v>44</v>
+      </c>
+      <c r="B46" s="70" t="s">
+        <v>347</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="49">
+        <v>55.45</v>
+      </c>
+      <c r="F46" s="49">
+        <v>26.066659999999999</v>
+      </c>
+      <c r="G46" s="67"/>
+      <c r="H46" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I46" s="21">
+        <v>41771</v>
+      </c>
+      <c r="J46" s="21">
+        <v>43642</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N46" s="52"/>
+      <c r="O46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U46" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="V46" s="4"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="6"/>
+    </row>
+    <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <f>A46+1</f>
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" s="44">
+        <v>48.71</v>
+      </c>
+      <c r="F47" s="44">
+        <v>2.15</v>
+      </c>
+      <c r="G47" s="44">
+        <v>163</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I47" s="21">
+        <v>40695</v>
+      </c>
+      <c r="J47" s="21">
+        <v>44921</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L47" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="52"/>
+      <c r="O47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T47" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="V47" s="27"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="6"/>
+    </row>
+    <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <f>A47+1</f>
+        <v>46</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="45">
+        <v>44.524444000000003</v>
+      </c>
+      <c r="F48" s="45">
+        <v>11.524444000000001</v>
+      </c>
+      <c r="G48" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="40">
+        <v>40861</v>
+      </c>
+      <c r="J48" s="40">
+        <v>42347</v>
+      </c>
+      <c r="K48" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="N48" s="53"/>
+      <c r="O48" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="P48" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q48" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R48" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="S48" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="T48" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="U48" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="V48" s="40"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="6"/>
+    </row>
+    <row r="49" spans="1:24" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <f>A48+1</f>
+        <v>47</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="45">
+        <v>48.572789999999998</v>
+      </c>
+      <c r="F49" s="45">
+        <v>7.7529972000000003</v>
+      </c>
+      <c r="G49" s="65">
+        <v>140</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I49" s="21">
+        <v>43875</v>
+      </c>
+      <c r="J49" s="21">
+        <v>44457</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="52"/>
+      <c r="O49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T49" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U49" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V49" s="40"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="6"/>
+    </row>
+    <row r="50" spans="1:24" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <f>A49+1</f>
+        <v>48</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I50" s="21">
+        <v>45982</v>
+      </c>
+      <c r="J50" s="21">
+        <v>44562</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N50" s="52"/>
+      <c r="O50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V50" s="40"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="6"/>
+    </row>
+    <row r="51" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <f>A50+1</f>
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="50">
+        <v>58.370600000000003</v>
+      </c>
+      <c r="F51" s="50">
+        <v>26.7349</v>
+      </c>
+      <c r="G51" s="49">
+        <v>39</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I51" s="21">
+        <v>42614</v>
+      </c>
+      <c r="J51" s="21">
+        <v>42940</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L51" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="T51" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V51" s="4"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="6"/>
+    </row>
+    <row r="52" spans="1:24" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <f>A51+1</f>
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="50">
+        <v>54.643332999999998</v>
+      </c>
+      <c r="F52" s="50">
+        <v>25.182777999999999</v>
+      </c>
+      <c r="G52" s="49">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I52" s="21">
+        <v>41922</v>
+      </c>
+      <c r="J52" s="21">
+        <v>42899</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L52" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="V52" s="4"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="6"/>
+    </row>
+    <row r="53" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <f>A52+1</f>
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="44">
+        <v>60.5</v>
+      </c>
+      <c r="F53" s="44">
+        <v>27.7</v>
+      </c>
+      <c r="G53" s="44">
+        <v>7</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I53" s="21">
+        <v>41075</v>
+      </c>
+      <c r="J53" s="21">
+        <v>41432</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L53" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N53" s="52"/>
+      <c r="O53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="S53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T53" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U53" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V53" s="4"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="6"/>
+    </row>
+    <row r="54" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <f>A53+1</f>
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E54" s="44">
+        <v>-64.385949999999994</v>
+      </c>
+      <c r="F54" s="44">
+        <v>-61.543666999999999</v>
+      </c>
+      <c r="G54" s="44">
+        <v>474</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I54" s="21">
+        <v>44562</v>
+      </c>
+      <c r="J54" s="21">
+        <v>44910</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L54" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="18"/>
+      <c r="O54" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V54" s="4"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="6"/>
+    </row>
+    <row r="55" spans="1:24" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <f>A54+1</f>
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="44">
+        <v>47.4</v>
+      </c>
+      <c r="F55" s="44">
+        <v>8.5</v>
+      </c>
+      <c r="G55" s="44">
+        <v>409</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I55" s="21">
+        <v>42613</v>
+      </c>
+      <c r="J55" s="21">
+        <v>45118</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L55" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="M55" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="N55" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U55" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V43" s="4"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-    </row>
-    <row r="55" spans="1:22" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="20" t="s">
+      <c r="V55" s="4"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="6"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <f>A56+1</f>
+        <v>1</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <f>A57+1</f>
+        <v>2</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <f>A58+1</f>
+        <v>3</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <f>A59+1</f>
+        <v>4</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <f>A60+1</f>
+        <v>5</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <f>A61+1</f>
+        <v>6</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <f>A62+1</f>
+        <v>7</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>348</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="68"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="20" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H56" s="57"/>
-      <c r="I56" s="24" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H69" s="55"/>
+      <c r="I69" s="24" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H57" s="59"/>
-      <c r="I57" s="24" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H70" s="57"/>
+      <c r="I70" s="24" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H58" s="60"/>
-      <c r="I58" s="24" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H71" s="58"/>
+      <c r="I71" s="24" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>33</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D74" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B62" s="16" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D75" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>179</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D76" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>117</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D77" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>173</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D78" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>231</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D79" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>293</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D80" t="s">
         <v>292</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V50">
-    <sortCondition ref="C2:C50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V63">
+    <sortCondition ref="C2:C63"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5404,11 +6409,2813 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DB0F97-FC4A-47B9-A4B5-D2BDA190657D}">
+  <dimension ref="A1:X55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="75" customWidth="1"/>
+    <col min="5" max="6" width="5.7109375" style="75" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="75"/>
+    <col min="9" max="9" width="10.7109375" style="75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="75" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="75"/>
+    <col min="14" max="14" width="6" style="75" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="44">
+        <v>50.61</v>
+      </c>
+      <c r="F2" s="44">
+        <v>3.14</v>
+      </c>
+      <c r="G2" s="44">
+        <v>70</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="21">
+        <v>42654</v>
+      </c>
+      <c r="J2" s="21">
+        <v>44196</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="U2" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="V2" s="43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="49">
+        <v>52.456000000000003</v>
+      </c>
+      <c r="F3" s="49">
+        <v>-1.929</v>
+      </c>
+      <c r="G3" s="49">
+        <v>143</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I3" s="21">
+        <v>43466</v>
+      </c>
+      <c r="J3" s="21">
+        <v>44926</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="52"/>
+      <c r="O3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V3" s="27"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A29" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="49">
+        <v>41.387500000000003</v>
+      </c>
+      <c r="F4" s="49">
+        <v>2.1180560000000002</v>
+      </c>
+      <c r="G4" s="49">
+        <v>80</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="21">
+        <v>41778</v>
+      </c>
+      <c r="J4" s="21">
+        <v>45135</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="V4" s="27"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="50">
+        <v>44.522221999999999</v>
+      </c>
+      <c r="F5" s="50">
+        <v>11.338333</v>
+      </c>
+      <c r="G5" s="49">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="61">
+        <v>40864</v>
+      </c>
+      <c r="J5" s="21">
+        <v>44391</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="52"/>
+      <c r="O5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="V5" s="27"/>
+    </row>
+    <row r="6" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="45">
+        <v>49.26</v>
+      </c>
+      <c r="F6" s="45">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="G6" s="65"/>
+      <c r="H6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I6" s="21">
+        <v>42370</v>
+      </c>
+      <c r="J6" s="21">
+        <v>44561</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U6" s="69" t="s">
+        <v>325</v>
+      </c>
+      <c r="V6" s="18"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="47">
+        <v>37.994999999999997</v>
+      </c>
+      <c r="F7" s="47">
+        <v>23.815999999999999</v>
+      </c>
+      <c r="G7" s="47">
+        <v>270</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="42">
+        <v>43049</v>
+      </c>
+      <c r="J7" s="42">
+        <v>44405</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="V7" s="18"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="50">
+        <v>53.305300000000003</v>
+      </c>
+      <c r="F8" s="50">
+        <v>-6.0512560000000004</v>
+      </c>
+      <c r="G8" s="50">
+        <v>35</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I8" s="21">
+        <v>42587</v>
+      </c>
+      <c r="J8" s="21">
+        <v>44926</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="52"/>
+      <c r="O8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="V8" s="27"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="G9" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" s="21">
+        <v>42165</v>
+      </c>
+      <c r="J9" s="21">
+        <v>43830</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="52"/>
+      <c r="O9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V9" s="27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="50">
+        <v>44.412616999999997</v>
+      </c>
+      <c r="F10" s="50">
+        <v>26.09188</v>
+      </c>
+      <c r="G10" s="50">
+        <v>93</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I10" s="21">
+        <v>42370</v>
+      </c>
+      <c r="J10" s="21">
+        <v>44783</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="52"/>
+      <c r="O10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="V10" s="27"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="45">
+        <v>50.089704670000003</v>
+      </c>
+      <c r="F11" s="45">
+        <v>19.890297</v>
+      </c>
+      <c r="G11" s="45">
+        <v>13</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I11" s="21">
+        <v>43108</v>
+      </c>
+      <c r="J11" s="21">
+        <v>43565</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="52"/>
+      <c r="O11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="V11" s="18"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="45">
+        <v>51.521000000000001</v>
+      </c>
+      <c r="F12" s="45">
+        <v>-0.2135</v>
+      </c>
+      <c r="G12" s="45">
+        <v>27</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I12" s="21">
+        <v>42331</v>
+      </c>
+      <c r="J12" s="21">
+        <v>43153</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="52"/>
+      <c r="O12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="V12" s="18"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="45">
+        <v>45.76</v>
+      </c>
+      <c r="F13" s="45">
+        <v>7.85</v>
+      </c>
+      <c r="G13" s="65"/>
+      <c r="H13" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="21">
+        <v>42074</v>
+      </c>
+      <c r="J13" s="21">
+        <v>44561</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="52"/>
+      <c r="O13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V13" s="18"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="45">
+        <v>40.456435999999997</v>
+      </c>
+      <c r="F14" s="45">
+        <v>-3.7256309999999999</v>
+      </c>
+      <c r="G14" s="45">
+        <v>669</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I14" s="21">
+        <v>43729</v>
+      </c>
+      <c r="J14" s="21">
+        <v>45291</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="52"/>
+      <c r="O14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U14" s="4"/>
+      <c r="V14" s="18"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="45">
+        <v>53.44417</v>
+      </c>
+      <c r="F15" s="45">
+        <v>-2.2144439999999999</v>
+      </c>
+      <c r="G15" s="45">
+        <v>43</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I15" s="21">
+        <v>43889</v>
+      </c>
+      <c r="J15" s="21">
+        <v>45020</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="52"/>
+      <c r="O15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V15" s="18"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="44">
+        <v>43.305233000000001</v>
+      </c>
+      <c r="F16" s="44">
+        <v>5.394692</v>
+      </c>
+      <c r="G16" s="44">
+        <v>71</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="21">
+        <v>42947</v>
+      </c>
+      <c r="J16" s="21">
+        <v>44925</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="52"/>
+      <c r="O16" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="V16" s="18"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="44">
+        <v>49.11</v>
+      </c>
+      <c r="F17" s="44">
+        <v>6.22</v>
+      </c>
+      <c r="G17" s="65"/>
+      <c r="H17" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" s="21">
+        <v>44561</v>
+      </c>
+      <c r="J17" s="21">
+        <v>44561</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="52"/>
+      <c r="O17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V17" s="18"/>
+    </row>
+    <row r="18" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="49">
+        <v>37.973439999999997</v>
+      </c>
+      <c r="F18" s="49">
+        <v>23.718084999999999</v>
+      </c>
+      <c r="G18" s="49">
+        <v>105</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="21">
+        <v>42736</v>
+      </c>
+      <c r="J18" s="21">
+        <v>44531</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="18"/>
+      <c r="O18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V18" s="27"/>
+    </row>
+    <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="49">
+        <v>48.838574000000001</v>
+      </c>
+      <c r="F19" s="49">
+        <v>2.4127130000000001</v>
+      </c>
+      <c r="G19" s="49">
+        <v>48</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19" s="21">
+        <v>44440</v>
+      </c>
+      <c r="J19" s="21">
+        <v>44561</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="52"/>
+      <c r="O19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V19" s="27"/>
+    </row>
+    <row r="20" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" s="21">
+        <v>43121</v>
+      </c>
+      <c r="J20" s="21">
+        <v>43008</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="52"/>
+      <c r="O20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V20" s="27"/>
+    </row>
+    <row r="21" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I21" s="21">
+        <v>43712</v>
+      </c>
+      <c r="J21" s="21">
+        <v>44336</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="52"/>
+      <c r="O21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V21" s="27"/>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="49">
+        <v>46.59111</v>
+      </c>
+      <c r="F22" s="49">
+        <v>0.34027800000000002</v>
+      </c>
+      <c r="G22" s="49">
+        <v>71</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I22" s="21">
+        <v>42321</v>
+      </c>
+      <c r="J22" s="21">
+        <v>44543</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="52"/>
+      <c r="O22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="44">
+        <v>50.1</v>
+      </c>
+      <c r="F23" s="44">
+        <v>14.4</v>
+      </c>
+      <c r="G23" s="44">
+        <v>277</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I23" s="21">
+        <v>41080</v>
+      </c>
+      <c r="J23" s="21">
+        <v>41409</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="18"/>
+      <c r="O23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="V23" s="4"/>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="49">
+        <v>48.089649999999999</v>
+      </c>
+      <c r="F24" s="49">
+        <v>-1.659111</v>
+      </c>
+      <c r="G24" s="49">
+        <v>45</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I24" s="21">
+        <v>43875</v>
+      </c>
+      <c r="J24" s="21">
+        <v>44457</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="52"/>
+      <c r="O24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V24" s="4"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="6"/>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" s="44">
+        <v>48.71</v>
+      </c>
+      <c r="F25" s="44">
+        <v>2.15</v>
+      </c>
+      <c r="G25" s="44">
+        <v>163</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" s="21">
+        <v>40695</v>
+      </c>
+      <c r="J25" s="21">
+        <v>44921</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="52"/>
+      <c r="O25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="V25" s="27"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="6"/>
+    </row>
+    <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="45">
+        <v>48.572789999999998</v>
+      </c>
+      <c r="F26" s="45">
+        <v>7.7529972000000003</v>
+      </c>
+      <c r="G26" s="65">
+        <v>140</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I26" s="21">
+        <v>43875</v>
+      </c>
+      <c r="J26" s="21">
+        <v>44457</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="52"/>
+      <c r="O26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V26" s="40"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="6"/>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I27" s="21">
+        <v>45982</v>
+      </c>
+      <c r="J27" s="21">
+        <v>44562</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="52"/>
+      <c r="O27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V27" s="40"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="6"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="50">
+        <v>58.370600000000003</v>
+      </c>
+      <c r="F28" s="50">
+        <v>26.7349</v>
+      </c>
+      <c r="G28" s="49">
+        <v>39</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I28" s="21">
+        <v>42614</v>
+      </c>
+      <c r="J28" s="21">
+        <v>42940</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V28" s="4"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="6"/>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="44">
+        <v>47.4</v>
+      </c>
+      <c r="F29" s="44">
+        <v>8.5</v>
+      </c>
+      <c r="G29" s="44">
+        <v>409</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I29" s="21">
+        <v>42613</v>
+      </c>
+      <c r="J29" s="21">
+        <v>45118</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V29" s="4"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="6"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="F31" s="75" t="s">
+        <v>312</v>
+      </c>
+      <c r="G31" s="75" t="s">
+        <v>315</v>
+      </c>
+      <c r="H31" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="I31" s="75" t="s">
+        <v>316</v>
+      </c>
+      <c r="J31" s="75" t="s">
+        <v>314</v>
+      </c>
+      <c r="K31" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="75" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="75">
+        <v>1</v>
+      </c>
+      <c r="B32" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="63">
+        <v>2</v>
+      </c>
+      <c r="B33" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="75">
+        <v>3</v>
+      </c>
+      <c r="B34" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="75">
+        <v>4</v>
+      </c>
+      <c r="B35" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="75"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="75">
+        <v>5</v>
+      </c>
+      <c r="B37" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="75">
+        <v>6</v>
+      </c>
+      <c r="B38" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="75">
+        <v>7</v>
+      </c>
+      <c r="B39" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="75">
+        <v>8</v>
+      </c>
+      <c r="B40" s="75" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="75">
+        <v>9</v>
+      </c>
+      <c r="B41" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="75">
+        <v>10</v>
+      </c>
+      <c r="B42" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="75">
+        <v>11</v>
+      </c>
+      <c r="B43" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="75">
+        <v>12</v>
+      </c>
+      <c r="B44" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="D44" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="63">
+        <v>13</v>
+      </c>
+      <c r="B45" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="C45" s="75" t="s">
+        <v>309</v>
+      </c>
+      <c r="D45" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="75">
+        <v>14</v>
+      </c>
+      <c r="B46" s="75" t="s">
+        <v>249</v>
+      </c>
+      <c r="C46" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="D46" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="75">
+        <v>15</v>
+      </c>
+      <c r="B47" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="C47" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="D47" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="L47" s="75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="63">
+        <v>16</v>
+      </c>
+      <c r="B48" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C48" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="63">
+        <v>17</v>
+      </c>
+      <c r="B49" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="D49" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="75">
+        <v>18</v>
+      </c>
+      <c r="B50" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="75" t="s">
+        <v>318</v>
+      </c>
+      <c r="F50" s="75" t="s">
+        <v>318</v>
+      </c>
+      <c r="G50" s="75" t="s">
+        <v>318</v>
+      </c>
+      <c r="H50" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="L50" s="75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="75">
+        <v>19</v>
+      </c>
+      <c r="B51" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="C51" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="D51" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="75">
+        <v>20</v>
+      </c>
+      <c r="B52" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="C52" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="L52" s="75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="75" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="D54" s="75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="D55" s="75" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D32:J52 K46:L46 K51:L51">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",D32)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:L52">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="L">
+      <formula>NOT(ISERROR(SEARCH("L",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F75FD5F-FB17-4033-AE03-20751F8A8BC1}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5429,13 +9236,13 @@
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="46" t="s">
         <v>151</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -5485,7 +9292,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
+      <c r="A2" s="59">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5497,13 +9304,13 @@
       <c r="D2" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="44">
         <v>50.61</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="44">
         <v>3.14</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="44">
         <v>70</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -5524,7 +9331,7 @@
       <c r="M2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="N2" s="52" t="s">
         <v>8</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -5542,18 +9349,18 @@
       <c r="S2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="65" t="s">
+      <c r="T2" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="U2" s="65" t="s">
+      <c r="U2" s="62" t="s">
         <v>303</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="43" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
+      <c r="A3" s="37">
         <f>A2+1</f>
         <v>2</v>
       </c>
@@ -5566,13 +9373,13 @@
       <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="49">
         <v>52.456000000000003</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="49">
         <v>-1.929</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="49">
         <v>143</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -5590,10 +9397,10 @@
       <c r="L3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="53"/>
+      <c r="M3" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="52"/>
       <c r="O3" s="4" t="s">
         <v>10</v>
       </c>
@@ -5618,7 +9425,7 @@
       <c r="V3" s="27"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
+      <c r="A4" s="37">
         <f t="shared" ref="A4:A21" si="0">A3+1</f>
         <v>3</v>
       </c>
@@ -5631,13 +9438,13 @@
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="49">
         <v>41.387500000000003</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="49">
         <v>2.1180560000000002</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="49">
         <v>80</v>
       </c>
       <c r="H4" s="18" t="s">
@@ -5683,7 +9490,7 @@
       <c r="V4" s="27"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="A5" s="37">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5696,19 +9503,19 @@
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="50">
         <v>44.522221999999999</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="50">
         <v>11.338333</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="49">
         <v>0</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="61">
         <v>40864</v>
       </c>
       <c r="J5" s="21">
@@ -5723,7 +9530,7 @@
       <c r="M5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="53"/>
+      <c r="N5" s="52"/>
       <c r="O5" s="4" t="s">
         <v>41</v>
       </c>
@@ -5748,7 +9555,7 @@
       <c r="V5" s="27"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="A6" s="37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5761,13 +9568,13 @@
       <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <v>35.038708</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="44">
         <v>33.057763999999999</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="44">
         <v>352</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5815,7 +9622,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="A7" s="37">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -5828,22 +9635,22 @@
       <c r="D7" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="47">
         <v>37.994999999999997</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="47">
         <v>23.815999999999999</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="47">
         <v>270</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="42">
         <v>43049</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="42">
         <v>44405</v>
       </c>
       <c r="K7" s="18" t="s">
@@ -5880,7 +9687,7 @@
       <c r="V7" s="18"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="A8" s="37">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -5893,13 +9700,13 @@
       <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="50">
         <v>53.305300000000003</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="50">
         <v>-6.0512560000000004</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="50">
         <v>35</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -5914,13 +9721,13 @@
       <c r="K8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="54" t="s">
         <v>8</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="53"/>
+      <c r="N8" s="52"/>
       <c r="O8" s="4" t="s">
         <v>10</v>
       </c>
@@ -5945,7 +9752,7 @@
       <c r="V8" s="27"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+      <c r="A9" s="37">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -5958,13 +9765,13 @@
       <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="48" t="s">
         <v>310</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -5979,13 +9786,13 @@
       <c r="K9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="53"/>
+      <c r="L9" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="52"/>
       <c r="O9" s="4" t="s">
         <v>10</v>
       </c>
@@ -6011,8 +9818,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+    <row r="10" spans="1:22" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -6025,13 +9832,13 @@
       <c r="D10" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="50">
         <v>44.412616999999997</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="50">
         <v>26.09188</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="50">
         <v>93</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -6049,10 +9856,10 @@
       <c r="L10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="53"/>
+      <c r="M10" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="52"/>
       <c r="O10" s="4" t="s">
         <v>10</v>
       </c>
@@ -6077,7 +9884,7 @@
       <c r="V10" s="27"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="A11" s="37">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -6090,13 +9897,13 @@
       <c r="D11" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="45">
         <v>50.089704670000003</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="45">
         <v>19.890297</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="45">
         <v>13</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -6117,7 +9924,7 @@
       <c r="M11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="53"/>
+      <c r="N11" s="52"/>
       <c r="O11" s="4" t="s">
         <v>10</v>
       </c>
@@ -6142,7 +9949,7 @@
       <c r="V11" s="18"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="A12" s="37">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -6155,13 +9962,13 @@
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <v>51.52</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="45">
         <v>-0.154611</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="45">
         <v>39</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -6182,7 +9989,7 @@
       <c r="M12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="53"/>
+      <c r="N12" s="52"/>
       <c r="O12" s="4" t="s">
         <v>10</v>
       </c>
@@ -6207,7 +10014,7 @@
       <c r="V12" s="18"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="A13" s="37">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -6220,13 +10027,13 @@
       <c r="D13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="45">
         <v>51.521000000000001</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="45">
         <v>-0.2135</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="45">
         <v>27</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -6247,7 +10054,7 @@
       <c r="M13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="53"/>
+      <c r="N13" s="52"/>
       <c r="O13" s="4" t="s">
         <v>10</v>
       </c>
@@ -6272,7 +10079,7 @@
       <c r="V13" s="18"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="A14" s="37">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -6285,13 +10092,13 @@
       <c r="D14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>40.456435999999997</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="45">
         <v>-3.7256309999999999</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="45">
         <v>669</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -6312,7 +10119,7 @@
       <c r="M14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="53"/>
+      <c r="N14" s="52"/>
       <c r="O14" s="4" t="s">
         <v>10</v>
       </c>
@@ -6335,7 +10142,7 @@
       <c r="V14" s="18"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="A15" s="37">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -6348,13 +10155,13 @@
       <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="45">
         <v>53.44417</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="45">
         <v>-2.2144439999999999</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="45">
         <v>43</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -6369,13 +10176,13 @@
       <c r="K15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="53"/>
+      <c r="L15" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="52"/>
       <c r="O15" s="4" t="s">
         <v>10</v>
       </c>
@@ -6400,7 +10207,7 @@
       <c r="V15" s="18"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="A16" s="37">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -6413,13 +10220,13 @@
       <c r="D16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="44">
         <v>43.305233000000001</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="44">
         <v>5.394692</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="44">
         <v>71</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -6440,7 +10247,7 @@
       <c r="M16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="53"/>
+      <c r="N16" s="52"/>
       <c r="O16" s="4" t="s">
         <v>202</v>
       </c>
@@ -6465,7 +10272,7 @@
       <c r="V16" s="18"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="A17" s="37">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -6478,13 +10285,13 @@
       <c r="D17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="49">
         <v>37.973439999999997</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="49">
         <v>23.718084999999999</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="49">
         <v>105</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -6502,7 +10309,7 @@
       <c r="L17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="55" t="s">
+      <c r="M17" s="54" t="s">
         <v>8</v>
       </c>
       <c r="N17" s="18"/>
@@ -6530,7 +10337,7 @@
       <c r="V17" s="27"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="A18" s="37">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -6543,13 +10350,13 @@
       <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="44">
         <v>50.1</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="44">
         <v>14.4</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="44">
         <v>277</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -6567,7 +10374,7 @@
       <c r="L18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="55" t="s">
+      <c r="M18" s="54" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="18"/>
@@ -6595,7 +10402,7 @@
       <c r="V18" s="4"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+      <c r="A19" s="37">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -6608,13 +10415,13 @@
       <c r="D19" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="44">
         <v>48.71</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="44">
         <v>2.15</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="44">
         <v>163</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -6629,13 +10436,13 @@
       <c r="K19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="53"/>
+      <c r="L19" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="52"/>
       <c r="O19" s="4" t="s">
         <v>10</v>
       </c>
@@ -6660,7 +10467,7 @@
       <c r="V19" s="27"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+      <c r="A20" s="37">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -6673,13 +10480,13 @@
       <c r="D20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="50">
         <v>58.370600000000003</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="50">
         <v>26.7349</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="48">
         <v>39</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -6694,7 +10501,7 @@
       <c r="K20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="55" t="s">
+      <c r="L20" s="54" t="s">
         <v>8</v>
       </c>
       <c r="M20" s="4" t="s">
@@ -6727,7 +10534,7 @@
       <c r="V20" s="4"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+      <c r="A21" s="37">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -6740,13 +10547,13 @@
       <c r="D21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="44">
         <v>47.4</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="44">
         <v>8.5</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="44">
         <v>409</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -6761,10 +10568,10 @@
       <c r="K21" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="63" t="s">
+      <c r="L21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="60" t="s">
         <v>7</v>
       </c>
       <c r="N21" s="18" t="s">
@@ -6870,7 +10677,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="67">
+      <c r="A25" s="63">
         <v>2</v>
       </c>
       <c r="B25" t="s">
@@ -7288,7 +11095,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="67">
+      <c r="A36" s="63">
         <v>13</v>
       </c>
       <c r="B36" t="s">
@@ -7402,7 +11209,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="67">
+      <c r="A39" s="63">
         <v>16</v>
       </c>
       <c r="B39" t="s">
@@ -7440,7 +11247,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="67">
+      <c r="A40" s="63">
         <v>17</v>
       </c>
       <c r="B40" t="s">
@@ -7593,10 +11400,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D24:J43 F37:L37 H42:L42">
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D24)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -7611,14 +11418,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:L43">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="L">
+      <formula>NOT(ISERROR(SEARCH("L",D24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="L">
-      <formula>NOT(ISERROR(SEARCH("L",D24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7626,7 +11433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAECC9E8-07B8-43E6-AF50-264301188E83}">
   <dimension ref="A2:J10"/>
   <sheetViews>
@@ -7905,7 +11712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C78A47A-00B8-4862-88C2-60A2D23E5951}">
   <dimension ref="A1:L24"/>
   <sheetViews>
@@ -7945,10 +11752,10 @@
       <c r="H2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="66"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="14" t="s">
         <v>100</v>
       </c>
@@ -8787,7 +12594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95676D4-1698-4223-8BFC-C0F047ADFBB0}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Data/Sites_overview.xlsx
+++ b/Data/Sites_overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\GitHub\EU_Overview\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5367CE2-41BB-4962-A720-4DED6A00D7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65543DD9-E004-437D-BD18-6D9B77731298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13770" yWindow="45" windowWidth="14865" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="355">
   <si>
     <t>Site</t>
   </si>
@@ -1154,6 +1154,12 @@
   </si>
   <si>
     <t>MET</t>
+  </si>
+  <si>
+    <t>Hyytiala</t>
+  </si>
+  <si>
+    <t>Heikkinen et al. (2020)</t>
   </si>
 </sst>
 </file>
@@ -2469,11 +2475,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X80"/>
+  <dimension ref="A1:X81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:V56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5560,135 +5566,135 @@
       <c r="W47" s="7"/>
       <c r="X47" s="6"/>
     </row>
-    <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" s="75" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f>A47+1</f>
         <v>46</v>
       </c>
-      <c r="B48" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="D48" s="39" t="s">
+      <c r="B48" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="45">
-        <v>44.524444000000003</v>
-      </c>
-      <c r="F48" s="45">
-        <v>11.524444000000001</v>
-      </c>
-      <c r="G48" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="H48" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="I48" s="40">
-        <v>40861</v>
-      </c>
-      <c r="J48" s="40">
-        <v>42347</v>
-      </c>
-      <c r="K48" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L48" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="N48" s="53"/>
-      <c r="O48" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="P48" s="40" t="s">
+      <c r="E48" s="44">
+        <v>61.85</v>
+      </c>
+      <c r="F48" s="44">
+        <v>24.28</v>
+      </c>
+      <c r="G48" s="44">
+        <v>181</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I48" s="21">
+        <v>40909</v>
+      </c>
+      <c r="J48" s="21">
+        <v>43726</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="N48" s="52"/>
+      <c r="O48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P48" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q48" s="40" t="s">
+      <c r="Q48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R48" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="S48" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="T48" s="39" t="s">
+      <c r="R48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="T48" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="U48" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="V48" s="40"/>
+      <c r="U48" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="V48" s="27"/>
       <c r="W48" s="7"/>
       <c r="X48" s="6"/>
     </row>
-    <row r="49" spans="1:24" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <f>A48+1</f>
+        <f t="shared" ref="A49:A56" si="0">A48+1</f>
         <v>47</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>340</v>
+        <v>266</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E49" s="45">
-        <v>48.572789999999998</v>
+        <v>44.524444000000003</v>
       </c>
       <c r="F49" s="45">
-        <v>7.7529972000000003</v>
-      </c>
-      <c r="G49" s="65">
-        <v>140</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I49" s="21">
-        <v>43875</v>
-      </c>
-      <c r="J49" s="21">
-        <v>44457</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49" s="52"/>
-      <c r="O49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P49" s="4" t="s">
+        <v>11.524444000000001</v>
+      </c>
+      <c r="G49" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="40">
+        <v>40861</v>
+      </c>
+      <c r="J49" s="40">
+        <v>42347</v>
+      </c>
+      <c r="K49" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L49" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="N49" s="53"/>
+      <c r="O49" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="P49" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="Q49" s="4" t="s">
+      <c r="Q49" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="R49" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S49" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T49" s="4" t="s">
+      <c r="R49" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="S49" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="T49" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="U49" s="4" t="s">
-        <v>328</v>
+      <c r="U49" s="40" t="s">
+        <v>269</v>
       </c>
       <c r="V49" s="40"/>
       <c r="W49" s="7"/>
@@ -5696,29 +5702,35 @@
     </row>
     <row r="50" spans="1:24" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <f>A49+1</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D50" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
+      <c r="E50" s="45">
+        <v>48.572789999999998</v>
+      </c>
+      <c r="F50" s="45">
+        <v>7.7529972000000003</v>
+      </c>
+      <c r="G50" s="65">
+        <v>140</v>
+      </c>
       <c r="H50" s="4" t="s">
         <v>180</v>
       </c>
       <c r="I50" s="21">
-        <v>45982</v>
+        <v>43875</v>
       </c>
       <c r="J50" s="21">
-        <v>44562</v>
+        <v>44457</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>7</v>
@@ -5755,50 +5767,42 @@
       <c r="W50" s="7"/>
       <c r="X50" s="6"/>
     </row>
-    <row r="51" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <f>A50+1</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="B51" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D51" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="50">
-        <v>58.370600000000003</v>
-      </c>
-      <c r="F51" s="50">
-        <v>26.7349</v>
-      </c>
-      <c r="G51" s="49">
-        <v>39</v>
-      </c>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
       <c r="H51" s="4" t="s">
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="I51" s="21">
-        <v>42614</v>
+        <v>45982</v>
       </c>
       <c r="J51" s="21">
-        <v>42940</v>
+        <v>44562</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L51" s="54" t="s">
+      <c r="L51" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="N51" s="52"/>
       <c r="O51" s="4" t="s">
         <v>10</v>
       </c>
@@ -5812,61 +5816,61 @@
         <v>23</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c r="T51" s="4" t="s">
         <v>204</v>
       </c>
       <c r="U51" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="V51" s="4"/>
+        <v>328</v>
+      </c>
+      <c r="V51" s="40"/>
       <c r="W51" s="7"/>
       <c r="X51" s="6"/>
     </row>
-    <row r="52" spans="1:24" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <f>A51+1</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E52" s="50">
-        <v>54.643332999999998</v>
+        <v>58.370600000000003</v>
       </c>
       <c r="F52" s="50">
-        <v>25.182777999999999</v>
+        <v>26.7349</v>
       </c>
       <c r="G52" s="49">
-        <v>162.30000000000001</v>
+        <v>39</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="I52" s="21">
-        <v>41922</v>
+        <v>42614</v>
       </c>
       <c r="J52" s="21">
-        <v>42899</v>
+        <v>42940</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L52" s="60" t="s">
-        <v>7</v>
+      <c r="L52" s="54" t="s">
+        <v>8</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>7</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>10</v>
@@ -5881,60 +5885,62 @@
         <v>23</v>
       </c>
       <c r="S52" s="4" t="s">
-        <v>24</v>
+        <v>215</v>
       </c>
       <c r="T52" s="4" t="s">
         <v>204</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="V52" s="4"/>
       <c r="W52" s="7"/>
       <c r="X52" s="6"/>
     </row>
-    <row r="53" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <f>A52+1</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>87</v>
+        <v>319</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="44">
-        <v>60.5</v>
-      </c>
-      <c r="F53" s="44">
-        <v>27.7</v>
-      </c>
-      <c r="G53" s="44">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="E53" s="50">
+        <v>54.643332999999998</v>
+      </c>
+      <c r="F53" s="50">
+        <v>25.182777999999999</v>
+      </c>
+      <c r="G53" s="49">
+        <v>162.30000000000001</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>153</v>
+        <v>321</v>
       </c>
       <c r="I53" s="21">
-        <v>41075</v>
+        <v>41922</v>
       </c>
       <c r="J53" s="21">
-        <v>41432</v>
+        <v>42899</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L53" s="54" t="s">
-        <v>8</v>
+      <c r="L53" s="60" t="s">
+        <v>7</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N53" s="52"/>
+        <v>7</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="O53" s="4" t="s">
         <v>10</v>
       </c>
@@ -5945,7 +5951,7 @@
         <v>15</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="S53" s="4" t="s">
         <v>24</v>
@@ -5954,7 +5960,7 @@
         <v>204</v>
       </c>
       <c r="U53" s="4" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="V53" s="4"/>
       <c r="W53" s="7"/>
@@ -5962,35 +5968,35 @@
     </row>
     <row r="54" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <f>A53+1</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>291</v>
+        <v>87</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>292</v>
+        <v>32</v>
       </c>
       <c r="E54" s="44">
-        <v>-64.385949999999994</v>
+        <v>60.5</v>
       </c>
       <c r="F54" s="44">
-        <v>-61.543666999999999</v>
+        <v>27.7</v>
       </c>
       <c r="G54" s="44">
-        <v>474</v>
+        <v>7</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="I54" s="21">
-        <v>44562</v>
+        <v>41075</v>
       </c>
       <c r="J54" s="21">
-        <v>44910</v>
+        <v>41432</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>7</v>
@@ -5998,12 +6004,12 @@
       <c r="L54" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="M54" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" s="18"/>
+      <c r="M54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="52"/>
       <c r="O54" s="4" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>12</v>
@@ -6012,10 +6018,10 @@
         <v>15</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="S54" s="4" t="s">
-        <v>289</v>
+        <v>24</v>
       </c>
       <c r="T54" s="4" t="s">
         <v>204</v>
@@ -6027,52 +6033,50 @@
       <c r="W54" s="7"/>
       <c r="X54" s="6"/>
     </row>
-    <row r="55" spans="1:24" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <f>A54+1</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>89</v>
+        <v>291</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="E55" s="44">
-        <v>47.4</v>
+        <v>-64.385949999999994</v>
       </c>
       <c r="F55" s="44">
-        <v>8.5</v>
+        <v>-61.543666999999999</v>
       </c>
       <c r="G55" s="44">
-        <v>409</v>
+        <v>474</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="I55" s="21">
-        <v>42613</v>
+        <v>44562</v>
       </c>
       <c r="J55" s="21">
-        <v>45118</v>
+        <v>44910</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L55" s="54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M55" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="N55" s="18" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="N55" s="18"/>
       <c r="O55" s="4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>12</v>
@@ -6084,56 +6088,98 @@
         <v>23</v>
       </c>
       <c r="S55" s="4" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="T55" s="4" t="s">
         <v>204</v>
       </c>
       <c r="U55" s="4" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="V55" s="4"/>
       <c r="W55" s="7"/>
       <c r="X55" s="6"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
+    <row r="56" spans="1:24" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="44">
+        <v>47.4</v>
+      </c>
+      <c r="F56" s="44">
+        <v>8.5</v>
+      </c>
+      <c r="G56" s="44">
+        <v>409</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I56" s="21">
+        <v>42613</v>
+      </c>
+      <c r="J56" s="21">
+        <v>45118</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L56" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="M56" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="N56" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="T56" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U56" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="V56" s="4"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="6"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <f>A56+1</f>
-        <v>1</v>
-      </c>
-      <c r="B57" s="1"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="72"/>
       <c r="C57" s="1"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
@@ -6150,7 +6196,7 @@
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f>A57+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -6177,7 +6223,7 @@
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f>A58+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -6204,7 +6250,7 @@
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f>A59+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -6231,7 +6277,7 @@
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f>A60+1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -6258,7 +6304,7 @@
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f>A61+1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -6285,7 +6331,7 @@
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f>A62+1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -6309,99 +6355,126 @@
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <f>A63+1</f>
+        <v>7</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>348</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="68"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="20" t="s">
+    <row r="69" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="68"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="20" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H69" s="55"/>
-      <c r="I69" s="24" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H70" s="55"/>
+      <c r="I70" s="24" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H70" s="57"/>
-      <c r="I70" s="24" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H71" s="57"/>
+      <c r="I71" s="24" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H71" s="58"/>
-      <c r="I71" s="24" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H72" s="58"/>
+      <c r="I72" s="24" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>33</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="16" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>179</v>
-      </c>
-      <c r="D76" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="D77" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="D78" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>231</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>293</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>292</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V63">
-    <sortCondition ref="C2:C63"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V64">
+    <sortCondition ref="C2:C64"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data/Sites_overview.xlsx
+++ b/Data/Sites_overview.xlsx
@@ -8,18 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\GitHub\EU_Overview\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65543DD9-E004-437D-BD18-6D9B77731298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB92C0ED-D405-48CA-B0F0-915DCF805ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13770" yWindow="45" windowWidth="14865" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
     <sheet name="All (2)" sheetId="7" r:id="rId2"/>
-    <sheet name="Selected_I" sheetId="6" r:id="rId3"/>
-    <sheet name="PMF_outputs" sheetId="3" r:id="rId4"/>
-    <sheet name="Bressi" sheetId="4" r:id="rId5"/>
-    <sheet name="Chen" sheetId="5" r:id="rId6"/>
+    <sheet name="Selected_old" sheetId="6" r:id="rId3"/>
+    <sheet name="Selected" sheetId="8" r:id="rId4"/>
+    <sheet name="PMF_outputs" sheetId="3" r:id="rId5"/>
+    <sheet name="Bressi" sheetId="4" r:id="rId6"/>
+    <sheet name="Chen" sheetId="5" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Selected!$D$1:$D$39</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="355">
   <si>
     <t>Site</t>
   </si>
@@ -1997,9 +2001,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2024,6 +2025,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2477,14 +2481,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:V56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
@@ -2634,7 +2638,7 @@
     </row>
     <row r="3" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A30" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2699,7 +2703,7 @@
     </row>
     <row r="4" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f>A3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2764,7 +2768,7 @@
     </row>
     <row r="5" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2831,7 +2835,7 @@
     </row>
     <row r="6" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2896,7 +2900,7 @@
     </row>
     <row r="7" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2963,7 +2967,7 @@
     </row>
     <row r="8" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3028,7 +3032,7 @@
     </row>
     <row r="9" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3093,9 +3097,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="72" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="71" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3113,7 +3117,7 @@
       <c r="F10" s="45">
         <v>2.4700000000000002</v>
       </c>
-      <c r="G10" s="65"/>
+      <c r="G10" s="64"/>
       <c r="H10" s="4" t="s">
         <v>180</v>
       </c>
@@ -3153,14 +3157,14 @@
       <c r="T10" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="U10" s="69" t="s">
+      <c r="U10" s="68" t="s">
         <v>325</v>
       </c>
       <c r="V10" s="18"/>
     </row>
     <row r="11" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3227,7 +3231,7 @@
     </row>
     <row r="12" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3292,7 +3296,7 @@
     </row>
     <row r="13" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3357,7 +3361,7 @@
     </row>
     <row r="14" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3422,7 +3426,7 @@
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3487,7 +3491,7 @@
     </row>
     <row r="16" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f>A15+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3499,14 +3503,14 @@
       <c r="D16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="67" t="s">
-        <v>310</v>
-      </c>
-      <c r="F16" s="67" t="s">
-        <v>310</v>
-      </c>
-      <c r="G16" s="67" t="s">
-        <v>310</v>
+      <c r="E16" s="49">
+        <v>60.196300000000001</v>
+      </c>
+      <c r="F16" s="49">
+        <v>24.952200000000001</v>
+      </c>
+      <c r="G16" s="49">
+        <v>25</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>153</v>
@@ -3554,7 +3558,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f>A16+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3621,7 +3625,7 @@
     </row>
     <row r="18" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f>A17+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3686,7 +3690,7 @@
     </row>
     <row r="19" spans="1:22" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f>A18+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3751,7 +3755,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f>A19+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3818,7 +3822,7 @@
     </row>
     <row r="21" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f>A20+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -3885,7 +3889,7 @@
     </row>
     <row r="22" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f>A21+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3950,7 +3954,7 @@
     </row>
     <row r="23" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f>A22+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -4015,7 +4019,7 @@
     </row>
     <row r="24" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f>A23+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -4078,9 +4082,9 @@
       </c>
       <c r="V24" s="18"/>
     </row>
-    <row r="25" spans="1:22" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -4098,7 +4102,7 @@
       <c r="F25" s="45">
         <v>7.85</v>
       </c>
-      <c r="G25" s="65"/>
+      <c r="G25" s="64"/>
       <c r="H25" s="4" t="s">
         <v>180</v>
       </c>
@@ -4143,7 +4147,7 @@
     </row>
     <row r="26" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f>A25+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -4206,7 +4210,7 @@
     </row>
     <row r="27" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f>A26+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -4271,7 +4275,7 @@
     </row>
     <row r="28" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f>A27+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -4336,7 +4340,7 @@
     </row>
     <row r="29" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f>A28+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -4401,7 +4405,7 @@
     </row>
     <row r="30" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f>A29+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -4466,7 +4470,7 @@
       </c>
       <c r="V30" s="18"/>
     </row>
-    <row r="31" spans="1:22" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4485,7 +4489,7 @@
       <c r="F31" s="44">
         <v>6.22</v>
       </c>
-      <c r="G31" s="65"/>
+      <c r="G31" s="64"/>
       <c r="H31" s="4" t="s">
         <v>180</v>
       </c>
@@ -4595,7 +4599,7 @@
     </row>
     <row r="33" spans="1:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f>A32+1</f>
+        <f t="shared" ref="A33:A48" si="1">A32+1</f>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -4660,7 +4664,7 @@
     </row>
     <row r="34" spans="1:24" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f>A33+1</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -4727,7 +4731,7 @@
     </row>
     <row r="35" spans="1:24" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f>A34+1</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -4792,7 +4796,7 @@
     </row>
     <row r="36" spans="1:24" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f>A35+1</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -4855,9 +4859,9 @@
       </c>
       <c r="V36" s="27"/>
     </row>
-    <row r="37" spans="1:24" s="73" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" s="72" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f>A36+1</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -4920,9 +4924,9 @@
       </c>
       <c r="V37" s="27"/>
     </row>
-    <row r="38" spans="1:24" s="73" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" s="72" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f>A37+1</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -4934,9 +4938,9 @@
       <c r="D38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
       <c r="H38" s="4" t="s">
         <v>180</v>
       </c>
@@ -4979,9 +4983,9 @@
       </c>
       <c r="V38" s="27"/>
     </row>
-    <row r="39" spans="1:24" s="73" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" s="72" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <f>A38+1</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -4993,9 +4997,9 @@
       <c r="D39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
       <c r="H39" s="4" t="s">
         <v>180</v>
       </c>
@@ -5040,7 +5044,7 @@
     </row>
     <row r="40" spans="1:24" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <f>A39+1</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -5105,9 +5109,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" s="72" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <f>A40+1</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -5170,9 +5174,9 @@
       </c>
       <c r="V41" s="4"/>
     </row>
-    <row r="42" spans="1:24" s="73" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" s="72" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <f>A41+1</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -5230,14 +5234,14 @@
       <c r="T42" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="U42" s="76" t="s">
+      <c r="U42" s="75" t="s">
         <v>345</v>
       </c>
       <c r="V42" s="4"/>
     </row>
     <row r="43" spans="1:24" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <f>A42+1</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -5302,7 +5306,7 @@
     </row>
     <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <f>A43+1</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -5367,9 +5371,9 @@
       <c r="W44" s="7"/>
       <c r="X44" s="6"/>
     </row>
-    <row r="45" spans="1:24" s="73" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" s="72" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <f>A44+1</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -5434,12 +5438,12 @@
       <c r="W45" s="7"/>
       <c r="X45" s="6"/>
     </row>
-    <row r="46" spans="1:24" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" s="73" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <f>A45+1</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="70" t="s">
+      <c r="B46" s="69" t="s">
         <v>347</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -5454,7 +5458,7 @@
       <c r="F46" s="49">
         <v>26.066659999999999</v>
       </c>
-      <c r="G46" s="67"/>
+      <c r="G46" s="66"/>
       <c r="H46" s="4" t="s">
         <v>321</v>
       </c>
@@ -5492,7 +5496,7 @@
       <c r="T46" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="U46" s="71" t="s">
+      <c r="U46" s="70" t="s">
         <v>350</v>
       </c>
       <c r="V46" s="4"/>
@@ -5501,7 +5505,7 @@
     </row>
     <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <f>A46+1</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -5566,9 +5570,9 @@
       <c r="W47" s="7"/>
       <c r="X47" s="6"/>
     </row>
-    <row r="48" spans="1:24" s="75" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <f>A47+1</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -5635,7 +5639,7 @@
     </row>
     <row r="49" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <f t="shared" ref="A49:A56" si="0">A48+1</f>
+        <f t="shared" ref="A49:A56" si="2">A48+1</f>
         <v>47</v>
       </c>
       <c r="B49" s="38" t="s">
@@ -5700,9 +5704,9 @@
       <c r="W49" s="7"/>
       <c r="X49" s="6"/>
     </row>
-    <row r="50" spans="1:24" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="B50" s="38" t="s">
@@ -5720,7 +5724,7 @@
       <c r="F50" s="45">
         <v>7.7529972000000003</v>
       </c>
-      <c r="G50" s="65">
+      <c r="G50" s="64">
         <v>140</v>
       </c>
       <c r="H50" s="4" t="s">
@@ -5767,9 +5771,9 @@
       <c r="W50" s="7"/>
       <c r="X50" s="6"/>
     </row>
-    <row r="51" spans="1:24" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B51" s="38" t="s">
@@ -5781,9 +5785,9 @@
       <c r="D51" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
       <c r="H51" s="4" t="s">
         <v>180</v>
       </c>
@@ -5830,7 +5834,7 @@
     </row>
     <row r="52" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -5897,9 +5901,9 @@
       <c r="W52" s="7"/>
       <c r="X52" s="6"/>
     </row>
-    <row r="53" spans="1:24" s="72" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" s="71" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -5968,7 +5972,7 @@
     </row>
     <row r="54" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -6035,7 +6039,7 @@
     </row>
     <row r="55" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -6102,7 +6106,7 @@
     </row>
     <row r="56" spans="1:24" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -6171,7 +6175,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="72"/>
+      <c r="B57" s="71"/>
       <c r="C57" s="1"/>
       <c r="D57" s="4"/>
       <c r="E57" s="44"/>
@@ -6195,7 +6199,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <f>A57+1</f>
+        <f t="shared" ref="A58:A64" si="3">A57+1</f>
         <v>1</v>
       </c>
       <c r="B58" s="1"/>
@@ -6222,7 +6226,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <f>A58+1</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B59" s="1"/>
@@ -6249,7 +6253,7 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <f>A59+1</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B60" s="1"/>
@@ -6276,7 +6280,7 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <f>A60+1</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B61" s="1"/>
@@ -6303,7 +6307,7 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <f>A61+1</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B62" s="1"/>
@@ -6330,7 +6334,7 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <f>A62+1</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B63" s="1"/>
@@ -6357,7 +6361,7 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <f>A63+1</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B64" s="1"/>
@@ -6391,7 +6395,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="68"/>
+      <c r="A69" s="67"/>
       <c r="G69" s="20"/>
       <c r="H69" s="56"/>
       <c r="I69" s="20" t="s">
@@ -6492,18 +6496,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="75" customWidth="1"/>
-    <col min="5" max="6" width="5.7109375" style="75" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="75"/>
-    <col min="9" max="9" width="10.7109375" style="75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="75" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="75"/>
-    <col min="14" max="14" width="6" style="75" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="75"/>
+    <col min="1" max="1" width="3" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="74" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="74" customWidth="1"/>
+    <col min="5" max="6" width="5.7109375" style="74" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="74" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="74"/>
+    <col min="9" max="9" width="10.7109375" style="74" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="74" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="74"/>
+    <col min="14" max="14" width="6" style="74" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -6857,7 +6861,7 @@
       <c r="F6" s="45">
         <v>2.4700000000000002</v>
       </c>
-      <c r="G6" s="65"/>
+      <c r="G6" s="64"/>
       <c r="H6" s="4" t="s">
         <v>180</v>
       </c>
@@ -6897,7 +6901,7 @@
       <c r="T6" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="68" t="s">
         <v>325</v>
       </c>
       <c r="V6" s="18"/>
@@ -7046,13 +7050,13 @@
       <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="66" t="s">
         <v>310</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="66" t="s">
         <v>310</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="66" t="s">
         <v>310</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -7314,7 +7318,7 @@
       <c r="F13" s="45">
         <v>7.85</v>
       </c>
-      <c r="G13" s="65"/>
+      <c r="G13" s="64"/>
       <c r="H13" s="4" t="s">
         <v>180</v>
       </c>
@@ -7570,7 +7574,7 @@
       <c r="F17" s="44">
         <v>6.22</v>
       </c>
-      <c r="G17" s="65"/>
+      <c r="G17" s="64"/>
       <c r="H17" s="4" t="s">
         <v>180</v>
       </c>
@@ -7757,9 +7761,9 @@
       <c r="D20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
       <c r="H20" s="4" t="s">
         <v>180</v>
       </c>
@@ -7816,9 +7820,9 @@
       <c r="D21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
       <c r="H21" s="4" t="s">
         <v>180</v>
       </c>
@@ -8145,7 +8149,7 @@
       <c r="F26" s="45">
         <v>7.7529972000000003</v>
       </c>
-      <c r="G26" s="65">
+      <c r="G26" s="64">
         <v>140</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -8206,9 +8210,9 @@
       <c r="D27" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
       <c r="H27" s="4" t="s">
         <v>180</v>
       </c>
@@ -8415,78 +8419,78 @@
       <c r="V30" s="4"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="75" t="s">
+      <c r="D31" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="75" t="s">
+      <c r="E31" s="74" t="s">
         <v>311</v>
       </c>
-      <c r="F31" s="75" t="s">
+      <c r="F31" s="74" t="s">
         <v>312</v>
       </c>
-      <c r="G31" s="75" t="s">
+      <c r="G31" s="74" t="s">
         <v>315</v>
       </c>
-      <c r="H31" s="75" t="s">
+      <c r="H31" s="74" t="s">
         <v>313</v>
       </c>
-      <c r="I31" s="75" t="s">
+      <c r="I31" s="74" t="s">
         <v>316</v>
       </c>
-      <c r="J31" s="75" t="s">
+      <c r="J31" s="74" t="s">
         <v>314</v>
       </c>
-      <c r="K31" s="75" t="s">
+      <c r="K31" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="L31" s="75" t="s">
+      <c r="L31" s="74" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="75">
+      <c r="A32" s="74">
         <v>1</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="75" t="s">
+      <c r="D32" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="74" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8494,10 +8498,10 @@
       <c r="A33" s="63">
         <v>2</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="74" t="s">
         <v>210</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="74" t="s">
         <v>211</v>
       </c>
       <c r="D33" s="9" t="s">
@@ -8529,13 +8533,13 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="75">
+      <c r="A34" s="74">
         <v>3</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="74" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -8567,13 +8571,13 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="75">
+      <c r="A35" s="74">
         <v>4</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="74" t="s">
         <v>161</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -8605,7 +8609,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="75"/>
+      <c r="A36" s="74"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -8617,13 +8621,13 @@
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="75">
+      <c r="A37" s="74">
         <v>5</v>
       </c>
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="74" t="s">
         <v>165</v>
       </c>
       <c r="D37" s="9" t="s">
@@ -8638,16 +8642,16 @@
       <c r="G37" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="K37" s="75" t="s">
+      <c r="H37" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="74" t="s">
         <v>8</v>
       </c>
       <c r="L37" s="9" t="s">
@@ -8655,13 +8659,13 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="75">
+      <c r="A38" s="74">
         <v>6</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="74" t="s">
         <v>201</v>
       </c>
       <c r="D38" s="9" t="s">
@@ -8685,7 +8689,7 @@
       <c r="J38" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="75" t="s">
+      <c r="K38" s="74" t="s">
         <v>8</v>
       </c>
       <c r="L38" s="9" t="s">
@@ -8693,13 +8697,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="75">
-        <v>7</v>
-      </c>
-      <c r="B39" s="75" t="s">
+      <c r="A39" s="74">
+        <v>7</v>
+      </c>
+      <c r="B39" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="74" t="s">
         <v>222</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -8731,13 +8735,13 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="75">
-        <v>8</v>
-      </c>
-      <c r="B40" s="75" t="s">
+      <c r="A40" s="74">
+        <v>8</v>
+      </c>
+      <c r="B40" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="74" t="s">
         <v>230</v>
       </c>
       <c r="D40" s="9" t="s">
@@ -8769,13 +8773,13 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="75">
+      <c r="A41" s="74">
         <v>9</v>
       </c>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="74" t="s">
         <v>189</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -8807,63 +8811,63 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="75">
+      <c r="A42" s="74">
         <v>10</v>
       </c>
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="C42" s="75" t="s">
+      <c r="C42" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="D42" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="75" t="s">
+      <c r="D42" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="74" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="75">
+      <c r="A43" s="74">
         <v>11</v>
       </c>
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="74" t="s">
         <v>238</v>
       </c>
-      <c r="C43" s="75" t="s">
+      <c r="C43" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="D43" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="75" t="s">
+      <c r="D43" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="74" t="s">
         <v>7</v>
       </c>
       <c r="H43" s="9" t="s">
@@ -8883,25 +8887,25 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="75">
+      <c r="A44" s="74">
         <v>12</v>
       </c>
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="74" t="s">
         <v>240</v>
       </c>
-      <c r="C44" s="75" t="s">
+      <c r="C44" s="74" t="s">
         <v>241</v>
       </c>
-      <c r="D44" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="75" t="s">
+      <c r="D44" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="74" t="s">
         <v>7</v>
       </c>
       <c r="H44" s="9" t="s">
@@ -8924,113 +8928,113 @@
       <c r="A45" s="63">
         <v>13</v>
       </c>
-      <c r="B45" s="75" t="s">
+      <c r="B45" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="C45" s="75" t="s">
+      <c r="C45" s="74" t="s">
         <v>309</v>
       </c>
-      <c r="D45" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="J45" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="K45" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="75" t="s">
+      <c r="D45" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="74" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="75">
+      <c r="A46" s="74">
         <v>14</v>
       </c>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="D46" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="75" t="s">
+      <c r="D46" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="74" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="75">
+      <c r="A47" s="74">
         <v>15</v>
       </c>
-      <c r="B47" s="75" t="s">
+      <c r="B47" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="75" t="s">
+      <c r="C47" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="D47" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="J47" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="K47" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="L47" s="75" t="s">
+      <c r="D47" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="L47" s="74" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9038,37 +9042,37 @@
       <c r="A48" s="63">
         <v>16</v>
       </c>
-      <c r="B48" s="75" t="s">
+      <c r="B48" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="C48" s="75" t="s">
+      <c r="C48" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="D48" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="J48" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="K48" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="75" t="s">
+      <c r="D48" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="74" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9076,175 +9080,175 @@
       <c r="A49" s="63">
         <v>17</v>
       </c>
-      <c r="B49" s="75" t="s">
+      <c r="B49" s="74" t="s">
         <v>258</v>
       </c>
-      <c r="C49" s="75" t="s">
+      <c r="C49" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="D49" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="J49" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="75" t="s">
+      <c r="D49" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="74" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="75">
+      <c r="A50" s="74">
         <v>18</v>
       </c>
-      <c r="B50" s="75" t="s">
+      <c r="B50" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="C50" s="75" t="s">
+      <c r="C50" s="74" t="s">
         <v>225</v>
       </c>
-      <c r="D50" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="75" t="s">
+      <c r="D50" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="74" t="s">
         <v>318</v>
       </c>
-      <c r="F50" s="75" t="s">
+      <c r="F50" s="74" t="s">
         <v>318</v>
       </c>
-      <c r="G50" s="75" t="s">
+      <c r="G50" s="74" t="s">
         <v>318</v>
       </c>
-      <c r="H50" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="J50" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="K50" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="L50" s="75" t="s">
+      <c r="H50" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="L50" s="74" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="75">
+      <c r="A51" s="74">
         <v>19</v>
       </c>
-      <c r="B51" s="75" t="s">
+      <c r="B51" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="C51" s="75" t="s">
+      <c r="C51" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="D51" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="K51" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="L51" s="75" t="s">
+      <c r="D51" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="74" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="75">
+      <c r="A52" s="74">
         <v>20</v>
       </c>
-      <c r="B52" s="75" t="s">
+      <c r="B52" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="C52" s="75" t="s">
+      <c r="C52" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="J52" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="K52" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="L52" s="75" t="s">
+      <c r="D52" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="L52" s="74" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="75" t="s">
+      <c r="B53" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="D53" s="75" t="s">
+      <c r="D53" s="74" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="75" t="s">
+      <c r="B54" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="D54" s="75" t="s">
+      <c r="D54" s="74" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="75" t="s">
+      <c r="B55" s="74" t="s">
         <v>293</v>
       </c>
-      <c r="D55" s="75" t="s">
+      <c r="D55" s="74" t="s">
         <v>292</v>
       </c>
     </row>
@@ -11507,6 +11511,2553 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3CD5A4-C9CD-494E-94B4-E17E22A9FC9A}">
+  <dimension ref="A1:V39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="44">
+        <v>50.61</v>
+      </c>
+      <c r="F2" s="44">
+        <v>3.14</v>
+      </c>
+      <c r="G2" s="44">
+        <v>70</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="21">
+        <v>42654</v>
+      </c>
+      <c r="J2" s="21">
+        <v>44196</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="U2" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="V2" s="43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A39" si="0">A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="49">
+        <v>52.456000000000003</v>
+      </c>
+      <c r="F3" s="49">
+        <v>-1.929</v>
+      </c>
+      <c r="G3" s="49">
+        <v>143</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I3" s="21">
+        <v>43466</v>
+      </c>
+      <c r="J3" s="21">
+        <v>44926</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="52"/>
+      <c r="O3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V3" s="27"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="49">
+        <v>41.387500000000003</v>
+      </c>
+      <c r="F4" s="49">
+        <v>2.1180560000000002</v>
+      </c>
+      <c r="G4" s="49">
+        <v>80</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="21">
+        <v>41778</v>
+      </c>
+      <c r="J4" s="21">
+        <v>45135</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="V4" s="27"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="50">
+        <v>44.522221999999999</v>
+      </c>
+      <c r="F5" s="50">
+        <v>11.338333</v>
+      </c>
+      <c r="G5" s="49">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="61">
+        <v>40864</v>
+      </c>
+      <c r="J5" s="21">
+        <v>44391</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="52"/>
+      <c r="O5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="V5" s="27"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="44">
+        <v>35.038708</v>
+      </c>
+      <c r="F6" s="44">
+        <v>33.057763999999999</v>
+      </c>
+      <c r="G6" s="44">
+        <v>352</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" s="21">
+        <v>43441</v>
+      </c>
+      <c r="J6" s="21">
+        <v>43616</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="45">
+        <v>49.26</v>
+      </c>
+      <c r="F7" s="45">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="G7" s="64"/>
+      <c r="H7" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="21">
+        <v>42370</v>
+      </c>
+      <c r="J7" s="21">
+        <v>44561</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U7" s="68" t="s">
+        <v>325</v>
+      </c>
+      <c r="V7" s="18"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="47">
+        <v>37.994999999999997</v>
+      </c>
+      <c r="F8" s="47">
+        <v>23.815999999999999</v>
+      </c>
+      <c r="G8" s="47">
+        <v>270</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="42">
+        <v>43049</v>
+      </c>
+      <c r="J8" s="42">
+        <v>44405</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="V8" s="18"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="50">
+        <v>53.305300000000003</v>
+      </c>
+      <c r="F9" s="50">
+        <v>-6.0512560000000004</v>
+      </c>
+      <c r="G9" s="50">
+        <v>35</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="21">
+        <v>42587</v>
+      </c>
+      <c r="J9" s="21">
+        <v>44926</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="52"/>
+      <c r="O9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="V9" s="27"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="49">
+        <v>37.163888999999998</v>
+      </c>
+      <c r="F10" s="49">
+        <v>-3.605</v>
+      </c>
+      <c r="G10" s="49">
+        <v>68</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I10" s="21">
+        <v>42353</v>
+      </c>
+      <c r="J10" s="21">
+        <v>42416</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="52"/>
+      <c r="O10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V10" s="27"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="49">
+        <v>60.196300000000001</v>
+      </c>
+      <c r="F11" s="49">
+        <v>24.952200000000001</v>
+      </c>
+      <c r="G11" s="49">
+        <v>25</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" s="21">
+        <v>42165</v>
+      </c>
+      <c r="J11" s="21">
+        <v>43830</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="52"/>
+      <c r="O11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V11" s="27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="44">
+        <v>47.8</v>
+      </c>
+      <c r="F12" s="44">
+        <v>11</v>
+      </c>
+      <c r="G12" s="50">
+        <v>985</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="21">
+        <v>41640</v>
+      </c>
+      <c r="J12" s="21">
+        <v>44926</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="52"/>
+      <c r="O12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V12" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f>A12+1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="50">
+        <v>44.412616999999997</v>
+      </c>
+      <c r="F13" s="50">
+        <v>26.09188</v>
+      </c>
+      <c r="G13" s="50">
+        <v>93</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I13" s="21">
+        <v>42370</v>
+      </c>
+      <c r="J13" s="21">
+        <v>44783</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="52"/>
+      <c r="O13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="V13" s="27"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f>A13+1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="45">
+        <v>50.089704670000003</v>
+      </c>
+      <c r="F14" s="45">
+        <v>19.890297</v>
+      </c>
+      <c r="G14" s="45">
+        <v>13</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I14" s="21">
+        <v>43108</v>
+      </c>
+      <c r="J14" s="21">
+        <v>43565</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="52"/>
+      <c r="O14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="V14" s="18"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="45">
+        <v>51.52</v>
+      </c>
+      <c r="F15" s="45">
+        <v>-0.154611</v>
+      </c>
+      <c r="G15" s="45">
+        <v>39</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I15" s="21">
+        <v>43678</v>
+      </c>
+      <c r="J15" s="21">
+        <v>44127</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="52"/>
+      <c r="O15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="V15" s="18"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="45">
+        <v>51.521000000000001</v>
+      </c>
+      <c r="F16" s="45">
+        <v>-0.2135</v>
+      </c>
+      <c r="G16" s="45">
+        <v>27</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I16" s="21">
+        <v>42331</v>
+      </c>
+      <c r="J16" s="21">
+        <v>43153</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="52"/>
+      <c r="O16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="V16" s="18"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="45">
+        <v>45.76</v>
+      </c>
+      <c r="F17" s="45">
+        <v>7.85</v>
+      </c>
+      <c r="G17" s="64"/>
+      <c r="H17" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" s="21">
+        <v>42074</v>
+      </c>
+      <c r="J17" s="21">
+        <v>44561</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="52"/>
+      <c r="O17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V17" s="18"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="45">
+        <v>40.456435999999997</v>
+      </c>
+      <c r="F18" s="45">
+        <v>-3.7256309999999999</v>
+      </c>
+      <c r="G18" s="45">
+        <v>669</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I18" s="21">
+        <v>43729</v>
+      </c>
+      <c r="J18" s="21">
+        <v>45291</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="52"/>
+      <c r="O18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U18" s="4"/>
+      <c r="V18" s="18"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="45">
+        <v>53.44417</v>
+      </c>
+      <c r="F19" s="45">
+        <v>-2.2144439999999999</v>
+      </c>
+      <c r="G19" s="45">
+        <v>43</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I19" s="21">
+        <v>43889</v>
+      </c>
+      <c r="J19" s="21">
+        <v>45020</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="52"/>
+      <c r="O19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V19" s="18"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="44">
+        <v>43.305233000000001</v>
+      </c>
+      <c r="F20" s="44">
+        <v>5.394692</v>
+      </c>
+      <c r="G20" s="44">
+        <v>71</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" s="21">
+        <v>42947</v>
+      </c>
+      <c r="J20" s="21">
+        <v>44925</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="52"/>
+      <c r="O20" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="V20" s="18"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="44">
+        <v>49.11</v>
+      </c>
+      <c r="F21" s="44">
+        <v>6.22</v>
+      </c>
+      <c r="G21" s="64"/>
+      <c r="H21" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I21" s="21">
+        <v>44561</v>
+      </c>
+      <c r="J21" s="21">
+        <v>44561</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="52"/>
+      <c r="O21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V21" s="18"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="44">
+        <v>45.478611000000001</v>
+      </c>
+      <c r="F22" s="44">
+        <v>9.2344439999999999</v>
+      </c>
+      <c r="G22" s="45">
+        <v>118</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="21">
+        <v>41673</v>
+      </c>
+      <c r="J22" s="21">
+        <v>41698</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V22" s="18"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="49">
+        <v>37.973439999999997</v>
+      </c>
+      <c r="F23" s="49">
+        <v>23.718084999999999</v>
+      </c>
+      <c r="G23" s="49">
+        <v>105</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="21">
+        <v>42736</v>
+      </c>
+      <c r="J23" s="21">
+        <v>44531</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="18"/>
+      <c r="O23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V23" s="27"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="49">
+        <v>48.838574000000001</v>
+      </c>
+      <c r="F24" s="49">
+        <v>2.4127130000000001</v>
+      </c>
+      <c r="G24" s="49">
+        <v>48</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I24" s="21">
+        <v>44440</v>
+      </c>
+      <c r="J24" s="21">
+        <v>44561</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="52"/>
+      <c r="O24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V24" s="27"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" s="21">
+        <v>43121</v>
+      </c>
+      <c r="J25" s="21">
+        <v>43008</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="52"/>
+      <c r="O25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V25" s="27"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I26" s="21">
+        <v>43712</v>
+      </c>
+      <c r="J26" s="21">
+        <v>44336</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="52"/>
+      <c r="O26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V26" s="27"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="50">
+        <v>45.377499999999998</v>
+      </c>
+      <c r="F27" s="50">
+        <v>11.94</v>
+      </c>
+      <c r="G27" s="49">
+        <v>11</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="21">
+        <v>41665</v>
+      </c>
+      <c r="J27" s="21">
+        <v>41698</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="49">
+        <v>46.59111</v>
+      </c>
+      <c r="F28" s="49">
+        <v>0.34027800000000002</v>
+      </c>
+      <c r="G28" s="49">
+        <v>71</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I28" s="21">
+        <v>42321</v>
+      </c>
+      <c r="J28" s="21">
+        <v>44543</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" s="52"/>
+      <c r="O28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="44">
+        <v>50.1</v>
+      </c>
+      <c r="F29" s="44">
+        <v>14.4</v>
+      </c>
+      <c r="G29" s="44">
+        <v>277</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I29" s="21">
+        <v>41080</v>
+      </c>
+      <c r="J29" s="21">
+        <v>41409</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="18"/>
+      <c r="O29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="V29" s="4"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="49">
+        <v>48.089649999999999</v>
+      </c>
+      <c r="F30" s="49">
+        <v>-1.659111</v>
+      </c>
+      <c r="G30" s="49">
+        <v>45</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I30" s="21">
+        <v>43875</v>
+      </c>
+      <c r="J30" s="21">
+        <v>44457</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="52"/>
+      <c r="O30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V30" s="4"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="44">
+        <v>48.71</v>
+      </c>
+      <c r="F31" s="44">
+        <v>2.15</v>
+      </c>
+      <c r="G31" s="44">
+        <v>163</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I31" s="21">
+        <v>40695</v>
+      </c>
+      <c r="J31" s="21">
+        <v>44921</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" s="52"/>
+      <c r="O31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="V31" s="27"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="44">
+        <v>61.85</v>
+      </c>
+      <c r="F32" s="44">
+        <v>24.28</v>
+      </c>
+      <c r="G32" s="44">
+        <v>181</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I32" s="21">
+        <v>40909</v>
+      </c>
+      <c r="J32" s="21">
+        <v>43726</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="52"/>
+      <c r="O32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="V32" s="27"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="45">
+        <v>44.524444000000003</v>
+      </c>
+      <c r="F33" s="45">
+        <v>11.524444000000001</v>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="40">
+        <v>40861</v>
+      </c>
+      <c r="J33" s="40">
+        <v>42347</v>
+      </c>
+      <c r="K33" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="53"/>
+      <c r="O33" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R33" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="S33" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="T33" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="U33" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="V33" s="40"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="45">
+        <v>48.572789999999998</v>
+      </c>
+      <c r="F34" s="45">
+        <v>7.7529972000000003</v>
+      </c>
+      <c r="G34" s="45">
+        <v>140</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I34" s="21">
+        <v>43875</v>
+      </c>
+      <c r="J34" s="21">
+        <v>44457</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="52"/>
+      <c r="O34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V34" s="40"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I35" s="21">
+        <v>45982</v>
+      </c>
+      <c r="J35" s="21">
+        <v>44562</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="52"/>
+      <c r="O35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="V35" s="40"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="50">
+        <v>58.370600000000003</v>
+      </c>
+      <c r="F36" s="50">
+        <v>26.7349</v>
+      </c>
+      <c r="G36" s="49">
+        <v>39</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I36" s="21">
+        <v>42614</v>
+      </c>
+      <c r="J36" s="21">
+        <v>42940</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V36" s="4"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="50">
+        <v>54.643332999999998</v>
+      </c>
+      <c r="F37" s="50">
+        <v>25.182777999999999</v>
+      </c>
+      <c r="G37" s="49">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I37" s="21">
+        <v>41922</v>
+      </c>
+      <c r="J37" s="21">
+        <v>42899</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="V37" s="4"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="44">
+        <v>60.5</v>
+      </c>
+      <c r="F38" s="44">
+        <v>27.7</v>
+      </c>
+      <c r="G38" s="44">
+        <v>7</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I38" s="21">
+        <v>41075</v>
+      </c>
+      <c r="J38" s="21">
+        <v>41432</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" s="52"/>
+      <c r="O38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V38" s="4"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="44">
+        <v>47.4</v>
+      </c>
+      <c r="F39" s="44">
+        <v>8.5</v>
+      </c>
+      <c r="G39" s="44">
+        <v>409</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I39" s="21">
+        <v>42613</v>
+      </c>
+      <c r="J39" s="21">
+        <v>45118</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V39" s="4"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="D1:D39" xr:uid="{BB3CD5A4-C9CD-494E-94B4-E17E22A9FC9A}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAECC9E8-07B8-43E6-AF50-264301188E83}">
   <dimension ref="A2:J10"/>
   <sheetViews>
@@ -11785,7 +14336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C78A47A-00B8-4862-88C2-60A2D23E5951}">
   <dimension ref="A1:L24"/>
   <sheetViews>
@@ -11825,10 +14376,10 @@
       <c r="H2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="64"/>
+      <c r="J2" s="76"/>
       <c r="K2" s="14" t="s">
         <v>100</v>
       </c>
@@ -12667,7 +15218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95676D4-1698-4223-8BFC-C0F047ADFBB0}">
   <dimension ref="A1"/>
   <sheetViews>
